--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE861AC-1EB8-4AF9-8C9E-9EEDEB156A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B4BEAF-E598-48F6-959F-E961695EC132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Filter" sheetId="1" r:id="rId1"/>
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>собирать реальные данные с фильтра</t>
   </si>
@@ -88,13 +91,169 @@
   </si>
   <si>
     <t>Home page</t>
+  </si>
+  <si>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Стиль кнопки Favourites</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>Последний элемент из wishlist не удаляется</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>deploy on HEROKU</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>code refactor</t>
+  </si>
+  <si>
+    <t>Сообщение что  в корзине ничего нет</t>
+  </si>
+  <si>
+    <t>Login/Logout</t>
+  </si>
+  <si>
+    <t>При логине и логауте текуий роут надо перезагружать (например, чтоб обновлялась корзина)</t>
+  </si>
+  <si>
+    <t>Добавить контейнер</t>
+  </si>
+  <si>
+    <t>показывать кол-ва на Favorites icon</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Обрабатывать клик "добавление в избранное" для незалогиненого пользователя - модалка</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>долго загружаются иконки категорий</t>
+  </si>
+  <si>
+    <t>Catalog</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Выбор цены не работает</t>
+  </si>
+  <si>
+    <t>Выбор цены сделать более симпатичным</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Адаптивность</t>
+  </si>
+  <si>
+    <t>Выезд поля инпута по нажатию, свертка по дефокусу или переходу на другую страницу</t>
+  </si>
+  <si>
+    <t>Изменение иконки и подписи при логине/логауте</t>
+  </si>
+  <si>
+    <t>Навесить функционал логаута</t>
+  </si>
+  <si>
+    <t>Тестирование функционала на мобилке</t>
+  </si>
+  <si>
+    <t>Тестирование функционала на десктопе</t>
+  </si>
+  <si>
+    <t>Тестирование функционала на планшете</t>
+  </si>
+  <si>
+    <t>Выложить на HEROKU</t>
+  </si>
+  <si>
+    <t>Тестирование адаптивности на мобилке</t>
+  </si>
+  <si>
+    <t>Тестирование адаптивности на планшете</t>
+  </si>
+  <si>
+    <t>Тестирование адаптивности на десктопе</t>
+  </si>
+  <si>
+    <t>Обработка ошибок (.error, try catch)</t>
+  </si>
+  <si>
+    <t>Убрать ошибки eslint</t>
+  </si>
+  <si>
+    <t>Рефакторинг кода (улучшить)</t>
+  </si>
+  <si>
+    <t>Перенести все страницы в одну папку</t>
+  </si>
+  <si>
+    <t>Заменить sign Up на Register</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Сверстать чекаут</t>
+  </si>
+  <si>
+    <t>Настроить валидацию чекаут</t>
+  </si>
+  <si>
+    <t>Подтянуть данные в форму</t>
+  </si>
+  <si>
+    <t>Функционал чекаута</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +262,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +293,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,13 +308,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,31 +765,1189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.5546875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="7"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="7"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="7"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="7"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="7"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="7"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="7"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="7"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="7"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="7"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="7"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="7"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="7"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="7"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="7"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="7"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="7"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="7"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="7"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="7"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="7"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="7"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="7"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="7"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="7"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="7"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="7"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="7"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="7"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="7"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="7"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="7"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="7"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="7"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="7"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="7"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="7"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="7"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="7"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="7"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="7"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="7"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="5"/>
+      <c r="D133" s="5"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="7"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="7"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{97C115AA-75BA-4ECA-A4DD-57A795D89F11}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51FE496-7B33-447B-90BF-892A881284FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB743A9-ADB6-4BB3-A451-D0033A55A204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
+    <workbookView xWindow="744" yWindow="108" windowWidth="21348" windowHeight="12240" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="172">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -538,6 +538,24 @@
   </si>
   <si>
     <t>Сообщение если уже зарегистрирован?</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Информация про корзину пользователя грузиться с опозданием</t>
+  </si>
+  <si>
+    <t>remember me не работает</t>
+  </si>
+  <si>
+    <t>Переход по products/coocking вызывает ошибку (когда неправильно указана категория)</t>
+  </si>
+  <si>
+    <t>Routes</t>
+  </si>
+  <si>
+    <t>axios.defaults.authorization пишется в скрипте Корзины</t>
   </si>
 </sst>
 </file>
@@ -660,7 +678,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2789,47 +2821,75 @@
     <i/>
   </colItems>
   <formats count="48">
-    <format dxfId="49">
+    <format dxfId="51">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="47">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="45">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -2840,7 +2900,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2848,13 +2908,12 @@
     <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="2">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2868,7 +2927,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -2876,12 +2935,13 @@
     <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="2">
+          <reference field="2" count="3">
             <x v="0"/>
             <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -2889,13 +2949,11 @@
     <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="1">
             <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2909,7 +2967,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -2921,7 +2979,7 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -2929,35 +2987,44 @@
     <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
+          <reference field="2" count="0"/>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="35"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0"/>
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
           <reference field="4" count="1" selected="0">
-            <x v="9"/>
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="6">
+            <x v="65"/>
+            <x v="79"/>
+            <x v="80"/>
+            <x v="82"/>
+            <x v="84"/>
+            <x v="88"/>
           </reference>
         </references>
       </pivotArea>
@@ -2966,54 +3033,19 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1">
-            <x v="35"/>
+          <reference field="5" count="2">
+            <x v="81"/>
+            <x v="83"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="6">
-            <x v="65"/>
-            <x v="79"/>
-            <x v="80"/>
-            <x v="82"/>
-            <x v="84"/>
-            <x v="88"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="81"/>
-            <x v="83"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3037,7 +3069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3061,7 +3093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3078,7 +3110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3099,7 +3131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3114,6 +3146,39 @@
             <x v="53"/>
             <x v="56"/>
             <x v="57"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="38"/>
+            <x v="39"/>
+            <x v="50"/>
+            <x v="59"/>
           </reference>
         </references>
       </pivotArea>
@@ -3122,13 +3187,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="4"/>
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="18"/>
+            <x v="89"/>
           </reference>
         </references>
       </pivotArea>
@@ -3140,13 +3206,11 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="38"/>
-            <x v="39"/>
-            <x v="50"/>
-            <x v="59"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="49"/>
+            <x v="67"/>
           </reference>
         </references>
       </pivotArea>
@@ -3158,11 +3222,15 @@
             <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="18"/>
-            <x v="89"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="6">
+            <x v="8"/>
+            <x v="43"/>
+            <x v="46"/>
+            <x v="48"/>
+            <x v="73"/>
+            <x v="86"/>
           </reference>
         </references>
       </pivotArea>
@@ -3171,14 +3239,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="5" count="2">
-            <x v="49"/>
-            <x v="67"/>
+          <reference field="5" count="4">
+            <x v="0"/>
+            <x v="16"/>
+            <x v="64"/>
+            <x v="97"/>
           </reference>
         </references>
       </pivotArea>
@@ -3187,18 +3257,17 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="6">
-            <x v="8"/>
-            <x v="43"/>
-            <x v="46"/>
-            <x v="48"/>
-            <x v="73"/>
-            <x v="86"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="5">
+            <x v="19"/>
+            <x v="20"/>
+            <x v="31"/>
+            <x v="55"/>
+            <x v="85"/>
           </reference>
         </references>
       </pivotArea>
@@ -3207,16 +3276,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="0"/>
-            <x v="16"/>
-            <x v="64"/>
-            <x v="97"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="5"/>
+            <x v="26"/>
+            <x v="27"/>
           </reference>
         </references>
       </pivotArea>
@@ -3225,17 +3293,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="5" count="5">
-            <x v="19"/>
-            <x v="20"/>
-            <x v="31"/>
-            <x v="55"/>
-            <x v="85"/>
+          <reference field="5" count="1">
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
@@ -3244,15 +3308,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="5"/>
-            <x v="26"/>
-            <x v="27"/>
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="33"/>
+            <x v="41"/>
           </reference>
         </references>
       </pivotArea>
@@ -3261,51 +3324,20 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="69"/>
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="52"/>
+            <x v="94"/>
+            <x v="95"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="33"/>
-            <x v="41"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="52"/>
-            <x v="94"/>
-            <x v="95"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3326,18 +3358,53 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="21"/>
+            <x v="76"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="72"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="21"/>
-            <x v="76"/>
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="6">
+            <x v="3"/>
+            <x v="32"/>
+            <x v="42"/>
+            <x v="60"/>
+            <x v="66"/>
+            <x v="68"/>
           </reference>
         </references>
       </pivotArea>
@@ -3346,13 +3413,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="72"/>
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="2"/>
+            <x v="23"/>
+            <x v="70"/>
           </reference>
         </references>
       </pivotArea>
@@ -3361,18 +3430,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="6">
-            <x v="3"/>
-            <x v="32"/>
-            <x v="42"/>
-            <x v="60"/>
-            <x v="66"/>
-            <x v="68"/>
+          <reference field="5" count="3">
+            <x v="25"/>
+            <x v="37"/>
+            <x v="96"/>
           </reference>
         </references>
       </pivotArea>
@@ -3381,55 +3447,21 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="3">
-            <x v="2"/>
-            <x v="23"/>
-            <x v="70"/>
+          <reference field="5" count="1">
+            <x v="98"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="25"/>
-            <x v="37"/>
-            <x v="96"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="98"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="3">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -4533,8 +4565,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115:F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6449,36 +6481,70 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
+      <c r="A108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="3"/>
+      <c r="F108" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
+      <c r="F109" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
+      <c r="A111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
@@ -6893,7 +6959,15 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
     <sortCondition ref="B2:B101"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C162">
+  <conditionalFormatting sqref="C2:C108 C110:C162">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB743A9-ADB6-4BB3-A451-D0033A55A204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FBABF-4E9D-4642-9358-D54F1839C9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="108" windowWidth="21348" windowHeight="12240" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="3" r:id="rId1"/>
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$F$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$F$153</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="181">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -105,27 +105,9 @@
     <t>Search</t>
   </si>
   <si>
-    <t>Тестирование функционала на мобилке</t>
-  </si>
-  <si>
-    <t>Тестирование функционала на десктопе</t>
-  </si>
-  <si>
-    <t>Тестирование функционала на планшете</t>
-  </si>
-  <si>
     <t>Выложить на HEROKU</t>
   </si>
   <si>
-    <t>Тестирование адаптивности на мобилке</t>
-  </si>
-  <si>
-    <t>Тестирование адаптивности на планшете</t>
-  </si>
-  <si>
-    <t>Тестирование адаптивности на десктопе</t>
-  </si>
-  <si>
     <t>Обработка ошибок (.error, try catch)</t>
   </si>
   <si>
@@ -186,9 +168,6 @@
     <t>Изменение иконки (заливка зеленым) и подписи при логине/логауте (Login / Account)</t>
   </si>
   <si>
-    <t>Незалогиненый пользователь заходит на приватную страницу - обработка</t>
-  </si>
-  <si>
     <t>Private Pages</t>
   </si>
   <si>
@@ -252,9 +231,6 @@
     <t>Убрать products ссылку из футера</t>
   </si>
   <si>
-    <t>Добавить карусель с топ продуктами</t>
-  </si>
-  <si>
     <t>Anya</t>
   </si>
   <si>
@@ -294,9 +270,6 @@
     <t>input поменять</t>
   </si>
   <si>
-    <t>приукрасить вывод инфы в табах</t>
-  </si>
-  <si>
     <t>на мобильной версии очень большая картинка сейчас</t>
   </si>
   <si>
@@ -327,9 +300,6 @@
     <t>добавить сортировку товаров</t>
   </si>
   <si>
-    <t>Добавить контейнер и адаптив</t>
-  </si>
-  <si>
     <t>добавить Container на компонентах везде</t>
   </si>
   <si>
@@ -357,9 +327,6 @@
     <t>при клике на корзину - сразу переводить в корзину</t>
   </si>
   <si>
-    <t>Proceed to Checkout -меняем на CHECKOUT</t>
-  </si>
-  <si>
     <t>удаление товара - доделать диалоговое окно</t>
   </si>
   <si>
@@ -387,9 +354,6 @@
     <t>чтоб фильт соответствовал перечню товаров на странице</t>
   </si>
   <si>
-    <t>Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)</t>
-  </si>
-  <si>
     <t>Сделать презентацию</t>
   </si>
   <si>
@@ -405,9 +369,6 @@
     <t>Pres</t>
   </si>
   <si>
-    <t>Починить выбор цены</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -420,9 +381,6 @@
     <t>Сворачивать фильтр при переходе в другие категории</t>
   </si>
   <si>
-    <t>Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)</t>
-  </si>
-  <si>
     <t>Folder structure</t>
   </si>
   <si>
@@ -444,9 +402,6 @@
     <t>Поменять описание категорий на главной странице</t>
   </si>
   <si>
-    <t>Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)</t>
-  </si>
-  <si>
     <t>В хлебных крошках отобразить Search после иконки дома</t>
   </si>
   <si>
@@ -459,18 +414,12 @@
     <t>при загрузке корзины проверять наличие и информировать, если нет</t>
   </si>
   <si>
-    <t>на моб версии сделать ссылки главных категорий кликабельными</t>
-  </si>
-  <si>
     <t>Добавить в базу данных sizes для всех артикулов или проверять перед отрисовкой</t>
   </si>
   <si>
     <t>Maks</t>
   </si>
   <si>
-    <t>Если отжимается какой-то фильтр - обновлять товары?</t>
-  </si>
-  <si>
     <t>В хедер меню поменять ховер на полоски по бокам</t>
   </si>
   <si>
@@ -534,9 +483,6 @@
     <t>Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза</t>
   </si>
   <si>
-    <t>Пагинация или инфинити скрол</t>
-  </si>
-  <si>
     <t>Сообщение если уже зарегистрирован?</t>
   </si>
   <si>
@@ -556,6 +502,87 @@
   </si>
   <si>
     <t>axios.defaults.authorization пишется в скрипте Корзины</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Time estimate</t>
+  </si>
+  <si>
+    <t>Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале</t>
+  </si>
+  <si>
+    <t>Anya / Vlad</t>
+  </si>
+  <si>
+    <t>фильтр на мобилке прилепить вниз на кнопку</t>
+  </si>
+  <si>
+    <t>Починить выбор цены, добавить инпут вручную</t>
+  </si>
+  <si>
+    <t>Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Незалогиненый пользователь заходит на приватную страницу - обработка - ДОДЕЛАТЬ ДЛЯ ВСЕХ СТРАНИЦ</t>
+  </si>
+  <si>
+    <t>Anya / Help</t>
+  </si>
+  <si>
+    <t>Anya / Maks</t>
+  </si>
+  <si>
+    <t>проверить работу функционала регистрации</t>
+  </si>
+  <si>
+    <t>на моб версии сделать ссылки главных категорий кликабельными (view all)</t>
+  </si>
+  <si>
+    <t>приукрасить вывод инфы в табах (ховер по таблице)</t>
+  </si>
+  <si>
+    <t>Vlad / Vanya</t>
+  </si>
+  <si>
+    <t>Сверстать подписку</t>
+  </si>
+  <si>
+    <t>Инфинити скрол</t>
+  </si>
+  <si>
+    <t>Anya / Vlad Total</t>
+  </si>
+  <si>
+    <t>Anya / Help Total</t>
+  </si>
+  <si>
+    <t>Anya / Maks Total</t>
+  </si>
+  <si>
+    <t>Vlad / Vanya Total</t>
+  </si>
+  <si>
+    <t>оставлять ховер при переходе по меню</t>
+  </si>
+  <si>
+    <t>Затемнять карточки товаров, которых нет в наличии</t>
+  </si>
+  <si>
+    <t>Product Card</t>
+  </si>
+  <si>
+    <t>Тестирование на десктопе</t>
+  </si>
+  <si>
+    <t>Тестирование на планшете</t>
+  </si>
+  <si>
+    <t>Тестирование на мобилке</t>
   </si>
 </sst>
 </file>
@@ -636,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -674,11 +701,313 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="244">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -706,6 +1035,302 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -869,9 +1494,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43854.965535648145" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="161" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43857.628392013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F162" sheet="General"/>
+    <worksheetSource ref="A1:F153" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -892,31 +1517,33 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Responsible" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
-        <m/>
+      <sharedItems containsBlank="1" count="15">
+        <s v="Maks"/>
         <s v="Julia"/>
         <s v="ALL"/>
+        <m/>
+        <s v="Luda"/>
         <s v="Anya"/>
         <s v="Vlad"/>
-        <s v="Luda"/>
-        <s v="Maks"/>
+        <s v="Anya / Vlad"/>
         <s v="Vanya"/>
         <s v="Vanya / Help"/>
         <s v="Vlad / Anya"/>
+        <s v="Anya / Help"/>
+        <s v="Anya / Maks"/>
+        <s v="Vlad / Vanya"/>
+        <s v="???"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="99">
+      <sharedItems containsBlank="1" count="122">
         <s v="сделать меньше по ширине, добавить Item #. View basket поменять на View Cart, убрать &quot;;&quot; после слова DHL "/>
         <s v="Выложить на HEROKU"/>
         <s v="Рефакторинг кода (улучшить)"/>
         <s v="Убрать ошибки eslint"/>
-        <s v="Тестирование функционала на десктопе"/>
-        <s v="Тестирование функционала на мобилке"/>
-        <s v="Тестирование функционала на планшете"/>
-        <s v="Тестирование адаптивности на мобилке"/>
-        <s v="Тестирование адаптивности на планшете"/>
-        <s v="Тестирование адаптивности на десктопе"/>
+        <s v="Тестирование на десктопе"/>
+        <s v="Тестирование на планшете"/>
+        <s v="Тестирование на мобилке"/>
         <s v="Обработка ошибок (.error, try catch)"/>
         <s v="при переходе на новый роут - подниматься вверх"/>
         <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта)"/>
@@ -924,18 +1551,17 @@
         <s v="При нажатии на продукт в корзине передавать в роут itemNo (не itemId)"/>
         <s v="считывать значение q-ty перед добавлением в корзину (на product Detail и в модалке)"/>
         <s v="при клике на корзину - сразу переводить в корзину"/>
-        <s v="Proceed to Checkout -меняем на CHECKOUT"/>
         <s v="удаление товара - доделать диалоговое окно"/>
         <s v="подключить добавление в корзину из product page"/>
         <s v="при нажатии на плюс проверять кол-во"/>
         <s v="при загрузке корзины проверять наличие и информировать, если нет"/>
         <s v="долго загружаются иконки категорий"/>
         <s v="причесать для моб версии"/>
-        <s v="на моб версии сделать ссылки главных категорий кликабельными"/>
+        <s v="на моб версии сделать ссылки главных категорий кликабельными (view all)"/>
         <s v="картинки на страницах категорий под шапкой"/>
         <s v="добавить сортировку товаров"/>
         <s v="долго загружаются иконки категорий в каталоге"/>
-        <s v="Добавить карусель с топ продуктами"/>
+        <s v="Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале"/>
         <s v="Сверстать чекаут"/>
         <s v="Настроить валидацию чекаут"/>
         <s v="Подтянуть данные в форму"/>
@@ -943,8 +1569,7 @@
         <s v="Добавить в базу данных sizes для всех артикулов или проверять перед отрисовкой"/>
         <s v="Убрать в ценах значение после запятой, длинные названия укоротить"/>
         <s v="Поменять описание категорий на главной странице"/>
-        <s v="Починить выбор цены"/>
-        <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)"/>
+        <s v="Починить выбор цены, добавить инпут вручную"/>
         <s v="Apply поменять на Filter"/>
         <s v="чтоб фильт соответствовал перечню товаров на странице"/>
         <s v="Чистить фильтр при переходе в другие категории"/>
@@ -954,14 +1579,13 @@
         <s v="чтоб при переходе на страницу назад/вперед сохранялись параметры фильтра"/>
         <s v="пересылка строки выбора"/>
         <s v="Изменение url согласно параметрам поиска"/>
-        <s v="Если отжимается какой-то фильтр - обновлять товары?"/>
         <s v="Перенести все страницы в одну папку"/>
         <s v="Реализовать переход по &quot;пирогу&quot;"/>
         <s v="Уменьшить высоту Header"/>
         <s v="Фиксировать хедер вверзу страницы при прокрутке"/>
         <s v="В хедер меню поменять ховер на полоски по бокам"/>
         <s v="Показывать поиск на планшете/моб"/>
-        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)"/>
+        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART"/>
         <s v="при нажатии на кнопки learn more ничего не происходит"/>
         <s v="Slider: Убрать стрелки на слайдере, позиционировать внутренний блок"/>
         <s v="Починить переход с картинки ножей на слайдере на продукт"/>
@@ -980,20 +1604,19 @@
         <s v="доверстать"/>
         <s v="изменение пароля"/>
         <s v="Сделать презентацию"/>
-        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка"/>
-        <s v="добавить номер артикула"/>
+        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка - ДОДЕЛАТЬ ДЛЯ ВСЕХ СТРАНИЦ"/>
         <s v="стрелки на слайдере"/>
         <s v="серый блок - сделать секси"/>
         <s v="input поменять"/>
-        <s v="приукрасить вывод инфы в табах"/>
+        <s v="приукрасить вывод инфы в табах (ховер по таблице)"/>
         <s v="на мобильной версии очень большая картинка сейчас"/>
         <s v="пунктирный блок?!?!"/>
         <s v="Выводить ItemNo на ProductCard / ProductDetail"/>
         <s v="Уменьшить высоту"/>
+        <s v="добавить номер артикула"/>
         <s v="сделать цены более секси:) особенно перечеркнутую"/>
         <s v="Выезд поля инпута по нажатию, свертка по дефокусу или переходу на другую страницу (ИЛИ СДЕЛАТЬ ПОСТОЯННО ВИДНЫМ. Аня, напиши мне по этому поводу, поделюсь мыслями)"/>
         <s v="Cохранять значение запроса в поле поиска при переходе на страницу с результатами"/>
-        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)"/>
         <s v="В хлебных крошках отобразить Search после иконки дома"/>
         <s v="Убирать модалку логина при переходе на регистрацию"/>
         <s v="При первом клике и вводе текста происходит расфокус"/>
@@ -1003,9 +1626,39 @@
         <s v="по клику и успешной регстрации - переводить на home page"/>
         <s v="Сообщение что  в Favorites ничего нет"/>
         <s v="Обрабатывать клик &quot;добавление в избранное&quot; для незалогиненого пользователя - модалка логина"/>
-        <s v="Добавить контейнер и адаптив"/>
         <s v="показывать кол-ва на Favorites icon"/>
+        <s v="По нажатию на сердечко - реакция слишком медленная"/>
+        <s v="Письмо с подтверждением заказа"/>
+        <s v="Подписка"/>
+        <s v="Сверстать подписку"/>
+        <s v="Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза"/>
+        <s v="Инфинити скрол"/>
+        <s v="Сообщение если уже зарегистрирован?"/>
+        <s v="Информация про корзину пользователя грузиться с опозданием"/>
+        <s v="remember me не работает"/>
+        <s v="Переход по products/coocking вызывает ошибку (когда неправильно указана категория)"/>
+        <s v="axios.defaults.authorization пишется в скрипте Корзины"/>
+        <s v="фильтр на мобилке прилепить вниз на кнопку"/>
+        <s v="оставлять ховер при переходе по меню"/>
+        <s v="Затемнять карточки товаров, которых нет в наличии"/>
         <m/>
+        <s v="Починить выбор цены" u="1"/>
+        <s v="Тестирование функционала на десктопе" u="1"/>
+        <s v="Тестирование адаптивности на планшете" u="1"/>
+        <s v="Тестирование функционала на планшете" u="1"/>
+        <s v="Если отжимается какой-то фильтр - обновлять товары?" u="1"/>
+        <s v="Тестирование функционала на мобилке" u="1"/>
+        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)" u="1"/>
+        <s v="Тестирование адаптивности на мобилке" u="1"/>
+        <s v="Proceed to Checkout -меняем на CHECKOUT" u="1"/>
+        <s v="Тестирование адаптивности на десктопе" u="1"/>
+        <s v="на моб версии сделать ссылки главных категорий кликабельными" u="1"/>
+        <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)" u="1"/>
+        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка" u="1"/>
+        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)" u="1"/>
+        <s v="приукрасить вывод инфы в табах" u="1"/>
+        <s v="Добавить карусель с топ продуктами" u="1"/>
+        <s v="Добавить контейнер и адаптив" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1018,7 +1671,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="161">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="152">
   <r>
     <s v="Design"/>
     <s v="Add to cart"/>
@@ -1056,48 +1709,24 @@
     <s v="All code"/>
     <x v="0"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="4"/>
-  </r>
-  <r>
-    <s v="Test"/>
-    <s v="All code"/>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="5"/>
   </r>
   <r>
     <s v="Test"/>
     <s v="All code"/>
     <x v="0"/>
     <m/>
-    <x v="2"/>
-    <x v="6"/>
+    <x v="3"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="Test"/>
     <s v="All code"/>
     <x v="0"/>
     <m/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Test"/>
-    <s v="All code"/>
-    <x v="2"/>
-    <m/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Test"/>
-    <s v="All code"/>
-    <x v="0"/>
-    <m/>
-    <x v="2"/>
-    <x v="9"/>
+    <x v="3"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1105,79 +1734,71 @@
     <x v="1"/>
     <m/>
     <x v="2"/>
-    <x v="10"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="All pages"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="11"/>
+    <s v="done"/>
+    <x v="4"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
     <m/>
-    <x v="0"/>
-    <x v="12"/>
+    <x v="5"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="13"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <m/>
+    <s v="done"/>
     <x v="1"/>
-    <x v="14"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <m/>
+    <s v="in progress"/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <m/>
+    <s v="done"/>
     <x v="1"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Cart"/>
-    <x v="2"/>
-    <m/>
-    <x v="1"/>
-    <x v="17"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <m/>
+    <s v="in progress"/>
     <x v="1"/>
-    <x v="18"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <m/>
+    <s v="in progress"/>
     <x v="1"/>
-    <x v="19"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1185,7 +1806,7 @@
     <x v="0"/>
     <m/>
     <x v="1"/>
-    <x v="20"/>
+    <x v="16"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1193,111 +1814,111 @@
     <x v="0"/>
     <m/>
     <x v="1"/>
-    <x v="21"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="Speed"/>
     <s v="Catalog"/>
     <x v="2"/>
     <m/>
-    <x v="4"/>
-    <x v="22"/>
+    <x v="6"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Catalog"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="23"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog"/>
     <x v="0"/>
     <m/>
-    <x v="3"/>
-    <x v="24"/>
+    <x v="5"/>
+    <x v="20"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Catalog"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
-    <x v="25"/>
+    <x v="5"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog"/>
     <x v="0"/>
     <m/>
-    <x v="5"/>
-    <x v="26"/>
+    <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="Speed"/>
     <s v="Catalog"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
-    <x v="27"/>
+    <x v="6"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog / Product page"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="28"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="24"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="29"/>
+    <s v="in progress"/>
+    <x v="6"/>
+    <x v="25"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="30"/>
+    <s v="in progress"/>
+    <x v="6"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="31"/>
+    <s v="in progress"/>
+    <x v="6"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <m/>
-    <x v="4"/>
-    <x v="32"/>
+    <s v="in progress"/>
+    <x v="6"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="DB"/>
     <x v="1"/>
     <m/>
-    <x v="3"/>
-    <x v="33"/>
+    <x v="7"/>
+    <x v="29"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="DB"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
-    <x v="34"/>
+    <x v="6"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1305,14 +1926,46 @@
     <x v="0"/>
     <m/>
     <x v="1"/>
-    <x v="35"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
     <m/>
+    <x v="0"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Filter"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Filter"/>
+    <x v="2"/>
+    <m/>
+    <x v="0"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Filter"/>
+    <x v="1"/>
+    <m/>
     <x v="6"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Filter"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
     <x v="36"/>
   </r>
   <r>
@@ -1320,15 +1973,15 @@
     <s v="Filter"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
+    <x v="0"/>
     <x v="37"/>
   </r>
   <r>
-    <s v="Design"/>
+    <s v="Func"/>
     <s v="Filter"/>
-    <x v="2"/>
-    <m/>
-    <x v="6"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
     <x v="38"/>
   </r>
   <r>
@@ -1336,983 +1989,911 @@
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="6"/>
+    <x v="3"/>
     <x v="39"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Filter"/>
-    <x v="1"/>
-    <m/>
-    <x v="4"/>
-    <x v="40"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Filter"/>
-    <x v="1"/>
-    <m/>
-    <x v="6"/>
-    <x v="41"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Filter"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="42"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Filter"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="43"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="0"/>
-    <x v="44"/>
+    <x v="3"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="0"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Filter"/>
-    <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="46"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Filter"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="47"/>
+    <x v="3"/>
+    <x v="41"/>
   </r>
   <r>
     <s v="Deploy"/>
     <s v="Folder structure"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
-    <x v="48"/>
+    <x v="6"/>
+    <x v="42"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="2"/>
     <m/>
-    <x v="6"/>
-    <x v="49"/>
+    <x v="0"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="50"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="44"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="51"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="45"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
-    <x v="52"/>
+    <x v="5"/>
+    <x v="46"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="53"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="47"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Header"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="54"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="48"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
     <x v="0"/>
-    <m/>
+    <s v="done"/>
     <x v="1"/>
-    <x v="55"/>
+    <x v="49"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <m/>
-    <x v="7"/>
-    <x v="56"/>
+    <s v="in progress"/>
+    <x v="8"/>
+    <x v="50"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
     <x v="1"/>
     <m/>
-    <x v="4"/>
-    <x v="57"/>
+    <x v="6"/>
+    <x v="51"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
     <x v="1"/>
-    <m/>
+    <s v="done"/>
     <x v="1"/>
-    <x v="58"/>
+    <x v="52"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <m/>
+    <s v="done"/>
     <x v="1"/>
-    <x v="59"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="2"/>
-    <m/>
-    <x v="7"/>
-    <x v="60"/>
+    <s v="done"/>
+    <x v="8"/>
+    <x v="54"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="2"/>
     <m/>
-    <x v="6"/>
-    <x v="61"/>
+    <x v="0"/>
+    <x v="55"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
-    <x v="62"/>
+    <x v="0"/>
+    <x v="56"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
-    <x v="63"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Home page"/>
-    <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="28"/>
+    <x v="0"/>
+    <x v="57"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Login/Logout"/>
     <x v="0"/>
-    <s v="in progress"/>
-    <x v="7"/>
-    <x v="64"/>
+    <s v="done"/>
+    <x v="8"/>
+    <x v="58"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Logout"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="7"/>
-    <x v="65"/>
+    <s v="done"/>
+    <x v="8"/>
+    <x v="59"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Modal"/>
     <x v="0"/>
-    <m/>
-    <x v="4"/>
-    <x v="66"/>
+    <s v="done"/>
+    <x v="6"/>
+    <x v="60"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="My Orders"/>
     <x v="1"/>
-    <m/>
-    <x v="7"/>
-    <x v="67"/>
+    <s v="in progress"/>
+    <x v="8"/>
+    <x v="61"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="My Orders"/>
     <x v="1"/>
     <m/>
-    <x v="7"/>
-    <x v="68"/>
+    <x v="8"/>
+    <x v="62"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="1"/>
     <m/>
-    <x v="8"/>
-    <x v="69"/>
+    <x v="9"/>
+    <x v="63"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Personal data"/>
     <x v="1"/>
-    <m/>
-    <x v="7"/>
-    <x v="70"/>
+    <s v="in progress"/>
+    <x v="8"/>
+    <x v="64"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="0"/>
     <m/>
-    <x v="7"/>
-    <x v="71"/>
+    <x v="8"/>
+    <x v="65"/>
   </r>
   <r>
     <s v="Pres"/>
     <s v="Presentation"/>
     <x v="1"/>
     <m/>
-    <x v="9"/>
-    <x v="72"/>
+    <x v="10"/>
+    <x v="66"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Private Pages"/>
     <x v="1"/>
-    <m/>
-    <x v="8"/>
-    <x v="73"/>
+    <s v="in progress"/>
+    <x v="9"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="74"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="68"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="75"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Product Detail"/>
+    <x v="1"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="70"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="76"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Product Detail"/>
-    <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="77"/>
+    <s v="in progress"/>
+    <x v="5"/>
+    <x v="71"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="78"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="72"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
     <m/>
-    <x v="3"/>
-    <x v="79"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Product Detail"/>
-    <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="80"/>
+    <x v="5"/>
+    <x v="73"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="81"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="74"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="82"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="75"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="74"/>
+    <s v="done"/>
+    <x v="5"/>
+    <x v="76"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="83"/>
+    <s v="in progress"/>
+    <x v="11"/>
+    <x v="77"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Search"/>
     <x v="1"/>
-    <m/>
-    <x v="3"/>
-    <x v="84"/>
+    <s v="in progress"/>
+    <x v="12"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Search"/>
+    <x v="1"/>
+    <m/>
+    <x v="0"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Search"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
-    <x v="85"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Search"/>
-    <x v="0"/>
-    <m/>
     <x v="6"/>
-    <x v="86"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Search"/>
-    <x v="0"/>
-    <m/>
-    <x v="4"/>
-    <x v="87"/>
+    <x v="80"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="7"/>
-    <x v="88"/>
+    <s v="done"/>
+    <x v="8"/>
+    <x v="81"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <m/>
-    <x v="5"/>
-    <x v="89"/>
+    <s v="in progress"/>
+    <x v="4"/>
+    <x v="82"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Sign Up"/>
     <x v="0"/>
-    <m/>
-    <x v="5"/>
-    <x v="90"/>
+    <s v="done"/>
+    <x v="4"/>
+    <x v="83"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <m/>
-    <x v="5"/>
-    <x v="91"/>
+    <s v="in progress"/>
+    <x v="4"/>
+    <x v="84"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
     <m/>
-    <x v="5"/>
-    <x v="92"/>
+    <x v="8"/>
+    <x v="85"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <m/>
-    <x v="5"/>
-    <x v="93"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Wishlist"/>
-    <x v="2"/>
-    <m/>
+    <s v="in progress"/>
     <x v="4"/>
-    <x v="94"/>
+    <x v="86"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Wishlist"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
-    <x v="95"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Wishlist"/>
-    <x v="2"/>
-    <m/>
-    <x v="3"/>
-    <x v="96"/>
+    <x v="6"/>
+    <x v="87"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Wishlist"/>
     <x v="0"/>
     <m/>
+    <x v="13"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Wishlist"/>
+    <x v="0"/>
+    <m/>
+    <x v="6"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <s v="Speed"/>
+    <s v="Wishlist"/>
+    <x v="0"/>
+    <m/>
+    <x v="6"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Subscribe"/>
+    <x v="0"/>
+    <m/>
+    <x v="6"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Subscribe"/>
+    <x v="0"/>
+    <m/>
+    <x v="14"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Subscribe"/>
+    <x v="0"/>
+    <m/>
+    <x v="14"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Sign Up"/>
+    <x v="0"/>
+    <m/>
     <x v="4"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Catalog"/>
+    <x v="0"/>
+    <m/>
+    <x v="1"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Sign Up"/>
+    <x v="0"/>
+    <m/>
+    <x v="4"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Cart"/>
+    <x v="0"/>
+    <m/>
+    <x v="1"/>
     <x v="97"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
+    <s v="Func"/>
+    <s v="Login"/>
     <x v="0"/>
+    <m/>
+    <x v="8"/>
     <x v="98"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
+    <s v="Func"/>
+    <s v="Routes"/>
     <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <x v="6"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Cart"/>
+    <x v="1"/>
+    <m/>
+    <x v="1"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Filter"/>
+    <x v="1"/>
     <m/>
     <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
+    <x v="101"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Header"/>
     <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
     <m/>
     <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
+    <x v="102"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Product Card"/>
     <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="0"/>
-    <x v="98"/>
+    <m/>
+    <x v="5"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="3"/>
+    <x v="104"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:I114" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:I100" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2326,121 +2907,149 @@
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="11">
+      <items count="16">
         <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="10"/>
         <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="0"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="100">
+      <items count="123">
+        <item x="33"/>
+        <item x="53"/>
+        <item x="79"/>
+        <item x="70"/>
+        <item m="1" x="113"/>
+        <item x="50"/>
+        <item x="46"/>
+        <item x="80"/>
+        <item m="1" x="116"/>
+        <item x="74"/>
+        <item x="78"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="29"/>
+        <item m="1" x="120"/>
+        <item m="1" x="121"/>
+        <item x="55"/>
+        <item x="76"/>
+        <item x="22"/>
+        <item x="62"/>
+        <item x="64"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item m="1" x="109"/>
+        <item x="60"/>
+        <item x="41"/>
+        <item x="58"/>
+        <item x="65"/>
+        <item x="21"/>
+        <item m="1" x="115"/>
+        <item x="72"/>
+        <item x="61"/>
+        <item x="26"/>
+        <item m="1" x="117"/>
+        <item x="88"/>
+        <item x="7"/>
+        <item x="42"/>
+        <item x="40"/>
+        <item x="86"/>
+        <item x="85"/>
+        <item x="15"/>
+        <item x="63"/>
+        <item x="27"/>
+        <item m="1" x="118"/>
+        <item x="89"/>
+        <item x="47"/>
         <item x="38"/>
+        <item x="31"/>
+        <item x="37"/>
+        <item m="1" x="105"/>
+        <item x="84"/>
+        <item m="1" x="111"/>
+        <item x="51"/>
+        <item x="17"/>
+        <item x="13"/>
         <item x="59"/>
-        <item x="85"/>
+        <item x="49"/>
+        <item x="16"/>
+        <item x="11"/>
+        <item x="82"/>
+        <item x="8"/>
+        <item m="1" x="119"/>
+        <item x="19"/>
+        <item x="73"/>
+        <item x="43"/>
+        <item x="2"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="9"/>
+        <item x="54"/>
+        <item x="0"/>
+        <item x="52"/>
+        <item x="66"/>
+        <item x="56"/>
         <item x="77"/>
-        <item x="17"/>
-        <item x="56"/>
-        <item x="52"/>
+        <item x="69"/>
         <item x="87"/>
-        <item x="37"/>
+        <item x="68"/>
+        <item x="12"/>
+        <item m="1" x="114"/>
+        <item m="1" x="112"/>
+        <item m="1" x="107"/>
+        <item m="1" x="106"/>
+        <item m="1" x="110"/>
+        <item m="1" x="108"/>
         <item x="81"/>
-        <item x="84"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="33"/>
+        <item x="57"/>
+        <item x="30"/>
+        <item x="3"/>
+        <item x="83"/>
+        <item x="14"/>
+        <item x="75"/>
+        <item x="44"/>
+        <item x="45"/>
         <item x="28"/>
-        <item x="96"/>
-        <item x="61"/>
-        <item x="74"/>
-        <item x="26"/>
-        <item x="68"/>
-        <item x="70"/>
-        <item x="22"/>
-        <item x="27"/>
-        <item x="47"/>
-        <item x="66"/>
-        <item x="46"/>
-        <item x="64"/>
-        <item x="71"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="79"/>
-        <item x="67"/>
-        <item x="30"/>
-        <item x="73"/>
-        <item x="95"/>
-        <item x="10"/>
-        <item x="48"/>
-        <item x="45"/>
-        <item x="93"/>
-        <item x="92"/>
-        <item x="19"/>
-        <item x="69"/>
-        <item x="31"/>
-        <item x="86"/>
-        <item x="97"/>
-        <item x="53"/>
-        <item x="43"/>
         <item x="35"/>
-        <item x="42"/>
-        <item x="36"/>
-        <item x="91"/>
-        <item x="54"/>
-        <item x="57"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="65"/>
-        <item x="55"/>
-        <item x="20"/>
-        <item x="14"/>
-        <item x="89"/>
-        <item x="11"/>
-        <item x="78"/>
-        <item x="23"/>
-        <item x="80"/>
-        <item x="49"/>
-        <item x="2"/>
-        <item x="29"/>
-        <item x="41"/>
-        <item x="12"/>
-        <item x="60"/>
-        <item x="0"/>
-        <item x="58"/>
-        <item x="72"/>
-        <item x="62"/>
-        <item x="83"/>
-        <item x="76"/>
-        <item x="94"/>
-        <item x="75"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="88"/>
-        <item x="63"/>
+        <item x="39"/>
         <item x="34"/>
-        <item x="3"/>
-        <item x="90"/>
-        <item x="18"/>
-        <item x="82"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="32"/>
-        <item x="40"/>
-        <item x="44"/>
-        <item x="39"/>
+        <item h="1" x="104"/>
+        <item h="1" x="20"/>
+        <item h="1" x="24"/>
+        <item h="1" x="32"/>
+        <item h="1" x="48"/>
+        <item h="1" x="67"/>
+        <item h="1" x="71"/>
+        <item h="1" x="90"/>
+        <item h="1" x="91"/>
+        <item h="1" x="92"/>
+        <item h="1" x="93"/>
+        <item h="1" x="94"/>
+        <item h="1" x="95"/>
+        <item h="1" x="96"/>
+        <item h="1" x="97"/>
         <item h="1" x="98"/>
+        <item h="1" x="99"/>
+        <item h="1" x="100"/>
+        <item h="1" x="101"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="102"/>
+        <item h="1" x="103"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2450,7 +3059,7 @@
     <field x="2"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="110">
+  <rowItems count="96">
     <i>
       <x/>
       <x/>
@@ -2461,26 +3070,7 @@
       <x v="65"/>
     </i>
     <i r="2">
-      <x v="79"/>
-    </i>
-    <i r="2">
-      <x v="80"/>
-    </i>
-    <i r="2">
-      <x v="82"/>
-    </i>
-    <i r="2">
-      <x v="84"/>
-    </i>
-    <i r="2">
       <x v="88"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="81"/>
-    </i>
-    <i r="2">
-      <x v="83"/>
     </i>
     <i t="default">
       <x/>
@@ -2488,31 +3078,22 @@
     <i>
       <x v="1"/>
       <x/>
-      <x v="10"/>
+      <x v="3"/>
     </i>
     <i r="2">
       <x v="12"/>
     </i>
     <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="2">
       <x v="17"/>
     </i>
     <i r="2">
       <x v="45"/>
     </i>
     <i r="2">
-      <x v="51"/>
+      <x v="62"/>
     </i>
     <i r="2">
-      <x v="62"/>
-    </i>
-    <i r="2">
-      <x v="74"/>
+      <x v="68"/>
     </i>
     <i r="2">
       <x v="93"/>
@@ -2522,16 +3103,7 @@
       <x v="9"/>
     </i>
     <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="29"/>
-    </i>
-    <i r="2">
       <x v="30"/>
-    </i>
-    <i r="2">
-      <x v="61"/>
     </i>
     <i r="2">
       <x v="63"/>
@@ -2551,9 +3123,6 @@
     <i r="1">
       <x v="2"/>
       <x v="6"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
     </i>
     <i r="2">
       <x v="28"/>
@@ -2600,10 +3169,6 @@
     <i r="2">
       <x v="57"/>
     </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="4"/>
-    </i>
     <i t="default">
       <x v="2"/>
     </i>
@@ -2613,13 +3178,13 @@
       <x v="38"/>
     </i>
     <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="2">
       <x v="50"/>
     </i>
     <i r="2">
       <x v="59"/>
+    </i>
+    <i r="2">
+      <x v="60"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -2634,23 +3199,20 @@
     <i>
       <x v="4"/>
       <x/>
-      <x v="49"/>
+      <x v="2"/>
     </i>
     <i r="2">
       <x v="67"/>
     </i>
     <i r="1">
       <x v="1"/>
-      <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="43"/>
-    </i>
-    <i r="2">
       <x v="46"/>
     </i>
     <i r="2">
       <x v="48"/>
+    </i>
+    <i r="2">
+      <x v="70"/>
     </i>
     <i r="2">
       <x v="73"/>
@@ -2686,6 +3248,9 @@
       <x v="31"/>
     </i>
     <i r="2">
+      <x v="39"/>
+    </i>
+    <i r="2">
       <x v="55"/>
     </i>
     <i r="2">
@@ -2711,9 +3276,6 @@
     <i>
       <x v="6"/>
       <x/>
-      <x v="33"/>
-    </i>
-    <i r="2">
       <x v="41"/>
     </i>
     <i t="default">
@@ -2722,7 +3284,16 @@
     <i>
       <x v="7"/>
       <x/>
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i r="2">
       <x v="52"/>
+    </i>
+    <i r="2">
+      <x v="66"/>
     </i>
     <i r="2">
       <x v="94"/>
@@ -2741,13 +3312,13 @@
       <x v="24"/>
     </i>
     <i r="2">
-      <x v="34"/>
-    </i>
-    <i r="2">
       <x v="36"/>
     </i>
     <i r="2">
       <x v="44"/>
+    </i>
+    <i r="2">
+      <x v="76"/>
     </i>
     <i r="2">
       <x v="87"/>
@@ -2755,9 +3326,6 @@
     <i r="1">
       <x v="2"/>
       <x v="21"/>
-    </i>
-    <i r="2">
-      <x v="76"/>
     </i>
     <i t="default">
       <x v="7"/>
@@ -2772,35 +3340,6 @@
     </i>
     <i>
       <x v="9"/>
-      <x/>
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="42"/>
-    </i>
-    <i r="2">
-      <x v="60"/>
-    </i>
-    <i r="2">
-      <x v="66"/>
-    </i>
-    <i r="2">
-      <x v="68"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="23"/>
-    </i>
-    <i r="2">
-      <x v="70"/>
-    </i>
-    <i r="1">
       <x v="2"/>
       <x v="25"/>
     </i>
@@ -2812,6 +3351,38 @@
     </i>
     <i t="default">
       <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x/>
+      <x v="13"/>
+    </i>
+    <i t="default">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x/>
+      <x v="74"/>
+    </i>
+    <i t="default">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x/>
+      <x v="10"/>
+    </i>
+    <i t="default">
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="1"/>
+      <x v="34"/>
+    </i>
+    <i t="default">
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -2821,49 +3392,49 @@
     <i/>
   </colItems>
   <formats count="48">
-    <format dxfId="51">
+    <format dxfId="243">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="242">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="241">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="240">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="239">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="238">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="237">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="236">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="235">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="234">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="233">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2877,7 +3448,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="232">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2891,7 +3462,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="231">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2905,7 +3476,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="230">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -2918,7 +3489,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="229">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2932,7 +3503,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="228">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2946,7 +3517,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="227">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -2958,7 +3529,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="226">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2972,7 +3543,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="225">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -2984,7 +3555,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="224">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -2994,7 +3565,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="223">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3009,7 +3580,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="222">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3029,7 +3600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="221">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3045,7 +3616,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="220">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3069,7 +3640,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="219">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3093,7 +3664,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="218">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3110,7 +3681,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="217">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3131,7 +3702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="216">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3150,7 +3721,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="215">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3165,7 +3736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="214">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3183,7 +3754,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="213">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3199,7 +3770,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="212">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3215,7 +3786,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="211">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3235,7 +3806,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="210">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3253,7 +3824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="209">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3272,7 +3843,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="208">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3289,7 +3860,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="207">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3304,7 +3875,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="206">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3320,7 +3891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="205">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3337,7 +3908,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="204">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3358,7 +3929,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="203">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3374,7 +3945,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="202">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3389,7 +3960,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="201">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3409,7 +3980,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="200">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3426,7 +3997,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="199">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3443,7 +4014,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="198">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3458,10 +4029,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="197">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="196">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -3780,8 +4351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED80F7-9B31-4864-972B-6B3F20AAD3D8}">
   <dimension ref="A3:I115"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3799,7 +4370,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -3810,13 +4381,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3824,190 +4395,204 @@
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C23" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C31" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C33" s="10" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="C35" s="10" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -4020,320 +4605,320 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="10" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C42" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C43" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="B46" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C48" s="10" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C49" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C50" s="10" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="9" t="s">
+      <c r="C51" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C52" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C53" s="10" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C54" s="10" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="A57" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C58" s="10" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+      <c r="C59" s="10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C60" s="10" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C61" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B62" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C63" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C64" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C67" s="10" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="A68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C69" s="10" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C70" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="A70" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C71" s="10" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
+      <c r="C72" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C73" s="10" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C74" s="10" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C75" s="10" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C76" s="10" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C77" s="10" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C78" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C79" s="10" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="9" t="s">
+      <c r="C81" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C82" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C84" s="10" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4346,203 +4931,317 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C87" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="A87" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C88" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C89" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C90" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+    </row>
+    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="9" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+    </row>
+    <row r="96" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+    </row>
+    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C90" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C91" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C92" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C93" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C94" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C95" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B96" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C97" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="12"/>
-      <c r="I98" s="12"/>
-    </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="A99" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
+      <c r="A100" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="9"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C102" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C103" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C104" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C105" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C106" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B107" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>136</v>
-      </c>
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C108" s="10" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C109" s="10" t="s">
-        <v>91</v>
-      </c>
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B110" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>132</v>
-      </c>
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C111" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C112" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C114" s="9"/>
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115"/>
@@ -4562,11 +5261,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115:F116"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4577,10 +5276,11 @@
     <col min="4" max="4" width="11.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="72" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -4594,649 +5294,774 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F2" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="G2" s="13">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="G3" s="13">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>122</v>
+        <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="G16" s="13">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="G17" s="13">
+        <v>43492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="G19" s="13">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G21" s="13">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G22" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="G25" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E26" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E27" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="G27" s="13">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="G28" s="13">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="G29" s="13">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="G30" s="13">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="F31" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G31" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="G32" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="G33" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="G34" s="13">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G37" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>2</v>
       </c>
@@ -5248,13 +6073,16 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="G38" s="13">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
@@ -5266,31 +6094,37 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="G39" s="13">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="G40" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -5302,13 +6136,13 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -5316,17 +6150,15 @@
         <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
@@ -5334,261 +6166,300 @@
         <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G44" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F46" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F47" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F48" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="B50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E51" s="4" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E52" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G52" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="G53" s="13">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E54" s="4" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
@@ -5600,953 +6471,1046 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G59" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E61" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E62" s="4" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E63" s="4" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="G63" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="G64" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E66" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="G66" s="13">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="G67" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="13">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E70" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E71" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="G71" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E72" s="4" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="G72" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="G73" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E74" s="4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="G75" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E76" s="4" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E77" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E78" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E79" s="4" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="G79" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="F80" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="G80" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="G81" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="G82" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E83" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E84" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E85" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E86" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G87" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E88" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="E89" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F89" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G89" s="13">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G90" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G91" s="13">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="G92" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G93" s="13">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G97" s="13">
+        <v>43496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G99" s="13">
+        <v>43495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G100" s="13">
+        <v>43501</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="G101" s="13">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="G102" s="13">
+        <v>43493</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F103" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="G103" s="13">
+        <v>43498</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>162</v>
+        <v>44</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F104" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="G104" s="13">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F105" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="6"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="6"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E111" s="4"/>
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -6882,96 +7846,24 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="6"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="6"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="3"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="3"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="3"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="3"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="3"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="6"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F162" xr:uid="{97C115AA-75BA-4ECA-A4DD-57A795D89F11}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
-    <sortCondition ref="B2:B101"/>
+  <autoFilter ref="A1:F153" xr:uid="{97C115AA-75BA-4ECA-A4DD-57A795D89F11}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+    <sortCondition ref="B2:B91"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C108 C110:C162">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C101:C153 C2:C99">
+    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C100">
+    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FBABF-4E9D-4642-9358-D54F1839C9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB743A9-ADB6-4BB3-A451-D0033A55A204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
+    <workbookView xWindow="744" yWindow="108" windowWidth="21348" windowHeight="12240" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
   <sheets>
     <sheet name="PIVOT" sheetId="3" r:id="rId1"/>
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$F$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$F$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="172">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -105,9 +105,27 @@
     <t>Search</t>
   </si>
   <si>
+    <t>Тестирование функционала на мобилке</t>
+  </si>
+  <si>
+    <t>Тестирование функционала на десктопе</t>
+  </si>
+  <si>
+    <t>Тестирование функционала на планшете</t>
+  </si>
+  <si>
     <t>Выложить на HEROKU</t>
   </si>
   <si>
+    <t>Тестирование адаптивности на мобилке</t>
+  </si>
+  <si>
+    <t>Тестирование адаптивности на планшете</t>
+  </si>
+  <si>
+    <t>Тестирование адаптивности на десктопе</t>
+  </si>
+  <si>
     <t>Обработка ошибок (.error, try catch)</t>
   </si>
   <si>
@@ -168,6 +186,9 @@
     <t>Изменение иконки (заливка зеленым) и подписи при логине/логауте (Login / Account)</t>
   </si>
   <si>
+    <t>Незалогиненый пользователь заходит на приватную страницу - обработка</t>
+  </si>
+  <si>
     <t>Private Pages</t>
   </si>
   <si>
@@ -231,6 +252,9 @@
     <t>Убрать products ссылку из футера</t>
   </si>
   <si>
+    <t>Добавить карусель с топ продуктами</t>
+  </si>
+  <si>
     <t>Anya</t>
   </si>
   <si>
@@ -270,6 +294,9 @@
     <t>input поменять</t>
   </si>
   <si>
+    <t>приукрасить вывод инфы в табах</t>
+  </si>
+  <si>
     <t>на мобильной версии очень большая картинка сейчас</t>
   </si>
   <si>
@@ -300,6 +327,9 @@
     <t>добавить сортировку товаров</t>
   </si>
   <si>
+    <t>Добавить контейнер и адаптив</t>
+  </si>
+  <si>
     <t>добавить Container на компонентах везде</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>при клике на корзину - сразу переводить в корзину</t>
   </si>
   <si>
+    <t>Proceed to Checkout -меняем на CHECKOUT</t>
+  </si>
+  <si>
     <t>удаление товара - доделать диалоговое окно</t>
   </si>
   <si>
@@ -354,6 +387,9 @@
     <t>чтоб фильт соответствовал перечню товаров на странице</t>
   </si>
   <si>
+    <t>Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)</t>
+  </si>
+  <si>
     <t>Сделать презентацию</t>
   </si>
   <si>
@@ -369,6 +405,9 @@
     <t>Pres</t>
   </si>
   <si>
+    <t>Починить выбор цены</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -381,6 +420,9 @@
     <t>Сворачивать фильтр при переходе в другие категории</t>
   </si>
   <si>
+    <t>Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)</t>
+  </si>
+  <si>
     <t>Folder structure</t>
   </si>
   <si>
@@ -402,6 +444,9 @@
     <t>Поменять описание категорий на главной странице</t>
   </si>
   <si>
+    <t>Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)</t>
+  </si>
+  <si>
     <t>В хлебных крошках отобразить Search после иконки дома</t>
   </si>
   <si>
@@ -414,12 +459,18 @@
     <t>при загрузке корзины проверять наличие и информировать, если нет</t>
   </si>
   <si>
+    <t>на моб версии сделать ссылки главных категорий кликабельными</t>
+  </si>
+  <si>
     <t>Добавить в базу данных sizes для всех артикулов или проверять перед отрисовкой</t>
   </si>
   <si>
     <t>Maks</t>
   </si>
   <si>
+    <t>Если отжимается какой-то фильтр - обновлять товары?</t>
+  </si>
+  <si>
     <t>В хедер меню поменять ховер на полоски по бокам</t>
   </si>
   <si>
@@ -483,6 +534,9 @@
     <t>Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза</t>
   </si>
   <si>
+    <t>Пагинация или инфинити скрол</t>
+  </si>
+  <si>
     <t>Сообщение если уже зарегистрирован?</t>
   </si>
   <si>
@@ -502,87 +556,6 @@
   </si>
   <si>
     <t>axios.defaults.authorization пишется в скрипте Корзины</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Time estimate</t>
-  </si>
-  <si>
-    <t>Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале</t>
-  </si>
-  <si>
-    <t>Anya / Vlad</t>
-  </si>
-  <si>
-    <t>фильтр на мобилке прилепить вниз на кнопку</t>
-  </si>
-  <si>
-    <t>Починить выбор цены, добавить инпут вручную</t>
-  </si>
-  <si>
-    <t>Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Незалогиненый пользователь заходит на приватную страницу - обработка - ДОДЕЛАТЬ ДЛЯ ВСЕХ СТРАНИЦ</t>
-  </si>
-  <si>
-    <t>Anya / Help</t>
-  </si>
-  <si>
-    <t>Anya / Maks</t>
-  </si>
-  <si>
-    <t>проверить работу функционала регистрации</t>
-  </si>
-  <si>
-    <t>на моб версии сделать ссылки главных категорий кликабельными (view all)</t>
-  </si>
-  <si>
-    <t>приукрасить вывод инфы в табах (ховер по таблице)</t>
-  </si>
-  <si>
-    <t>Vlad / Vanya</t>
-  </si>
-  <si>
-    <t>Сверстать подписку</t>
-  </si>
-  <si>
-    <t>Инфинити скрол</t>
-  </si>
-  <si>
-    <t>Anya / Vlad Total</t>
-  </si>
-  <si>
-    <t>Anya / Help Total</t>
-  </si>
-  <si>
-    <t>Anya / Maks Total</t>
-  </si>
-  <si>
-    <t>Vlad / Vanya Total</t>
-  </si>
-  <si>
-    <t>оставлять ховер при переходе по меню</t>
-  </si>
-  <si>
-    <t>Затемнять карточки товаров, которых нет в наличии</t>
-  </si>
-  <si>
-    <t>Product Card</t>
-  </si>
-  <si>
-    <t>Тестирование на десктопе</t>
-  </si>
-  <si>
-    <t>Тестирование на планшете</t>
-  </si>
-  <si>
-    <t>Тестирование на мобилке</t>
   </si>
 </sst>
 </file>
@@ -663,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -701,313 +674,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="244">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <fill>
         <patternFill>
@@ -1035,302 +706,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1494,9 +869,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43857.628392013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43854.965535648145" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="161" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F153" sheet="General"/>
+    <worksheetSource ref="A1:F162" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -1517,33 +892,31 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Responsible" numFmtId="0">
-      <sharedItems containsBlank="1" count="15">
-        <s v="Maks"/>
+      <sharedItems containsBlank="1" count="10">
+        <m/>
         <s v="Julia"/>
         <s v="ALL"/>
-        <m/>
-        <s v="Luda"/>
         <s v="Anya"/>
         <s v="Vlad"/>
-        <s v="Anya / Vlad"/>
+        <s v="Luda"/>
+        <s v="Maks"/>
         <s v="Vanya"/>
         <s v="Vanya / Help"/>
         <s v="Vlad / Anya"/>
-        <s v="Anya / Help"/>
-        <s v="Anya / Maks"/>
-        <s v="Vlad / Vanya"/>
-        <s v="???"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="122">
+      <sharedItems containsBlank="1" count="99">
         <s v="сделать меньше по ширине, добавить Item #. View basket поменять на View Cart, убрать &quot;;&quot; после слова DHL "/>
         <s v="Выложить на HEROKU"/>
         <s v="Рефакторинг кода (улучшить)"/>
         <s v="Убрать ошибки eslint"/>
-        <s v="Тестирование на десктопе"/>
-        <s v="Тестирование на планшете"/>
-        <s v="Тестирование на мобилке"/>
+        <s v="Тестирование функционала на десктопе"/>
+        <s v="Тестирование функционала на мобилке"/>
+        <s v="Тестирование функционала на планшете"/>
+        <s v="Тестирование адаптивности на мобилке"/>
+        <s v="Тестирование адаптивности на планшете"/>
+        <s v="Тестирование адаптивности на десктопе"/>
         <s v="Обработка ошибок (.error, try catch)"/>
         <s v="при переходе на новый роут - подниматься вверх"/>
         <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта)"/>
@@ -1551,17 +924,18 @@
         <s v="При нажатии на продукт в корзине передавать в роут itemNo (не itemId)"/>
         <s v="считывать значение q-ty перед добавлением в корзину (на product Detail и в модалке)"/>
         <s v="при клике на корзину - сразу переводить в корзину"/>
+        <s v="Proceed to Checkout -меняем на CHECKOUT"/>
         <s v="удаление товара - доделать диалоговое окно"/>
         <s v="подключить добавление в корзину из product page"/>
         <s v="при нажатии на плюс проверять кол-во"/>
         <s v="при загрузке корзины проверять наличие и информировать, если нет"/>
         <s v="долго загружаются иконки категорий"/>
         <s v="причесать для моб версии"/>
-        <s v="на моб версии сделать ссылки главных категорий кликабельными (view all)"/>
+        <s v="на моб версии сделать ссылки главных категорий кликабельными"/>
         <s v="картинки на страницах категорий под шапкой"/>
         <s v="добавить сортировку товаров"/>
         <s v="долго загружаются иконки категорий в каталоге"/>
-        <s v="Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале"/>
+        <s v="Добавить карусель с топ продуктами"/>
         <s v="Сверстать чекаут"/>
         <s v="Настроить валидацию чекаут"/>
         <s v="Подтянуть данные в форму"/>
@@ -1569,7 +943,8 @@
         <s v="Добавить в базу данных sizes для всех артикулов или проверять перед отрисовкой"/>
         <s v="Убрать в ценах значение после запятой, длинные названия укоротить"/>
         <s v="Поменять описание категорий на главной странице"/>
-        <s v="Починить выбор цены, добавить инпут вручную"/>
+        <s v="Починить выбор цены"/>
+        <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)"/>
         <s v="Apply поменять на Filter"/>
         <s v="чтоб фильт соответствовал перечню товаров на странице"/>
         <s v="Чистить фильтр при переходе в другие категории"/>
@@ -1579,13 +954,14 @@
         <s v="чтоб при переходе на страницу назад/вперед сохранялись параметры фильтра"/>
         <s v="пересылка строки выбора"/>
         <s v="Изменение url согласно параметрам поиска"/>
+        <s v="Если отжимается какой-то фильтр - обновлять товары?"/>
         <s v="Перенести все страницы в одну папку"/>
         <s v="Реализовать переход по &quot;пирогу&quot;"/>
         <s v="Уменьшить высоту Header"/>
         <s v="Фиксировать хедер вверзу страницы при прокрутке"/>
         <s v="В хедер меню поменять ховер на полоски по бокам"/>
         <s v="Показывать поиск на планшете/моб"/>
-        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART"/>
+        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)"/>
         <s v="при нажатии на кнопки learn more ничего не происходит"/>
         <s v="Slider: Убрать стрелки на слайдере, позиционировать внутренний блок"/>
         <s v="Починить переход с картинки ножей на слайдере на продукт"/>
@@ -1604,19 +980,20 @@
         <s v="доверстать"/>
         <s v="изменение пароля"/>
         <s v="Сделать презентацию"/>
-        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка - ДОДЕЛАТЬ ДЛЯ ВСЕХ СТРАНИЦ"/>
+        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка"/>
+        <s v="добавить номер артикула"/>
         <s v="стрелки на слайдере"/>
         <s v="серый блок - сделать секси"/>
         <s v="input поменять"/>
-        <s v="приукрасить вывод инфы в табах (ховер по таблице)"/>
+        <s v="приукрасить вывод инфы в табах"/>
         <s v="на мобильной версии очень большая картинка сейчас"/>
         <s v="пунктирный блок?!?!"/>
         <s v="Выводить ItemNo на ProductCard / ProductDetail"/>
         <s v="Уменьшить высоту"/>
-        <s v="добавить номер артикула"/>
         <s v="сделать цены более секси:) особенно перечеркнутую"/>
         <s v="Выезд поля инпута по нажатию, свертка по дефокусу или переходу на другую страницу (ИЛИ СДЕЛАТЬ ПОСТОЯННО ВИДНЫМ. Аня, напиши мне по этому поводу, поделюсь мыслями)"/>
         <s v="Cохранять значение запроса в поле поиска при переходе на страницу с результатами"/>
+        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)"/>
         <s v="В хлебных крошках отобразить Search после иконки дома"/>
         <s v="Убирать модалку логина при переходе на регистрацию"/>
         <s v="При первом клике и вводе текста происходит расфокус"/>
@@ -1626,39 +1003,9 @@
         <s v="по клику и успешной регстрации - переводить на home page"/>
         <s v="Сообщение что  в Favorites ничего нет"/>
         <s v="Обрабатывать клик &quot;добавление в избранное&quot; для незалогиненого пользователя - модалка логина"/>
+        <s v="Добавить контейнер и адаптив"/>
         <s v="показывать кол-ва на Favorites icon"/>
-        <s v="По нажатию на сердечко - реакция слишком медленная"/>
-        <s v="Письмо с подтверждением заказа"/>
-        <s v="Подписка"/>
-        <s v="Сверстать подписку"/>
-        <s v="Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза"/>
-        <s v="Инфинити скрол"/>
-        <s v="Сообщение если уже зарегистрирован?"/>
-        <s v="Информация про корзину пользователя грузиться с опозданием"/>
-        <s v="remember me не работает"/>
-        <s v="Переход по products/coocking вызывает ошибку (когда неправильно указана категория)"/>
-        <s v="axios.defaults.authorization пишется в скрипте Корзины"/>
-        <s v="фильтр на мобилке прилепить вниз на кнопку"/>
-        <s v="оставлять ховер при переходе по меню"/>
-        <s v="Затемнять карточки товаров, которых нет в наличии"/>
         <m/>
-        <s v="Починить выбор цены" u="1"/>
-        <s v="Тестирование функционала на десктопе" u="1"/>
-        <s v="Тестирование адаптивности на планшете" u="1"/>
-        <s v="Тестирование функционала на планшете" u="1"/>
-        <s v="Если отжимается какой-то фильтр - обновлять товары?" u="1"/>
-        <s v="Тестирование функционала на мобилке" u="1"/>
-        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)" u="1"/>
-        <s v="Тестирование адаптивности на мобилке" u="1"/>
-        <s v="Proceed to Checkout -меняем на CHECKOUT" u="1"/>
-        <s v="Тестирование адаптивности на десктопе" u="1"/>
-        <s v="на моб версии сделать ссылки главных категорий кликабельными" u="1"/>
-        <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)" u="1"/>
-        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка" u="1"/>
-        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)" u="1"/>
-        <s v="приукрасить вывод инфы в табах" u="1"/>
-        <s v="Добавить карусель с топ продуктами" u="1"/>
-        <s v="Добавить контейнер и адаптив" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1671,7 +1018,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="152">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="161">
   <r>
     <s v="Design"/>
     <s v="Add to cart"/>
@@ -1709,15 +1056,15 @@
     <s v="All code"/>
     <x v="0"/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Test"/>
     <s v="All code"/>
-    <x v="0"/>
-    <m/>
-    <x v="3"/>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
     <x v="5"/>
   </r>
   <r>
@@ -1725,8 +1072,32 @@
     <s v="All code"/>
     <x v="0"/>
     <m/>
-    <x v="3"/>
+    <x v="2"/>
     <x v="6"/>
+  </r>
+  <r>
+    <s v="Test"/>
+    <s v="All code"/>
+    <x v="0"/>
+    <m/>
+    <x v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Test"/>
+    <s v="All code"/>
+    <x v="2"/>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Test"/>
+    <s v="All code"/>
+    <x v="0"/>
+    <m/>
+    <x v="2"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1734,71 +1105,79 @@
     <x v="1"/>
     <m/>
     <x v="2"/>
-    <x v="7"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="All pages"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="4"/>
-    <x v="8"/>
+    <m/>
+    <x v="0"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
     <m/>
-    <x v="5"/>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="10"/>
+    <m/>
+    <x v="3"/>
+    <x v="13"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="done"/>
+    <m/>
     <x v="1"/>
-    <x v="11"/>
+    <x v="14"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <m/>
     <x v="1"/>
-    <x v="12"/>
+    <x v="15"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="done"/>
+    <m/>
     <x v="1"/>
-    <x v="13"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Cart"/>
+    <x v="2"/>
+    <m/>
+    <x v="1"/>
+    <x v="17"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <m/>
     <x v="1"/>
-    <x v="14"/>
+    <x v="18"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <m/>
     <x v="1"/>
-    <x v="15"/>
+    <x v="19"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1806,7 +1185,7 @@
     <x v="0"/>
     <m/>
     <x v="1"/>
-    <x v="16"/>
+    <x v="20"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1814,111 +1193,111 @@
     <x v="0"/>
     <m/>
     <x v="1"/>
-    <x v="17"/>
+    <x v="21"/>
   </r>
   <r>
     <s v="Speed"/>
     <s v="Catalog"/>
     <x v="2"/>
     <m/>
-    <x v="6"/>
-    <x v="18"/>
+    <x v="4"/>
+    <x v="22"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Catalog"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="19"/>
+    <m/>
+    <x v="3"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog"/>
     <x v="0"/>
     <m/>
-    <x v="5"/>
-    <x v="20"/>
+    <x v="3"/>
+    <x v="24"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Catalog"/>
     <x v="2"/>
     <m/>
-    <x v="5"/>
-    <x v="21"/>
+    <x v="3"/>
+    <x v="25"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog"/>
     <x v="0"/>
     <m/>
-    <x v="4"/>
-    <x v="22"/>
+    <x v="5"/>
+    <x v="26"/>
   </r>
   <r>
     <s v="Speed"/>
     <s v="Catalog"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
-    <x v="23"/>
+    <x v="4"/>
+    <x v="27"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog / Product page"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="24"/>
+    <m/>
+    <x v="3"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="6"/>
-    <x v="25"/>
+    <m/>
+    <x v="0"/>
+    <x v="29"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="6"/>
-    <x v="26"/>
+    <m/>
+    <x v="0"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="6"/>
-    <x v="27"/>
+    <m/>
+    <x v="0"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="6"/>
-    <x v="28"/>
+    <m/>
+    <x v="4"/>
+    <x v="32"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="DB"/>
     <x v="1"/>
     <m/>
-    <x v="7"/>
-    <x v="29"/>
+    <x v="3"/>
+    <x v="33"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="DB"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
-    <x v="30"/>
+    <x v="4"/>
+    <x v="34"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1926,391 +1305,423 @@
     <x v="0"/>
     <m/>
     <x v="1"/>
-    <x v="31"/>
+    <x v="35"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
     <m/>
-    <x v="0"/>
-    <x v="32"/>
+    <x v="6"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Filter"/>
+    <x v="0"/>
+    <m/>
+    <x v="6"/>
+    <x v="37"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="0"/>
-    <x v="33"/>
+    <x v="6"/>
+    <x v="38"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="0"/>
-    <x v="34"/>
+    <x v="6"/>
+    <x v="39"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
     <m/>
-    <x v="6"/>
-    <x v="35"/>
+    <x v="4"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
     <m/>
-    <x v="0"/>
-    <x v="36"/>
+    <x v="6"/>
+    <x v="41"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Filter"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
-    <x v="37"/>
+    <x v="6"/>
+    <x v="42"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
-    <x v="38"/>
+    <x v="6"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
-    <x v="39"/>
+    <x v="0"/>
+    <x v="44"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
-    <x v="40"/>
+    <x v="0"/>
+    <x v="45"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
-    <x v="41"/>
+    <x v="0"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Filter"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="47"/>
   </r>
   <r>
     <s v="Deploy"/>
     <s v="Folder structure"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
-    <x v="42"/>
+    <x v="4"/>
+    <x v="48"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="2"/>
     <m/>
-    <x v="0"/>
-    <x v="43"/>
+    <x v="6"/>
+    <x v="49"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="44"/>
+    <m/>
+    <x v="3"/>
+    <x v="50"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="45"/>
+    <m/>
+    <x v="3"/>
+    <x v="51"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="2"/>
     <m/>
-    <x v="5"/>
-    <x v="46"/>
+    <x v="3"/>
+    <x v="52"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="47"/>
+    <m/>
+    <x v="3"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Header"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="48"/>
+    <m/>
+    <x v="3"/>
+    <x v="54"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
     <x v="0"/>
-    <s v="done"/>
+    <m/>
     <x v="1"/>
-    <x v="49"/>
+    <x v="55"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <s v="in progress"/>
-    <x v="8"/>
-    <x v="50"/>
+    <m/>
+    <x v="7"/>
+    <x v="56"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
     <x v="1"/>
     <m/>
-    <x v="6"/>
-    <x v="51"/>
+    <x v="4"/>
+    <x v="57"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
     <x v="1"/>
-    <s v="done"/>
+    <m/>
     <x v="1"/>
-    <x v="52"/>
+    <x v="58"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <s v="done"/>
+    <m/>
     <x v="1"/>
-    <x v="53"/>
+    <x v="59"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="2"/>
-    <s v="done"/>
-    <x v="8"/>
-    <x v="54"/>
+    <m/>
+    <x v="7"/>
+    <x v="60"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="2"/>
     <m/>
-    <x v="0"/>
-    <x v="55"/>
+    <x v="6"/>
+    <x v="61"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
-    <x v="56"/>
+    <x v="6"/>
+    <x v="62"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
     <m/>
-    <x v="0"/>
-    <x v="57"/>
+    <x v="6"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Home page"/>
+    <x v="1"/>
+    <m/>
+    <x v="3"/>
+    <x v="28"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Login/Logout"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="8"/>
-    <x v="58"/>
+    <s v="in progress"/>
+    <x v="7"/>
+    <x v="64"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Logout"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="8"/>
-    <x v="59"/>
+    <s v="in progress"/>
+    <x v="7"/>
+    <x v="65"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Modal"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="6"/>
-    <x v="60"/>
+    <m/>
+    <x v="4"/>
+    <x v="66"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="My Orders"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="8"/>
-    <x v="61"/>
+    <m/>
+    <x v="7"/>
+    <x v="67"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="My Orders"/>
     <x v="1"/>
     <m/>
-    <x v="8"/>
-    <x v="62"/>
+    <x v="7"/>
+    <x v="68"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="1"/>
     <m/>
-    <x v="9"/>
-    <x v="63"/>
+    <x v="8"/>
+    <x v="69"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Personal data"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="8"/>
-    <x v="64"/>
+    <m/>
+    <x v="7"/>
+    <x v="70"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="0"/>
     <m/>
-    <x v="8"/>
-    <x v="65"/>
+    <x v="7"/>
+    <x v="71"/>
   </r>
   <r>
     <s v="Pres"/>
     <s v="Presentation"/>
     <x v="1"/>
     <m/>
-    <x v="10"/>
-    <x v="66"/>
+    <x v="9"/>
+    <x v="72"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Private Pages"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="9"/>
-    <x v="67"/>
+    <m/>
+    <x v="8"/>
+    <x v="73"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="68"/>
+    <m/>
+    <x v="3"/>
+    <x v="74"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="69"/>
+    <m/>
+    <x v="3"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Product Detail"/>
+    <x v="0"/>
+    <m/>
+    <x v="3"/>
+    <x v="76"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="70"/>
+    <m/>
+    <x v="0"/>
+    <x v="77"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="in progress"/>
-    <x v="5"/>
-    <x v="71"/>
+    <m/>
+    <x v="3"/>
+    <x v="78"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="72"/>
+    <m/>
+    <x v="3"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
     <m/>
-    <x v="5"/>
-    <x v="73"/>
+    <x v="3"/>
+    <x v="80"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="74"/>
+    <m/>
+    <x v="3"/>
+    <x v="81"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="75"/>
+    <m/>
+    <x v="3"/>
+    <x v="82"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="76"/>
+    <m/>
+    <x v="3"/>
+    <x v="74"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="11"/>
-    <x v="77"/>
+    <m/>
+    <x v="3"/>
+    <x v="83"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Search"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="12"/>
-    <x v="78"/>
+    <m/>
+    <x v="3"/>
+    <x v="84"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Search"/>
-    <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="79"/>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="85"/>
   </r>
   <r>
     <s v="Func"/>
@@ -2318,582 +1729,590 @@
     <x v="0"/>
     <m/>
     <x v="6"/>
-    <x v="80"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Search"/>
+    <x v="0"/>
+    <m/>
+    <x v="4"/>
+    <x v="87"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="8"/>
-    <x v="81"/>
+    <s v="in progress"/>
+    <x v="7"/>
+    <x v="88"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="4"/>
-    <x v="82"/>
+    <m/>
+    <x v="5"/>
+    <x v="89"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Sign Up"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="4"/>
-    <x v="83"/>
+    <m/>
+    <x v="5"/>
+    <x v="90"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="4"/>
-    <x v="84"/>
+    <m/>
+    <x v="5"/>
+    <x v="91"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
     <m/>
-    <x v="8"/>
-    <x v="85"/>
+    <x v="5"/>
+    <x v="92"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="4"/>
-    <x v="86"/>
+    <m/>
+    <x v="5"/>
+    <x v="93"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Wishlist"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="87"/>
+    <x v="2"/>
+    <m/>
+    <x v="4"/>
+    <x v="94"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Wishlist"/>
     <x v="0"/>
     <m/>
-    <x v="13"/>
-    <x v="88"/>
+    <x v="4"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Wishlist"/>
+    <x v="2"/>
+    <m/>
+    <x v="3"/>
+    <x v="96"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Wishlist"/>
     <x v="0"/>
     <m/>
-    <x v="6"/>
-    <x v="89"/>
-  </r>
-  <r>
-    <s v="Speed"/>
-    <s v="Wishlist"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="90"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="91"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <m/>
-    <x v="14"/>
-    <x v="92"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <m/>
-    <x v="14"/>
-    <x v="93"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Sign Up"/>
-    <x v="0"/>
-    <m/>
     <x v="4"/>
-    <x v="94"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Catalog"/>
-    <x v="0"/>
-    <m/>
-    <x v="1"/>
-    <x v="95"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Sign Up"/>
-    <x v="0"/>
-    <m/>
-    <x v="4"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Cart"/>
-    <x v="0"/>
-    <m/>
-    <x v="1"/>
     <x v="97"/>
   </r>
   <r>
-    <s v="Func"/>
-    <s v="Login"/>
-    <x v="0"/>
-    <m/>
-    <x v="8"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
     <x v="98"/>
   </r>
   <r>
-    <s v="Func"/>
-    <s v="Routes"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="99"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Cart"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Filter"/>
-    <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="101"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Header"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="102"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Product Card"/>
-    <x v="0"/>
-    <m/>
-    <x v="5"/>
-    <x v="103"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <x v="0"/>
+    <x v="98"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:I100" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:I114" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2907,149 +2326,121 @@
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="16">
+      <items count="11">
         <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
         <item x="5"/>
-        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item x="4"/>
+        <item x="9"/>
         <item x="0"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="123">
+      <items count="100">
+        <item x="38"/>
+        <item x="59"/>
+        <item x="85"/>
+        <item x="77"/>
+        <item x="17"/>
+        <item x="56"/>
+        <item x="52"/>
+        <item x="87"/>
+        <item x="37"/>
+        <item x="81"/>
+        <item x="84"/>
+        <item x="1"/>
+        <item x="13"/>
         <item x="33"/>
+        <item x="28"/>
+        <item x="96"/>
+        <item x="61"/>
+        <item x="74"/>
+        <item x="26"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="47"/>
+        <item x="66"/>
+        <item x="46"/>
+        <item x="64"/>
+        <item x="71"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="79"/>
+        <item x="67"/>
+        <item x="30"/>
+        <item x="73"/>
+        <item x="95"/>
+        <item x="10"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="93"/>
+        <item x="92"/>
+        <item x="19"/>
+        <item x="69"/>
+        <item x="31"/>
+        <item x="86"/>
+        <item x="97"/>
         <item x="53"/>
-        <item x="79"/>
-        <item x="70"/>
-        <item m="1" x="113"/>
+        <item x="43"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="36"/>
+        <item x="91"/>
+        <item x="54"/>
+        <item x="57"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="65"/>
+        <item x="55"/>
+        <item x="20"/>
+        <item x="14"/>
+        <item x="89"/>
+        <item x="11"/>
+        <item x="78"/>
+        <item x="23"/>
+        <item x="80"/>
+        <item x="49"/>
+        <item x="2"/>
+        <item x="29"/>
+        <item x="41"/>
+        <item x="12"/>
+        <item x="60"/>
+        <item x="0"/>
+        <item x="58"/>
+        <item x="72"/>
+        <item x="62"/>
+        <item x="83"/>
+        <item x="76"/>
+        <item x="94"/>
+        <item x="75"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="88"/>
+        <item x="63"/>
+        <item x="34"/>
+        <item x="3"/>
+        <item x="90"/>
+        <item x="18"/>
+        <item x="82"/>
         <item x="50"/>
-        <item x="46"/>
-        <item x="80"/>
-        <item m="1" x="116"/>
-        <item x="74"/>
-        <item x="78"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="29"/>
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
-        <item x="55"/>
-        <item x="76"/>
-        <item x="22"/>
-        <item x="62"/>
-        <item x="64"/>
-        <item x="18"/>
-        <item x="23"/>
-        <item m="1" x="109"/>
-        <item x="60"/>
-        <item x="41"/>
-        <item x="58"/>
-        <item x="65"/>
-        <item x="21"/>
-        <item m="1" x="115"/>
-        <item x="72"/>
-        <item x="61"/>
-        <item x="26"/>
-        <item m="1" x="117"/>
-        <item x="88"/>
-        <item x="7"/>
-        <item x="42"/>
+        <item x="51"/>
+        <item x="32"/>
         <item x="40"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="15"/>
-        <item x="63"/>
-        <item x="27"/>
-        <item m="1" x="118"/>
-        <item x="89"/>
-        <item x="47"/>
-        <item x="38"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item m="1" x="105"/>
-        <item x="84"/>
-        <item m="1" x="111"/>
-        <item x="51"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="59"/>
-        <item x="49"/>
-        <item x="16"/>
-        <item x="11"/>
-        <item x="82"/>
-        <item x="8"/>
-        <item m="1" x="119"/>
-        <item x="19"/>
-        <item x="73"/>
-        <item x="43"/>
-        <item x="2"/>
-        <item x="25"/>
-        <item x="36"/>
-        <item x="9"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="52"/>
-        <item x="66"/>
-        <item x="56"/>
-        <item x="77"/>
-        <item x="69"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="12"/>
-        <item m="1" x="114"/>
-        <item m="1" x="112"/>
-        <item m="1" x="107"/>
-        <item m="1" x="106"/>
-        <item m="1" x="110"/>
-        <item m="1" x="108"/>
-        <item x="81"/>
-        <item x="57"/>
-        <item x="30"/>
-        <item x="3"/>
-        <item x="83"/>
-        <item x="14"/>
-        <item x="75"/>
         <item x="44"/>
-        <item x="45"/>
-        <item x="28"/>
-        <item x="35"/>
         <item x="39"/>
-        <item x="34"/>
-        <item h="1" x="104"/>
-        <item h="1" x="20"/>
-        <item h="1" x="24"/>
-        <item h="1" x="32"/>
-        <item h="1" x="48"/>
-        <item h="1" x="67"/>
-        <item h="1" x="71"/>
-        <item h="1" x="90"/>
-        <item h="1" x="91"/>
-        <item h="1" x="92"/>
-        <item h="1" x="93"/>
-        <item h="1" x="94"/>
-        <item h="1" x="95"/>
-        <item h="1" x="96"/>
-        <item h="1" x="97"/>
         <item h="1" x="98"/>
-        <item h="1" x="99"/>
-        <item h="1" x="100"/>
-        <item h="1" x="101"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="102"/>
-        <item h="1" x="103"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3059,7 +2450,7 @@
     <field x="2"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="96">
+  <rowItems count="110">
     <i>
       <x/>
       <x/>
@@ -3070,7 +2461,26 @@
       <x v="65"/>
     </i>
     <i r="2">
+      <x v="79"/>
+    </i>
+    <i r="2">
+      <x v="80"/>
+    </i>
+    <i r="2">
+      <x v="82"/>
+    </i>
+    <i r="2">
+      <x v="84"/>
+    </i>
+    <i r="2">
       <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="81"/>
+    </i>
+    <i r="2">
+      <x v="83"/>
     </i>
     <i t="default">
       <x/>
@@ -3078,22 +2488,31 @@
     <i>
       <x v="1"/>
       <x/>
-      <x v="3"/>
+      <x v="10"/>
     </i>
     <i r="2">
       <x v="12"/>
     </i>
     <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="2">
       <x v="17"/>
     </i>
     <i r="2">
       <x v="45"/>
     </i>
     <i r="2">
+      <x v="51"/>
+    </i>
+    <i r="2">
       <x v="62"/>
     </i>
     <i r="2">
-      <x v="68"/>
+      <x v="74"/>
     </i>
     <i r="2">
       <x v="93"/>
@@ -3103,7 +2522,16 @@
       <x v="9"/>
     </i>
     <i r="2">
+      <x v="17"/>
+    </i>
+    <i r="2">
+      <x v="29"/>
+    </i>
+    <i r="2">
       <x v="30"/>
+    </i>
+    <i r="2">
+      <x v="61"/>
     </i>
     <i r="2">
       <x v="63"/>
@@ -3123,6 +2551,9 @@
     <i r="1">
       <x v="2"/>
       <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
     </i>
     <i r="2">
       <x v="28"/>
@@ -3169,6 +2600,10 @@
     <i r="2">
       <x v="57"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+      <x v="4"/>
+    </i>
     <i t="default">
       <x v="2"/>
     </i>
@@ -3178,13 +2613,13 @@
       <x v="38"/>
     </i>
     <i r="2">
+      <x v="39"/>
+    </i>
+    <i r="2">
       <x v="50"/>
     </i>
     <i r="2">
       <x v="59"/>
-    </i>
-    <i r="2">
-      <x v="60"/>
     </i>
     <i r="1">
       <x v="1"/>
@@ -3199,20 +2634,23 @@
     <i>
       <x v="4"/>
       <x/>
-      <x v="2"/>
+      <x v="49"/>
     </i>
     <i r="2">
       <x v="67"/>
     </i>
     <i r="1">
       <x v="1"/>
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="43"/>
+    </i>
+    <i r="2">
       <x v="46"/>
     </i>
     <i r="2">
       <x v="48"/>
-    </i>
-    <i r="2">
-      <x v="70"/>
     </i>
     <i r="2">
       <x v="73"/>
@@ -3248,9 +2686,6 @@
       <x v="31"/>
     </i>
     <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="2">
       <x v="55"/>
     </i>
     <i r="2">
@@ -3276,6 +2711,9 @@
     <i>
       <x v="6"/>
       <x/>
+      <x v="33"/>
+    </i>
+    <i r="2">
       <x v="41"/>
     </i>
     <i t="default">
@@ -3284,16 +2722,7 @@
     <i>
       <x v="7"/>
       <x/>
-      <x v="32"/>
-    </i>
-    <i r="2">
-      <x v="42"/>
-    </i>
-    <i r="2">
       <x v="52"/>
-    </i>
-    <i r="2">
-      <x v="66"/>
     </i>
     <i r="2">
       <x v="94"/>
@@ -3312,13 +2741,13 @@
       <x v="24"/>
     </i>
     <i r="2">
+      <x v="34"/>
+    </i>
+    <i r="2">
       <x v="36"/>
     </i>
     <i r="2">
       <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="76"/>
     </i>
     <i r="2">
       <x v="87"/>
@@ -3326,6 +2755,9 @@
     <i r="1">
       <x v="2"/>
       <x v="21"/>
+    </i>
+    <i r="2">
+      <x v="76"/>
     </i>
     <i t="default">
       <x v="7"/>
@@ -3340,6 +2772,35 @@
     </i>
     <i>
       <x v="9"/>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="32"/>
+    </i>
+    <i r="2">
+      <x v="42"/>
+    </i>
+    <i r="2">
+      <x v="60"/>
+    </i>
+    <i r="2">
+      <x v="66"/>
+    </i>
+    <i r="2">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="23"/>
+    </i>
+    <i r="2">
+      <x v="70"/>
+    </i>
+    <i r="1">
       <x v="2"/>
       <x v="25"/>
     </i>
@@ -3351,38 +2812,6 @@
     </i>
     <i t="default">
       <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x/>
-      <x v="13"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x/>
-      <x v="74"/>
-    </i>
-    <i t="default">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-      <x/>
-      <x v="10"/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="1"/>
-      <x v="34"/>
-    </i>
-    <i t="default">
-      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -3392,49 +2821,49 @@
     <i/>
   </colItems>
   <formats count="48">
-    <format dxfId="243">
+    <format dxfId="51">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="241">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="240">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="239">
+    <format dxfId="47">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="238">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="237">
+    <format dxfId="45">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="236">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="233">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3448,7 +2877,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3462,7 +2891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3476,7 +2905,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -3489,7 +2918,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3503,7 +2932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3517,7 +2946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -3529,7 +2958,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3543,7 +2972,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -3555,7 +2984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -3565,7 +2994,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3580,7 +3009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3600,7 +3029,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3616,7 +3045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3640,7 +3069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3664,7 +3093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3681,7 +3110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3702,7 +3131,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3721,7 +3150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3736,7 +3165,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3754,7 +3183,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3770,7 +3199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3786,7 +3215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3806,7 +3235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3824,7 +3253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3843,7 +3272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3860,7 +3289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3875,7 +3304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3891,7 +3320,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3908,7 +3337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3929,7 +3358,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3945,7 +3374,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="202">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3960,7 +3389,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3980,7 +3409,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="200">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3997,7 +3426,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4014,7 +3443,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4029,10 +3458,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -4351,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED80F7-9B31-4864-972B-6B3F20AAD3D8}">
   <dimension ref="A3:I115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4370,7 +3799,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -4381,13 +3810,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -4395,204 +3824,190 @@
         <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C28" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C29" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C33" s="10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C35" s="10" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -4605,320 +4020,320 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="10" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C42" s="10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C45" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C47" s="10" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C48" s="10" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C49" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C50" s="10" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C51" s="10" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="A52" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="B53" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C54" s="10" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C55" s="10" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
+      <c r="B57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="C58" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C60" s="10" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C61" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C62" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C64" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="9" t="s">
+      <c r="C67" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
+      <c r="C68" s="10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="C69" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C73" s="10" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C74" s="10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C75" s="10" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C76" s="10" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="9" t="s">
+      <c r="C77" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C78" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C79" s="10" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C81" s="10" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C82" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="A82" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C83" s="10" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="C84" s="10" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -4931,317 +4346,203 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
+      <c r="C87" s="10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B88" s="9" t="s">
+      <c r="C88" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C91" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C92" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C93" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C94" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C95" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B96" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C89" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C90" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
+      <c r="C96" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C97" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-    </row>
-    <row r="96" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="9" t="s">
+      <c r="C101" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C102" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C103" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C104" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C105" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C106" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B107" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
+      <c r="C107" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C108" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C109" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B110" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C111" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="9"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101"/>
-      <c r="I101"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
-      <c r="D102"/>
-      <c r="E102"/>
-      <c r="F102"/>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103"/>
-      <c r="F103"/>
-      <c r="G103"/>
-      <c r="H103"/>
-      <c r="I103"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
-      <c r="F104"/>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105"/>
-      <c r="G105"/>
-      <c r="H105"/>
-      <c r="I105"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106"/>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108"/>
-      <c r="E108"/>
-      <c r="F108"/>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109"/>
-      <c r="E109"/>
-      <c r="F109"/>
-      <c r="G109"/>
-      <c r="H109"/>
-      <c r="I109"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110"/>
-      <c r="E110"/>
-      <c r="F110"/>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111"/>
-      <c r="F111"/>
-      <c r="G111"/>
-      <c r="H111"/>
-      <c r="I111"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112"/>
-      <c r="F112"/>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
+    </row>
+    <row r="112" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C112" s="10" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113"/>
-      <c r="G113"/>
-      <c r="H113"/>
-      <c r="I113"/>
+      <c r="A113" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114"/>
-      <c r="F114"/>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
+      <c r="A114" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115"/>
@@ -5261,11 +4562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115:F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5276,11 +4577,10 @@
     <col min="4" max="4" width="11.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="72" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -5294,774 +4594,649 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="13">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="13">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="13">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G16" s="13">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="13">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="13">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="13">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>157</v>
-      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>2</v>
       </c>
@@ -6073,16 +5248,13 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
@@ -6094,37 +5266,31 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G39" s="13">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -6136,13 +5302,13 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -6150,15 +5316,17 @@
         <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="F42" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
@@ -6166,300 +5334,261 @@
         <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
       <c r="F46" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
       <c r="F47" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E48" s="4"/>
       <c r="F48" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="B51" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" s="13">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F55" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
@@ -6471,1046 +5600,953 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="B61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G63" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E67" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E68" s="4" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G72" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G79" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G81" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D85" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H88" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="4"/>
-      <c r="E89" s="4" t="s">
-        <v>89</v>
-      </c>
+      <c r="E89" s="4"/>
       <c r="F89" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G89" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G90" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="13">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E92" s="4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G92" s="13">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G93" s="13">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G97" s="13">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G99" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G100" s="13">
-        <v>43501</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G101" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G102" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="4"/>
-      <c r="E103" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E103" s="4"/>
       <c r="F103" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G103" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4"/>
-      <c r="E104" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E104" s="4"/>
       <c r="F104" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G104" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="4"/>
-      <c r="E105" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="E105" s="4"/>
       <c r="F105" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
+      <c r="F106" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
+      <c r="F107" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
+      <c r="F108" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
+      <c r="F109" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
+      <c r="F110" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E111" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -7846,24 +6882,96 @@
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
     </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="6"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F153" xr:uid="{97C115AA-75BA-4ECA-A4DD-57A795D89F11}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
-    <sortCondition ref="B2:B91"/>
+  <autoFilter ref="A1:F162" xr:uid="{97C115AA-75BA-4ECA-A4DD-57A795D89F11}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F101">
+    <sortCondition ref="B2:B101"/>
   </sortState>
-  <conditionalFormatting sqref="C101:C153 C2:C99">
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+  <conditionalFormatting sqref="C2:C108 C110:C162">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2FBABF-4E9D-4642-9358-D54F1839C9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A2BDC-BC2A-4D8E-BD81-AFB7F067CB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$F$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -701,313 +701,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="244">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <fill>
         <patternFill>
@@ -1035,302 +739,6 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <alignment wrapText="1"/>
@@ -1494,7 +902,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43857.628392013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43858.900316203704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F153" sheet="General"/>
   </cacheSource>
@@ -1521,18 +929,18 @@
         <s v="Maks"/>
         <s v="Julia"/>
         <s v="ALL"/>
-        <m/>
+        <s v="???"/>
         <s v="Luda"/>
         <s v="Anya"/>
         <s v="Vlad"/>
         <s v="Anya / Vlad"/>
+        <m/>
         <s v="Vanya"/>
         <s v="Vanya / Help"/>
         <s v="Vlad / Anya"/>
         <s v="Anya / Help"/>
         <s v="Anya / Maks"/>
         <s v="Vlad / Vanya"/>
-        <s v="???"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
@@ -1642,23 +1050,23 @@
         <s v="оставлять ховер при переходе по меню"/>
         <s v="Затемнять карточки товаров, которых нет в наличии"/>
         <m/>
+        <s v="Тестирование функционала на десктопе" u="1"/>
         <s v="Починить выбор цены" u="1"/>
-        <s v="Тестирование функционала на десктопе" u="1"/>
+        <s v="Тестирование функционала на планшете" u="1"/>
+        <s v="Тестирование адаптивности на мобилке" u="1"/>
+        <s v="Тестирование адаптивности на десктопе" u="1"/>
+        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)" u="1"/>
+        <s v="Тестирование функционала на мобилке" u="1"/>
         <s v="Тестирование адаптивности на планшете" u="1"/>
-        <s v="Тестирование функционала на планшете" u="1"/>
+        <s v="Добавить карусель с топ продуктами" u="1"/>
         <s v="Если отжимается какой-то фильтр - обновлять товары?" u="1"/>
-        <s v="Тестирование функционала на мобилке" u="1"/>
         <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)" u="1"/>
-        <s v="Тестирование адаптивности на мобилке" u="1"/>
-        <s v="Proceed to Checkout -меняем на CHECKOUT" u="1"/>
-        <s v="Тестирование адаптивности на десктопе" u="1"/>
         <s v="на моб версии сделать ссылки главных категорий кликабельными" u="1"/>
         <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)" u="1"/>
+        <s v="Proceed to Checkout -меняем на CHECKOUT" u="1"/>
+        <s v="Добавить контейнер и адаптив" u="1"/>
+        <s v="приукрасить вывод инфы в табах" u="1"/>
         <s v="Незалогиненый пользователь заходит на приватную страницу - обработка" u="1"/>
-        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)" u="1"/>
-        <s v="приукрасить вывод инфы в табах" u="1"/>
-        <s v="Добавить карусель с топ продуктами" u="1"/>
-        <s v="Добавить контейнер и адаптив" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1989,7 +1397,7 @@
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
+    <x v="0"/>
     <x v="39"/>
   </r>
   <r>
@@ -1997,7 +1405,7 @@
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
+    <x v="8"/>
     <x v="40"/>
   </r>
   <r>
@@ -2005,7 +1413,7 @@
     <s v="Filter"/>
     <x v="2"/>
     <m/>
-    <x v="3"/>
+    <x v="8"/>
     <x v="41"/>
   </r>
   <r>
@@ -2077,7 +1485,7 @@
     <s v="Home page"/>
     <x v="0"/>
     <s v="in progress"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="50"/>
   </r>
   <r>
@@ -2109,7 +1517,7 @@
     <s v="Home page"/>
     <x v="2"/>
     <s v="done"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="54"/>
   </r>
   <r>
@@ -2141,7 +1549,7 @@
     <s v="Login/Logout"/>
     <x v="0"/>
     <s v="done"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="58"/>
   </r>
   <r>
@@ -2149,7 +1557,7 @@
     <s v="Logout"/>
     <x v="1"/>
     <s v="done"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="59"/>
   </r>
   <r>
@@ -2165,7 +1573,7 @@
     <s v="My Orders"/>
     <x v="1"/>
     <s v="in progress"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="61"/>
   </r>
   <r>
@@ -2173,7 +1581,7 @@
     <s v="My Orders"/>
     <x v="1"/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="62"/>
   </r>
   <r>
@@ -2181,7 +1589,7 @@
     <s v="Personal data"/>
     <x v="1"/>
     <m/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="63"/>
   </r>
   <r>
@@ -2189,7 +1597,7 @@
     <s v="Personal data"/>
     <x v="1"/>
     <s v="in progress"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="64"/>
   </r>
   <r>
@@ -2197,7 +1605,7 @@
     <s v="Personal data"/>
     <x v="0"/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="65"/>
   </r>
   <r>
@@ -2205,7 +1613,7 @@
     <s v="Presentation"/>
     <x v="1"/>
     <m/>
-    <x v="10"/>
+    <x v="11"/>
     <x v="66"/>
   </r>
   <r>
@@ -2213,7 +1621,7 @@
     <s v="Private Pages"/>
     <x v="1"/>
     <s v="in progress"/>
-    <x v="9"/>
+    <x v="10"/>
     <x v="67"/>
   </r>
   <r>
@@ -2293,7 +1701,7 @@
     <s v="ProductCard"/>
     <x v="1"/>
     <s v="in progress"/>
-    <x v="11"/>
+    <x v="12"/>
     <x v="77"/>
   </r>
   <r>
@@ -2301,7 +1709,7 @@
     <s v="Search"/>
     <x v="1"/>
     <s v="in progress"/>
-    <x v="12"/>
+    <x v="13"/>
     <x v="78"/>
   </r>
   <r>
@@ -2325,7 +1733,7 @@
     <s v="Sign Up"/>
     <x v="1"/>
     <s v="done"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="81"/>
   </r>
   <r>
@@ -2357,7 +1765,7 @@
     <s v="Sign Up"/>
     <x v="1"/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="85"/>
   </r>
   <r>
@@ -2381,7 +1789,7 @@
     <s v="Wishlist"/>
     <x v="0"/>
     <m/>
-    <x v="13"/>
+    <x v="14"/>
     <x v="88"/>
   </r>
   <r>
@@ -2413,7 +1821,7 @@
     <s v="Subscribe"/>
     <x v="0"/>
     <m/>
-    <x v="14"/>
+    <x v="3"/>
     <x v="92"/>
   </r>
   <r>
@@ -2421,7 +1829,7 @@
     <s v="Subscribe"/>
     <x v="0"/>
     <m/>
-    <x v="14"/>
+    <x v="3"/>
     <x v="93"/>
   </r>
   <r>
@@ -2461,7 +1869,7 @@
     <s v="Login"/>
     <x v="0"/>
     <m/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="98"/>
   </r>
   <r>
@@ -2509,7 +1917,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2517,7 +1933,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2525,7 +1949,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2533,7 +1965,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2541,7 +1981,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2549,7 +1997,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2557,7 +2013,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2565,7 +2029,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2573,7 +2045,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2581,7 +2061,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2589,7 +2077,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2597,7 +2093,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2605,7 +2109,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2613,7 +2125,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2621,7 +2141,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2629,7 +2157,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2637,7 +2173,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2645,7 +2189,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2653,7 +2205,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2661,7 +2221,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2669,7 +2237,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2677,7 +2253,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2685,7 +2269,15 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
   <r>
@@ -2693,206 +2285,22 @@
     <m/>
     <x v="3"/>
     <m/>
+    <x v="8"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
     <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="3"/>
+    <m/>
+    <x v="8"/>
     <x v="104"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I100" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2913,16 +2321,16 @@
         <item x="1"/>
         <item x="4"/>
         <item x="0"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
         <item x="8"/>
-        <item x="9"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="3"/>
         <item x="7"/>
-        <item x="11"/>
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2932,18 +2340,18 @@
         <item x="53"/>
         <item x="79"/>
         <item x="70"/>
-        <item m="1" x="113"/>
+        <item m="1" x="118"/>
         <item x="50"/>
         <item x="46"/>
         <item x="80"/>
-        <item m="1" x="116"/>
+        <item m="1" x="117"/>
         <item x="74"/>
         <item x="78"/>
         <item x="1"/>
         <item x="10"/>
         <item x="29"/>
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
+        <item m="1" x="113"/>
+        <item m="1" x="119"/>
         <item x="55"/>
         <item x="76"/>
         <item x="22"/>
@@ -2951,17 +2359,17 @@
         <item x="64"/>
         <item x="18"/>
         <item x="23"/>
-        <item m="1" x="109"/>
+        <item m="1" x="114"/>
         <item x="60"/>
         <item x="41"/>
         <item x="58"/>
         <item x="65"/>
         <item x="21"/>
-        <item m="1" x="115"/>
+        <item m="1" x="116"/>
         <item x="72"/>
         <item x="61"/>
         <item x="26"/>
-        <item m="1" x="117"/>
+        <item m="1" x="121"/>
         <item x="88"/>
         <item x="7"/>
         <item x="42"/>
@@ -2971,15 +2379,15 @@
         <item x="15"/>
         <item x="63"/>
         <item x="27"/>
-        <item m="1" x="118"/>
+        <item m="1" x="110"/>
         <item x="89"/>
         <item x="47"/>
         <item x="38"/>
         <item x="31"/>
         <item x="37"/>
-        <item m="1" x="105"/>
+        <item m="1" x="106"/>
         <item x="84"/>
-        <item m="1" x="111"/>
+        <item m="1" x="115"/>
         <item x="51"/>
         <item x="17"/>
         <item x="13"/>
@@ -2989,7 +2397,7 @@
         <item x="11"/>
         <item x="82"/>
         <item x="8"/>
-        <item m="1" x="119"/>
+        <item m="1" x="120"/>
         <item x="19"/>
         <item x="73"/>
         <item x="43"/>
@@ -3007,12 +2415,12 @@
         <item x="87"/>
         <item x="68"/>
         <item x="12"/>
-        <item m="1" x="114"/>
+        <item m="1" x="109"/>
+        <item m="1" x="108"/>
         <item m="1" x="112"/>
+        <item m="1" x="105"/>
+        <item m="1" x="111"/>
         <item m="1" x="107"/>
-        <item m="1" x="106"/>
-        <item m="1" x="110"/>
-        <item m="1" x="108"/>
         <item x="81"/>
         <item x="57"/>
         <item x="30"/>
@@ -3231,6 +2639,9 @@
       <x v="64"/>
     </i>
     <i r="2">
+      <x v="96"/>
+    </i>
+    <i r="2">
       <x v="97"/>
     </i>
     <i t="default">
@@ -3345,9 +2756,6 @@
     </i>
     <i r="2">
       <x v="37"/>
-    </i>
-    <i r="2">
-      <x v="96"/>
     </i>
     <i t="default">
       <x v="9"/>
@@ -3392,49 +2800,49 @@
     <i/>
   </colItems>
   <formats count="48">
-    <format dxfId="243">
+    <format dxfId="51">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="50">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="241">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="240">
+    <format dxfId="48">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="239">
+    <format dxfId="47">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="238">
+    <format dxfId="46">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="237">
+    <format dxfId="45">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="236">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="234">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="233">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3448,7 +2856,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3462,7 +2870,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3476,7 +2884,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -3489,7 +2897,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="229">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3503,7 +2911,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="228">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3517,7 +2925,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -3529,7 +2937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="226">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -3543,7 +2951,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="225">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -3555,7 +2963,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -3565,7 +2973,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="223">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3580,7 +2988,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3600,7 +3008,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3616,7 +3024,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3640,7 +3048,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3664,7 +3072,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3681,7 +3089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3702,7 +3110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3721,7 +3129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3736,7 +3144,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3754,7 +3162,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3770,7 +3178,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3786,7 +3194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3806,7 +3214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="210">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3824,7 +3232,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="209">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3843,7 +3251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="208">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3860,7 +3268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="207">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3875,7 +3283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="206">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3891,7 +3299,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="205">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3908,7 +3316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3929,7 +3337,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3945,7 +3353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="202">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3960,7 +3368,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3980,7 +3388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="200">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3997,7 +3405,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="199">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4014,7 +3422,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4029,10 +3437,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="197">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -4352,7 +3760,7 @@
   <dimension ref="A3:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,261 +4125,261 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C56" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C60" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C61" s="10" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C62" s="10" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C63" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C64" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="9" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C65" s="10" t="s">
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C66" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C66" s="10" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C67" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="9" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C73" s="10" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C74" s="10" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C75" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C76" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C77" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="9" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C78" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C79" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C80" s="10" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C81" s="10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C82" s="10" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C83" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B84" s="9" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
+      <c r="B88" s="12"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B89" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C89" s="10" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="10" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C90" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -5261,11 +4669,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5303,7 +4712,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -5320,11 +4729,11 @@
       <c r="F2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>110</v>
       </c>
@@ -5341,11 +4750,11 @@
       <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="13">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G3" s="14">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>110</v>
       </c>
@@ -5362,11 +4771,11 @@
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -5383,11 +4792,11 @@
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -5404,11 +4813,11 @@
       <c r="F6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>109</v>
       </c>
@@ -5425,11 +4834,11 @@
       <c r="F7" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>109</v>
       </c>
@@ -5446,11 +4855,11 @@
       <c r="F8" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -5467,8 +4876,9 @@
       <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -5487,8 +4897,9 @@
       <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
@@ -5505,11 +4916,11 @@
       <c r="F11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G11" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -5528,11 +4939,11 @@
       <c r="F12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G12" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>2</v>
       </c>
@@ -5551,8 +4962,9 @@
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>2</v>
       </c>
@@ -5571,11 +4983,11 @@
       <c r="F14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="13">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="14">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -5594,8 +5006,9 @@
       <c r="F15" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>2</v>
       </c>
@@ -5614,11 +5027,11 @@
       <c r="F16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="13">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="14">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
@@ -5637,11 +5050,11 @@
       <c r="F17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="13">
-        <v>43492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="14">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -5658,11 +5071,11 @@
       <c r="F18" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -5679,11 +5092,11 @@
       <c r="F19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -5700,8 +5113,9 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
@@ -5720,11 +5134,11 @@
       <c r="F21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G21" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G21" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
@@ -5741,11 +5155,11 @@
       <c r="F22" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -5762,8 +5176,9 @@
       <c r="F23" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -5780,11 +5195,11 @@
       <c r="F24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
@@ -5801,11 +5216,11 @@
       <c r="F25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -5824,8 +5239,8 @@
       <c r="F26" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="13">
-        <v>43498</v>
+      <c r="G26" s="14">
+        <v>43863</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -5847,8 +5262,8 @@
       <c r="F27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="13">
-        <v>43494</v>
+      <c r="G27" s="14">
+        <v>43859</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -5870,8 +5285,8 @@
       <c r="F28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="13">
-        <v>43494</v>
+      <c r="G28" s="14">
+        <v>43859</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -5893,8 +5308,8 @@
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="13">
-        <v>43494</v>
+      <c r="G29" s="14">
+        <v>43859</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -5916,11 +5331,11 @@
       <c r="F30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G30" s="14">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -5937,11 +5352,11 @@
       <c r="F31" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -5958,11 +5373,11 @@
       <c r="F32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
@@ -5979,11 +5394,11 @@
       <c r="F33" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>2</v>
       </c>
@@ -6000,11 +5415,11 @@
       <c r="F34" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>3</v>
       </c>
@@ -6021,8 +5436,9 @@
       <c r="F35" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -6039,8 +5455,9 @@
       <c r="F36" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>2</v>
       </c>
@@ -6057,11 +5474,11 @@
       <c r="F37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>2</v>
       </c>
@@ -6078,11 +5495,11 @@
       <c r="F38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>3</v>
       </c>
@@ -6099,11 +5516,11 @@
       <c r="F39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
@@ -6120,11 +5537,11 @@
       <c r="F40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -6141,8 +5558,9 @@
       <c r="F41" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -6157,8 +5575,9 @@
       <c r="F42" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
@@ -6173,8 +5592,9 @@
       <c r="F43" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>110</v>
       </c>
@@ -6191,11 +5611,11 @@
       <c r="F44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>3</v>
       </c>
@@ -6212,8 +5632,9 @@
       <c r="F45" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
@@ -6232,8 +5653,9 @@
       <c r="F46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>3</v>
       </c>
@@ -6252,8 +5674,9 @@
       <c r="F47" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>3</v>
       </c>
@@ -6270,8 +5693,9 @@
       <c r="F48" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>3</v>
       </c>
@@ -6290,11 +5714,11 @@
       <c r="F49" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G49" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G49" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
@@ -6313,11 +5737,11 @@
       <c r="F50" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G50" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>2</v>
       </c>
@@ -6336,8 +5760,9 @@
       <c r="F51" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>3</v>
       </c>
@@ -6356,7 +5781,7 @@
       <c r="F52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="14">
         <v>43860</v>
       </c>
     </row>
@@ -6377,11 +5802,11 @@
       <c r="F53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="13">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="14">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>2</v>
       </c>
@@ -6400,8 +5825,9 @@
       <c r="F54" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>3</v>
       </c>
@@ -6420,8 +5846,9 @@
       <c r="F55" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>3</v>
       </c>
@@ -6440,8 +5867,9 @@
       <c r="F56" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>3</v>
       </c>
@@ -6458,8 +5886,9 @@
       <c r="F57" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>3</v>
       </c>
@@ -6476,11 +5905,11 @@
       <c r="F58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
@@ -6497,11 +5926,11 @@
       <c r="F59" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>3</v>
       </c>
@@ -6520,8 +5949,9 @@
       <c r="F60" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>2</v>
       </c>
@@ -6540,8 +5970,9 @@
       <c r="F61" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
@@ -6560,8 +5991,9 @@
       <c r="F62" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>3</v>
       </c>
@@ -6580,11 +6012,11 @@
       <c r="F63" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G63" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
@@ -6601,11 +6033,11 @@
       <c r="F64" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G64" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
@@ -6622,11 +6054,11 @@
       <c r="F65" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>3</v>
       </c>
@@ -6645,11 +6077,11 @@
       <c r="F66" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G66" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>2</v>
       </c>
@@ -6666,11 +6098,11 @@
       <c r="F67" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>108</v>
       </c>
@@ -6687,11 +6119,11 @@
       <c r="F68" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G68" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G68" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>2</v>
       </c>
@@ -6710,8 +6142,9 @@
       <c r="F69" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
@@ -6730,9 +6163,9 @@
       <c r="F70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>3</v>
       </c>
@@ -6751,11 +6184,11 @@
       <c r="F71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>3</v>
       </c>
@@ -6774,11 +6207,11 @@
       <c r="F72" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G72" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
@@ -6797,11 +6230,11 @@
       <c r="F73" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
@@ -6820,8 +6253,9 @@
       <c r="F74" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
@@ -6838,11 +6272,11 @@
       <c r="F75" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>3</v>
       </c>
@@ -6861,8 +6295,9 @@
       <c r="F76" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="3"/>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>3</v>
       </c>
@@ -6881,8 +6316,9 @@
       <c r="F77" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>3</v>
       </c>
@@ -6901,8 +6337,9 @@
       <c r="F78" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
@@ -6921,11 +6358,11 @@
       <c r="F79" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G79" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G79" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>3</v>
       </c>
@@ -6944,11 +6381,11 @@
       <c r="F80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G80" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -6965,11 +6402,11 @@
       <c r="F81" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>2</v>
       </c>
@@ -6986,11 +6423,11 @@
       <c r="F82" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>3</v>
       </c>
@@ -7009,8 +6446,9 @@
       <c r="F83" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>2</v>
       </c>
@@ -7029,8 +6467,9 @@
       <c r="F84" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G84" s="3"/>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>3</v>
       </c>
@@ -7049,8 +6488,9 @@
       <c r="F85" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G85" s="3"/>
+    </row>
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -7069,8 +6509,9 @@
       <c r="F86" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>2</v>
       </c>
@@ -7087,11 +6528,11 @@
       <c r="F87" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G87" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G87" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>2</v>
       </c>
@@ -7110,11 +6551,12 @@
       <c r="F88" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H88" s="14" t="s">
+      <c r="G88" s="3"/>
+      <c r="H88" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -7131,11 +6573,11 @@
       <c r="F89" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G89" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G89" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
@@ -7152,11 +6594,11 @@
       <c r="F90" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
@@ -7173,11 +6615,11 @@
       <c r="F91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>18</v>
       </c>
@@ -7194,11 +6636,11 @@
       <c r="F92" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>2</v>
       </c>
@@ -7215,11 +6657,11 @@
       <c r="F93" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G93" s="13">
+      <c r="G93" s="14">
         <v>43866</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>2</v>
       </c>
@@ -7236,11 +6678,11 @@
       <c r="F94" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="G94" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>3</v>
       </c>
@@ -7257,11 +6699,11 @@
       <c r="F95" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="G95" s="13" t="s">
+      <c r="G95" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
@@ -7278,8 +6720,9 @@
       <c r="F96" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
@@ -7296,11 +6739,11 @@
       <c r="F97" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G97" s="13">
-        <v>43496</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G97" s="14">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -7317,8 +6760,9 @@
       <c r="F98" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2</v>
       </c>
@@ -7335,11 +6779,11 @@
       <c r="F99" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G99" s="13">
-        <v>43495</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>2</v>
       </c>
@@ -7356,11 +6800,11 @@
       <c r="F100" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="G100" s="13">
-        <v>43501</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G100" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
@@ -7377,11 +6821,11 @@
       <c r="F101" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G101" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G101" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>2</v>
       </c>
@@ -7398,11 +6842,11 @@
       <c r="F102" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G102" s="13">
-        <v>43493</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G102" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>3</v>
       </c>
@@ -7419,11 +6863,11 @@
       <c r="F103" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G103" s="13">
-        <v>43498</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G103" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>3</v>
       </c>
@@ -7440,11 +6884,11 @@
       <c r="F104" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G104" s="13">
-        <v>43500</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G104" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
@@ -7461,6 +6905,7 @@
       <c r="F105" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6"/>
@@ -7469,6 +6914,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6"/>
@@ -7477,6 +6923,7 @@
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6"/>
@@ -7485,6 +6932,7 @@
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
@@ -7493,6 +6941,7 @@
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
@@ -7501,6 +6950,7 @@
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
@@ -7509,6 +6959,7 @@
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
@@ -7517,353 +6968,409 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="3"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6"/>
       <c r="B113" s="3"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="3"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6"/>
       <c r="B114" s="3"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="3"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="6"/>
       <c r="B115" s="3"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="3"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6"/>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="3"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="6"/>
       <c r="B117" s="3"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="3"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="3"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6"/>
       <c r="B118" s="3"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="3"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="3"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6"/>
       <c r="B119" s="3"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="3"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="6"/>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="3"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="6"/>
       <c r="B121" s="3"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="3"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="6"/>
       <c r="B122" s="3"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="6"/>
       <c r="B123" s="3"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
       <c r="B124" s="3"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="3"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6"/>
       <c r="B125" s="3"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="3"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="3"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="6"/>
       <c r="B129" s="3"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="3"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="6"/>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="3"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="6"/>
       <c r="B131" s="3"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="3"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6"/>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="3"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="6"/>
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="3"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="6"/>
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="3"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6"/>
       <c r="B135" s="3"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="3"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="6"/>
       <c r="B136" s="3"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="3"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="6"/>
       <c r="B137" s="3"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="3"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6"/>
       <c r="B138" s="3"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="6"/>
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="3"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="6"/>
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6"/>
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="3"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6"/>
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6"/>
       <c r="B143" s="3"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="3"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="6"/>
       <c r="B144" s="3"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="3"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="6"/>
       <c r="B145" s="3"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="6"/>
       <c r="B146" s="3"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="6"/>
       <c r="B147" s="3"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="6"/>
       <c r="B148" s="3"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="6"/>
       <c r="B149" s="3"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
       <c r="B150" s="3"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="6"/>
       <c r="B151" s="3"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="6"/>
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="3"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="6"/>
       <c r="B153" s="3"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F153" xr:uid="{97C115AA-75BA-4ECA-A4DD-57A795D89F11}"/>
+  <autoFilter ref="A1:G105" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Anya / Vlad"/>
+        <filter val="Vlad"/>
+        <filter val="Vlad / Anya"/>
+        <filter val="Vlad / Vanya"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2020" month="1" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
     <sortCondition ref="B2:B91"/>
   </sortState>
   <conditionalFormatting sqref="C101:C153 C2:C99">
-    <cfRule type="cellIs" dxfId="99" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="cellIs" dxfId="97" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A2BDC-BC2A-4D8E-BD81-AFB7F067CB2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B8A97-DE6C-4336-8EA4-A7012A966D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="188">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -583,6 +583,27 @@
   </si>
   <si>
     <t>Тестирование на мобилке</t>
+  </si>
+  <si>
+    <t>Починить загрузку товаров (пропал спинер)</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Не работает индикатор наличия товара на product details. Нет затемнения в product list</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>Добавить хлебные крошки на статических страницах</t>
+  </si>
+  <si>
+    <t>Последний артикул не удаляется из корзины</t>
+  </si>
+  <si>
+    <t>Pages</t>
   </si>
 </sst>
 </file>
@@ -904,7 +925,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43858.900316203704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F153" sheet="General"/>
+    <worksheetSource ref="A1:F152" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -4670,11 +4691,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5113,7 +5134,9 @@
       <c r="F20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -5199,33 +5222,35 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G25" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>11</v>
@@ -5234,18 +5259,18 @@
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="G26" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -5260,13 +5285,13 @@
         <v>89</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G27" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
@@ -5277,19 +5302,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>2</v>
       </c>
@@ -5300,42 +5325,40 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" s="14">
         <v>43859</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="G30" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -5343,14 +5366,14 @@
         <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="G31" s="14">
         <v>43863</v>
@@ -5358,7 +5381,7 @@
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
@@ -5368,60 +5391,58 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="G32" s="14">
-        <v>43863</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="G33" s="14">
-        <v>43865</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G34" s="14">
-        <v>43860</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -5434,7 +5455,7 @@
         <v>125</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5446,16 +5467,18 @@
         <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="G36" s="14">
+        <v>43863</v>
+      </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -5469,39 +5492,39 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G37" s="14">
-        <v>43863</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G38" s="14">
-        <v>43860</v>
+        <v>43859</v>
       </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -5514,13 +5537,13 @@
         <v>125</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G39" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
@@ -5528,20 +5551,18 @@
         <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -5552,11 +5573,9 @@
         <v>10</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E41" s="4"/>
       <c r="F41" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -5573,47 +5592,49 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G43" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G43" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="14">
-        <v>43865</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
@@ -5623,14 +5644,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E45" s="4" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -5642,7 +5665,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>154</v>
@@ -5651,7 +5674,7 @@
         <v>63</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -5663,16 +5686,14 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -5684,20 +5705,24 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="G48" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>44</v>
@@ -5712,38 +5737,36 @@
         <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="G49" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="14">
-        <v>43858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -5755,37 +5778,37 @@
         <v>154</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="G51" s="14">
+        <v>43860</v>
+      </c>
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G52" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>2</v>
       </c>
@@ -5795,26 +5818,26 @@
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E53" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="14">
-        <v>43859</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>154</v>
@@ -5823,7 +5846,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -5835,16 +5858,16 @@
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -5858,14 +5881,12 @@
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -5877,16 +5898,18 @@
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="G57" s="14">
+        <v>43863</v>
+      </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -5903,42 +5926,42 @@
         <v>125</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G58" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E59" s="4" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>154</v>
@@ -5947,55 +5970,55 @@
         <v>40</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="G62" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>98</v>
@@ -6004,42 +6027,42 @@
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G63" s="14">
         <v>43858</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="14">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>91</v>
@@ -6047,102 +6070,102 @@
       <c r="C65" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E65" s="4" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="G65" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G66" s="14">
-        <v>43860</v>
+        <v>43863</v>
       </c>
     </row>
     <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G67" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E68" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G68" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G69" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
@@ -6155,15 +6178,17 @@
         <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="G70" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
@@ -6173,7 +6198,7 @@
         <v>72</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>15</v>
@@ -6182,10 +6207,10 @@
         <v>63</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G71" s="14">
-        <v>43865</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -6196,7 +6221,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>15</v>
@@ -6205,10 +6230,10 @@
         <v>63</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="G72" s="14">
-        <v>43858</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -6222,17 +6247,15 @@
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G73" s="14">
-        <v>43865</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
@@ -6244,37 +6267,37 @@
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G74" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="G74" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E75" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="14">
-        <v>43865</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
@@ -6293,7 +6316,7 @@
         <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -6305,7 +6328,7 @@
         <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>154</v>
@@ -6314,7 +6337,7 @@
         <v>63</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -6329,22 +6352,24 @@
         <v>11</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="G78" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>11</v>
@@ -6353,18 +6378,18 @@
         <v>15</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="G79" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>20</v>
@@ -6372,20 +6397,18 @@
       <c r="C80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G80" s="14">
         <v>43863</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -6393,14 +6416,14 @@
         <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G81" s="14">
         <v>43863</v>
@@ -6408,28 +6431,28 @@
     </row>
     <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="E82" s="4" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G82" s="14">
-        <v>43863</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>56</v>
@@ -6438,59 +6461,59 @@
         <v>11</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>84</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -6500,16 +6523,16 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="G86" s="14">
+        <v>43858</v>
+      </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
@@ -6521,15 +6544,18 @@
       <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E87" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" s="14">
-        <v>43858</v>
+        <v>93</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6537,26 +6563,23 @@
         <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="13" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="G88" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -6568,16 +6591,16 @@
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>89</v>
+        <v>168</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="G89" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
@@ -6589,10 +6612,10 @@
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="G90" s="14">
         <v>43863</v>
@@ -6600,7 +6623,7 @@
     </row>
     <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>4</v>
@@ -6613,18 +6636,18 @@
         <v>89</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="G91" s="14">
-        <v>43863</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>9</v>
@@ -6634,10 +6657,10 @@
         <v>89</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G92" s="14">
-        <v>43865</v>
+        <v>43866</v>
       </c>
     </row>
     <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6652,18 +6675,18 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G93" s="14">
-        <v>43866</v>
+        <v>144</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>145</v>
@@ -6676,7 +6699,7 @@
         <v>161</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>161</v>
@@ -6684,257 +6707,297 @@
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>161</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G96" s="3"/>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="G96" s="14">
+        <v>43861</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G97" s="14">
-        <v>43861</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="G97" s="3"/>
+    </row>
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G98" s="3"/>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="G98" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G99" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G100" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G101" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G102" s="14">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
         <v>125</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="G103" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G104" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="G104" s="3"/>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105" s="14"/>
+      <c r="H105" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="3"/>
+      <c r="F106" s="3" t="s">
+        <v>183</v>
+      </c>
       <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="6"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="4"/>
+      <c r="H106" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="3"/>
+      <c r="E107" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="G107" s="3"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
+      <c r="H107" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="3"/>
+      <c r="E108" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>186</v>
+      </c>
       <c r="G108" s="3"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -6943,7 +7006,7 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -6952,7 +7015,7 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6"/>
       <c r="B111" s="3"/>
       <c r="C111" s="4"/>
@@ -6961,7 +7024,7 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
       <c r="B112" s="3"/>
       <c r="C112" s="4"/>
@@ -7330,35 +7393,25 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G105" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+  <autoFilter ref="A1:G108" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="in progress"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Anya / Vlad"/>
-        <filter val="Vlad"/>
-        <filter val="Vlad / Anya"/>
+        <filter val="Vanya"/>
+        <filter val="Vanya / Help"/>
         <filter val="Vlad / Vanya"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2020" month="1" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
-    <sortCondition ref="B2:B91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
+    <sortCondition ref="B2:B90"/>
   </sortState>
-  <conditionalFormatting sqref="C101:C153 C2:C99">
+  <conditionalFormatting sqref="C100:C152 C2:C98">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
@@ -7366,7 +7419,7 @@
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
+  <conditionalFormatting sqref="C99">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211B8A97-DE6C-4336-8EA4-A7012A966D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880F0C3-269F-4BE8-BCA4-D07E1B1BDC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="192">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -237,12 +237,6 @@
     <t>Catalog / Product page</t>
   </si>
   <si>
-    <t>Показывать поиск на планшете/моб</t>
-  </si>
-  <si>
-    <t>причесать для моб версии</t>
-  </si>
-  <si>
     <t>Уменьшить высоту</t>
   </si>
   <si>
@@ -282,9 +276,6 @@
     <t>считывать значение q-ty перед добавлением в корзину (на product Detail и в модалке)</t>
   </si>
   <si>
-    <t>сделать единый формат qty input для всех мест (модалка, корзина, страница продукта)</t>
-  </si>
-  <si>
     <t>Add to cart</t>
   </si>
   <si>
@@ -300,15 +291,9 @@
     <t>добавить сортировку товаров</t>
   </si>
   <si>
-    <t>добавить Container на компонентах везде</t>
-  </si>
-  <si>
     <t>Обрабатывать клик "добавление в избранное" для незалогиненого пользователя - модалка логина</t>
   </si>
   <si>
-    <t>долго загружаются иконки категорий в каталоге</t>
-  </si>
-  <si>
     <t>Vlad</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>доверстать</t>
   </si>
   <si>
-    <t>изменение пароля</t>
-  </si>
-  <si>
     <t>чтоб фильт соответствовал перечню товаров на странице</t>
   </si>
   <si>
@@ -378,9 +360,6 @@
     <t>Чистить фильтр при переходе в другие категории</t>
   </si>
   <si>
-    <t>Сворачивать фильтр при переходе в другие категории</t>
-  </si>
-  <si>
     <t>Folder structure</t>
   </si>
   <si>
@@ -402,12 +381,6 @@
     <t>Поменять описание категорий на главной странице</t>
   </si>
   <si>
-    <t>В хлебных крошках отобразить Search после иконки дома</t>
-  </si>
-  <si>
-    <t>Cохранять значение запроса в поле поиска при переходе на страницу с результатами</t>
-  </si>
-  <si>
     <t>Выезд поля инпута по нажатию, свертка по дефокусу или переходу на другую страницу (ИЛИ СДЕЛАТЬ ПОСТОЯННО ВИДНЫМ. Аня, напиши мне по этому поводу, поделюсь мыслями)</t>
   </si>
   <si>
@@ -453,12 +426,6 @@
     <t>Maks Total</t>
   </si>
   <si>
-    <t>Vanya Total</t>
-  </si>
-  <si>
-    <t>Vanya / Help Total</t>
-  </si>
-  <si>
     <t>Vlad Total</t>
   </si>
   <si>
@@ -480,12 +447,6 @@
     <t>Subscribe</t>
   </si>
   <si>
-    <t>Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза</t>
-  </si>
-  <si>
-    <t>Сообщение если уже зарегистрирован?</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -510,18 +471,12 @@
     <t>Time estimate</t>
   </si>
   <si>
-    <t>Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале</t>
-  </si>
-  <si>
     <t>Anya / Vlad</t>
   </si>
   <si>
     <t>фильтр на мобилке прилепить вниз на кнопку</t>
   </si>
   <si>
-    <t>Починить выбор цены, добавить инпут вручную</t>
-  </si>
-  <si>
     <t>Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART</t>
   </si>
   <si>
@@ -561,18 +516,12 @@
     <t>Anya / Help Total</t>
   </si>
   <si>
-    <t>Anya / Maks Total</t>
-  </si>
-  <si>
     <t>Vlad / Vanya Total</t>
   </si>
   <si>
     <t>оставлять ховер при переходе по меню</t>
   </si>
   <si>
-    <t>Затемнять карточки товаров, которых нет в наличии</t>
-  </si>
-  <si>
     <t>Product Card</t>
   </si>
   <si>
@@ -597,13 +546,76 @@
     <t>Product Details</t>
   </si>
   <si>
-    <t>Добавить хлебные крошки на статических страницах</t>
-  </si>
-  <si>
-    <t>Последний артикул не удаляется из корзины</t>
-  </si>
-  <si>
     <t>Pages</t>
+  </si>
+  <si>
+    <t>Сохранение измененных personal data</t>
+  </si>
+  <si>
+    <t>изменение пароля (двойной ввод нового пароля, инпуты друг под другом, Edit Password). Выстроить поля вертикально</t>
+  </si>
+  <si>
+    <t>Чтоб рендж реагировал на ввод цены с первого раза</t>
+  </si>
+  <si>
+    <t>Открывать фильтр при переходе в другие категории</t>
+  </si>
+  <si>
+    <t>стилизовать sort by</t>
+  </si>
+  <si>
+    <t>Ошибка при переходе в каталоге</t>
+  </si>
+  <si>
+    <t>сделать единый формат qty input для всех мест (модалка, корзина, страница продукта). Минимум в модалку</t>
+  </si>
+  <si>
+    <t>добавить Container на компонентах везде (favorites …)</t>
+  </si>
+  <si>
+    <t>причесать для моб версии (добавить опцию возврата, поиграться с размерами)</t>
+  </si>
+  <si>
+    <t>Добавить карусель с топ продуктами на главную и product page, исправить баг не полного показа артикула вначале</t>
+  </si>
+  <si>
+    <t>Показывать поиск на планшете/моб - добавить контейнер</t>
+  </si>
+  <si>
+    <t>Затемнять кнопку покупки, блокировать, менять корзину на надпись, которых нет в наличии</t>
+  </si>
+  <si>
+    <t>Последний артикул не удаляется из корзины (нужно удалять всю корзину)</t>
+  </si>
+  <si>
+    <t>В хлебных крошках отобразить Search после иконки дома (исправить ошибку)</t>
+  </si>
+  <si>
+    <t>Vlad / Maks</t>
+  </si>
+  <si>
+    <t>Добавить хлебные крошки на статичных страницах</t>
+  </si>
+  <si>
+    <t>Invalid year &gt;2021</t>
+  </si>
+  <si>
+    <t>Сообщение если уже зарегистрирован? (обрабатывать ошибки с бека)</t>
+  </si>
+  <si>
+    <t>Vlad / Maks Total</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>длинные названия укоротить</t>
+  </si>
+  <si>
+    <t>Убрать в ценах значение после запятой</t>
+  </si>
+  <si>
+    <t>При открытии addToCart видно, как просчитывается Total</t>
   </si>
 </sst>
 </file>
@@ -732,7 +744,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -923,9 +949,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43858.900316203704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="152" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43864.564638194446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="151" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F152" sheet="General"/>
+    <worksheetSource ref="A1:F153" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -943,10 +969,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="done"/>
+        <m/>
+        <s v="in progress"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Responsible" numFmtId="0">
-      <sharedItems containsBlank="1" count="15">
+      <sharedItems containsBlank="1" count="16">
         <s v="Maks"/>
         <s v="Julia"/>
         <s v="ALL"/>
@@ -955,6 +985,7 @@
         <s v="Anya"/>
         <s v="Vlad"/>
         <s v="Anya / Vlad"/>
+        <s v="Vlad / Maks"/>
         <m/>
         <s v="Vanya"/>
         <s v="Vanya / Help"/>
@@ -965,7 +996,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="122">
+      <sharedItems containsBlank="1" count="141">
         <s v="сделать меньше по ширине, добавить Item #. View basket поменять на View Cart, убрать &quot;;&quot; после слова DHL "/>
         <s v="Выложить на HEROKU"/>
         <s v="Рефакторинг кода (улучшить)"/>
@@ -975,8 +1006,8 @@
         <s v="Тестирование на мобилке"/>
         <s v="Обработка ошибок (.error, try catch)"/>
         <s v="при переходе на новый роут - подниматься вверх"/>
-        <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта)"/>
-        <s v="добавить Container на компонентах везде"/>
+        <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта). Минимум в модалку"/>
+        <s v="добавить Container на компонентах везде (favorites …)"/>
         <s v="При нажатии на продукт в корзине передавать в роут itemNo (не itemId)"/>
         <s v="считывать значение q-ty перед добавлением в корзину (на product Detail и в модалке)"/>
         <s v="при клике на корзину - сразу переводить в корзину"/>
@@ -985,12 +1016,11 @@
         <s v="при нажатии на плюс проверять кол-во"/>
         <s v="при загрузке корзины проверять наличие и информировать, если нет"/>
         <s v="долго загружаются иконки категорий"/>
-        <s v="причесать для моб версии"/>
+        <s v="причесать для моб версии (добавить опцию возврата, поиграться с размерами)"/>
         <s v="на моб версии сделать ссылки главных категорий кликабельными (view all)"/>
         <s v="картинки на страницах категорий под шапкой"/>
         <s v="добавить сортировку товаров"/>
-        <s v="долго загружаются иконки категорий в каталоге"/>
-        <s v="Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале"/>
+        <s v="Добавить карусель с топ продуктами на главную и product page, исправить баг не полного показа артикула вначале"/>
         <s v="Сверстать чекаут"/>
         <s v="Настроить валидацию чекаут"/>
         <s v="Подтянуть данные в форму"/>
@@ -998,11 +1028,11 @@
         <s v="Добавить в базу данных sizes для всех артикулов или проверять перед отрисовкой"/>
         <s v="Убрать в ценах значение после запятой, длинные названия укоротить"/>
         <s v="Поменять описание категорий на главной странице"/>
-        <s v="Починить выбор цены, добавить инпут вручную"/>
+        <s v="Чтоб рендж реагировал на ввод цены с первого раза"/>
         <s v="Apply поменять на Filter"/>
         <s v="чтоб фильт соответствовал перечню товаров на странице"/>
         <s v="Чистить фильтр при переходе в другие категории"/>
-        <s v="Сворачивать фильтр при переходе в другие категории"/>
+        <s v="Открывать фильтр при переходе в другие категории"/>
         <s v="Поменять цвета чекбоксов"/>
         <s v="показывать сверху параметры, по которым фильтруется"/>
         <s v="чтоб при переходе на страницу назад/вперед сохранялись параметры фильтра"/>
@@ -1013,7 +1043,7 @@
         <s v="Уменьшить высоту Header"/>
         <s v="Фиксировать хедер вверзу страницы при прокрутке"/>
         <s v="В хедер меню поменять ховер на полоски по бокам"/>
-        <s v="Показывать поиск на планшете/моб"/>
+        <s v="Показывать поиск на планшете/моб - добавить контейнер"/>
         <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART"/>
         <s v="при нажатии на кнопки learn more ничего не происходит"/>
         <s v="Slider: Убрать стрелки на слайдере, позиционировать внутренний блок"/>
@@ -1031,7 +1061,7 @@
         <s v="добавить функционал переходов на артикула"/>
         <s v="подтягивать данные при изменении personal data"/>
         <s v="доверстать"/>
-        <s v="изменение пароля"/>
+        <s v="изменение пароля (двойной ввод нового пароля, инпуты друг под другом, Edit Password). Выстроить поля вертикально"/>
         <s v="Сделать презентацию"/>
         <s v="Незалогиненый пользователь заходит на приватную страницу - обработка - ДОДЕЛАТЬ ДЛЯ ВСЕХ СТРАНИЦ"/>
         <s v="стрелки на слайдере"/>
@@ -1045,8 +1075,8 @@
         <s v="добавить номер артикула"/>
         <s v="сделать цены более секси:) особенно перечеркнутую"/>
         <s v="Выезд поля инпута по нажатию, свертка по дефокусу или переходу на другую страницу (ИЛИ СДЕЛАТЬ ПОСТОЯННО ВИДНЫМ. Аня, напиши мне по этому поводу, поделюсь мыслями)"/>
-        <s v="Cохранять значение запроса в поле поиска при переходе на страницу с результатами"/>
-        <s v="В хлебных крошках отобразить Search после иконки дома"/>
+        <s v="Ошибка при переходе в каталоге"/>
+        <s v="В хлебных крошках отобразить Search после иконки дома (исправить ошибку)"/>
         <s v="Убирать модалку логина при переходе на регистрацию"/>
         <s v="При первом клике и вводе текста происходит расфокус"/>
         <s v="Убрать страны"/>
@@ -1060,33 +1090,53 @@
         <s v="Письмо с подтверждением заказа"/>
         <s v="Подписка"/>
         <s v="Сверстать подписку"/>
-        <s v="Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза"/>
+        <s v="Invalid year &gt;2021"/>
         <s v="Инфинити скрол"/>
-        <s v="Сообщение если уже зарегистрирован?"/>
+        <s v="Сообщение если уже зарегистрирован? (обрабатывать ошибки с бека)"/>
         <s v="Информация про корзину пользователя грузиться с опозданием"/>
         <s v="remember me не работает"/>
         <s v="Переход по products/coocking вызывает ошибку (когда неправильно указана категория)"/>
         <s v="axios.defaults.authorization пишется в скрипте Корзины"/>
         <s v="фильтр на мобилке прилепить вниз на кнопку"/>
         <s v="оставлять ховер при переходе по меню"/>
-        <s v="Затемнять карточки товаров, которых нет в наличии"/>
+        <s v="Затемнять кнопку покупки, блокировать, менять корзину на надпись, которых нет в наличии"/>
+        <s v="Починить загрузку товаров (пропал спинер)"/>
+        <s v="Не работает индикатор наличия товара на product details. Нет затемнения в product list"/>
+        <s v="Добавить хлебные крошки на статичных страницах"/>
+        <s v="Последний артикул не удаляется из корзины (нужно удалять всю корзину)"/>
+        <s v="Сохранение измененных personal data"/>
+        <s v="стилизовать sort by"/>
         <m/>
         <s v="Тестирование функционала на десктопе" u="1"/>
+        <s v="долго загружаются иконки категорий в каталоге" u="1"/>
+        <s v="Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза" u="1"/>
         <s v="Починить выбор цены" u="1"/>
+        <s v="добавить Container на компонентах везде" u="1"/>
+        <s v="Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале" u="1"/>
+        <s v="Сообщение если уже зарегистрирован?" u="1"/>
         <s v="Тестирование функционала на планшете" u="1"/>
         <s v="Тестирование адаптивности на мобилке" u="1"/>
+        <s v="В хлебных крошках отобразить Search после иконки дома" u="1"/>
         <s v="Тестирование адаптивности на десктопе" u="1"/>
         <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)" u="1"/>
         <s v="Тестирование функционала на мобилке" u="1"/>
         <s v="Тестирование адаптивности на планшете" u="1"/>
         <s v="Добавить карусель с топ продуктами" u="1"/>
+        <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта)" u="1"/>
+        <s v="Cохранять значение запроса в поле поиска при переходе на страницу с результатами" u="1"/>
         <s v="Если отжимается какой-то фильтр - обновлять товары?" u="1"/>
         <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)" u="1"/>
+        <s v="Показывать поиск на планшете/моб" u="1"/>
         <s v="на моб версии сделать ссылки главных категорий кликабельными" u="1"/>
         <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)" u="1"/>
         <s v="Proceed to Checkout -меняем на CHECKOUT" u="1"/>
+        <s v="изменение пароля" u="1"/>
+        <s v="Затемнять карточки товаров, которых нет в наличии" u="1"/>
         <s v="Добавить контейнер и адаптив" u="1"/>
         <s v="приукрасить вывод инфы в табах" u="1"/>
+        <s v="причесать для моб версии" u="1"/>
+        <s v="Починить выбор цены, добавить инпут вручную" u="1"/>
+        <s v="Сворачивать фильтр при переходе в другие категории" u="1"/>
         <s v="Незалогиненый пользователь заходит на приватную страницу - обработка" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1100,12 +1150,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="152">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="151">
   <r>
     <s v="Design"/>
     <s v="Add to cart"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
   </r>
@@ -1113,7 +1163,7 @@
     <s v="Deploy"/>
     <s v="All code"/>
     <x v="1"/>
-    <m/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
   </r>
@@ -1121,7 +1171,7 @@
     <s v="Deploy"/>
     <s v="All code"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="2"/>
     <x v="2"/>
   </r>
@@ -1129,7 +1179,7 @@
     <s v="Deploy"/>
     <s v="All code"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="2"/>
     <x v="3"/>
   </r>
@@ -1137,7 +1187,7 @@
     <s v="Test"/>
     <s v="All code"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="3"/>
     <x v="4"/>
   </r>
@@ -1145,7 +1195,7 @@
     <s v="Test"/>
     <s v="All code"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="3"/>
     <x v="5"/>
   </r>
@@ -1153,7 +1203,7 @@
     <s v="Test"/>
     <s v="All code"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="3"/>
     <x v="6"/>
   </r>
@@ -1161,7 +1211,7 @@
     <s v="Func"/>
     <s v="All code"/>
     <x v="1"/>
-    <m/>
+    <x v="1"/>
     <x v="2"/>
     <x v="7"/>
   </r>
@@ -1169,7 +1219,7 @@
     <s v="Func"/>
     <s v="All pages"/>
     <x v="1"/>
-    <s v="done"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="8"/>
   </r>
@@ -1177,7 +1227,7 @@
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
-    <m/>
+    <x v="2"/>
     <x v="5"/>
     <x v="9"/>
   </r>
@@ -1185,7 +1235,7 @@
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="10"/>
   </r>
@@ -1193,7 +1243,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="done"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="11"/>
   </r>
@@ -1201,7 +1251,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="12"/>
   </r>
@@ -1209,7 +1259,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="done"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="13"/>
   </r>
@@ -1217,7 +1267,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="14"/>
   </r>
@@ -1225,7 +1275,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="15"/>
   </r>
@@ -1233,7 +1283,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="1"/>
     <x v="16"/>
   </r>
@@ -1241,7 +1291,7 @@
     <s v="Func"/>
     <s v="Cart"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="1"/>
     <x v="17"/>
   </r>
@@ -1249,7 +1299,7 @@
     <s v="Speed"/>
     <s v="Catalog"/>
     <x v="2"/>
-    <m/>
+    <x v="1"/>
     <x v="6"/>
     <x v="18"/>
   </r>
@@ -1257,7 +1307,7 @@
     <s v="Design"/>
     <s v="Catalog"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="19"/>
   </r>
@@ -1265,7 +1315,7 @@
     <s v="Func"/>
     <s v="Catalog"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="5"/>
     <x v="20"/>
   </r>
@@ -1273,7 +1323,7 @@
     <s v="Design"/>
     <s v="Catalog"/>
     <x v="2"/>
-    <m/>
+    <x v="1"/>
     <x v="5"/>
     <x v="21"/>
   </r>
@@ -1281,31 +1331,31 @@
     <s v="Func"/>
     <s v="Catalog"/>
     <x v="0"/>
-    <m/>
+    <x v="0"/>
     <x v="4"/>
     <x v="22"/>
   </r>
   <r>
-    <s v="Speed"/>
-    <s v="Catalog"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="23"/>
-  </r>
-  <r>
     <s v="Func"/>
     <s v="Catalog / Product page"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="24"/>
+    <x v="23"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Checkout"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="25"/>
   </r>
@@ -1313,7 +1363,7 @@
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="2"/>
     <x v="6"/>
     <x v="26"/>
   </r>
@@ -1321,351 +1371,351 @@
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="27"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Checkout"/>
-    <x v="1"/>
-    <s v="in progress"/>
-    <x v="6"/>
+    <s v="DB"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="7"/>
     <x v="28"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="DB"/>
-    <x v="1"/>
-    <m/>
-    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
     <x v="29"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="DB"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="30"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="DB"/>
     <x v="0"/>
-    <m/>
-    <x v="1"/>
-    <x v="31"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="30"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="32"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Filter"/>
     <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="34"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="33"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
-    <m/>
-    <x v="6"/>
-    <x v="35"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="34"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="36"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="35"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Filter"/>
     <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="37"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="38"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="37"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="39"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="38"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
-    <m/>
-    <x v="8"/>
-    <x v="40"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="39"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="2"/>
-    <m/>
-    <x v="8"/>
-    <x v="41"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="Deploy"/>
     <s v="Folder structure"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="6"/>
-    <x v="42"/>
+    <x v="41"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="43"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="42"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="0"/>
-    <s v="done"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Header"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="44"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Header"/>
-    <x v="1"/>
-    <s v="done"/>
-    <x v="5"/>
-    <x v="45"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Header"/>
     <x v="2"/>
-    <m/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Header"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="46"/>
   </r>
   <r>
-    <s v="Design"/>
+    <s v="Func"/>
     <s v="Header"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="47"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Header"/>
-    <x v="1"/>
-    <s v="in progress"/>
-    <x v="5"/>
+    <s v="Home page"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="48"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Home page"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="49"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Home page"/>
-    <x v="0"/>
-    <s v="done"/>
-    <x v="1"/>
-    <x v="49"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Home page"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="51"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <s v="in progress"/>
-    <x v="9"/>
-    <x v="50"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Home page"/>
-    <x v="1"/>
-    <m/>
-    <x v="6"/>
-    <x v="51"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Home page"/>
-    <x v="1"/>
-    <s v="done"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="52"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Home page"/>
-    <x v="0"/>
-    <s v="done"/>
-    <x v="1"/>
-    <x v="53"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="2"/>
-    <s v="done"/>
-    <x v="9"/>
-    <x v="54"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="53"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="2"/>
-    <m/>
-    <x v="0"/>
-    <x v="55"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="54"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="56"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="55"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Home page"/>
     <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="57"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="56"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Login/Logout"/>
     <x v="0"/>
-    <s v="done"/>
-    <x v="9"/>
-    <x v="58"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="57"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Logout"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="9"/>
-    <x v="59"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="58"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Modal"/>
     <x v="0"/>
-    <s v="done"/>
+    <x v="1"/>
     <x v="6"/>
-    <x v="60"/>
+    <x v="59"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="My Orders"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="9"/>
-    <x v="61"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="60"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="My Orders"/>
     <x v="1"/>
-    <m/>
-    <x v="9"/>
-    <x v="62"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="61"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="1"/>
-    <m/>
+    <x v="0"/>
+    <x v="11"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Personal data"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="63"/>
   </r>
   <r>
-    <s v="Design"/>
-    <s v="Personal data"/>
-    <x v="1"/>
-    <s v="in progress"/>
-    <x v="9"/>
-    <x v="64"/>
-  </r>
-  <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="0"/>
-    <m/>
-    <x v="9"/>
-    <x v="65"/>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="64"/>
   </r>
   <r>
     <s v="Pres"/>
     <s v="Presentation"/>
     <x v="1"/>
-    <m/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Private Pages"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="11"/>
     <x v="66"/>
   </r>
   <r>
-    <s v="Func"/>
-    <s v="Private Pages"/>
-    <x v="1"/>
-    <s v="in progress"/>
-    <x v="10"/>
-    <x v="67"/>
-  </r>
-  <r>
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="done"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Product Detail"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="68"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
-    <x v="0"/>
-    <s v="in progress"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="5"/>
     <x v="69"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Product Detail"/>
-    <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="70"/>
   </r>
@@ -1673,7 +1723,7 @@
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="in progress"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="71"/>
   </r>
@@ -1681,15 +1731,15 @@
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="0"/>
-    <s v="done"/>
+    <x v="1"/>
     <x v="5"/>
     <x v="72"/>
   </r>
   <r>
     <s v="Design"/>
-    <s v="Product Detail"/>
-    <x v="0"/>
-    <m/>
+    <s v="ProductCard"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="73"/>
   </r>
@@ -1697,15 +1747,15 @@
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="0"/>
-    <s v="done"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="74"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="ProductCard"/>
-    <x v="0"/>
-    <s v="done"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="75"/>
   </r>
@@ -1713,63 +1763,63 @@
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="5"/>
+    <x v="2"/>
+    <x v="13"/>
     <x v="76"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="ProductCard"/>
-    <x v="1"/>
-    <s v="in progress"/>
-    <x v="12"/>
-    <x v="77"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Search"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="13"/>
-    <x v="78"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="77"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Search"/>
     <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="79"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="78"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Search"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="6"/>
-    <x v="80"/>
+    <x v="79"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="done"/>
-    <x v="9"/>
-    <x v="81"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="80"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Sign Up"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="82"/>
   </r>
   <r>
-    <s v="Design"/>
+    <s v="Func"/>
     <s v="Sign Up"/>
-    <x v="0"/>
-    <s v="done"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="83"/>
   </r>
@@ -1777,552 +1827,544 @@
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <s v="in progress"/>
-    <x v="4"/>
+    <x v="0"/>
+    <x v="10"/>
     <x v="84"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <m/>
-    <x v="9"/>
+    <x v="2"/>
+    <x v="4"/>
     <x v="85"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Wishlist"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Wishlist"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="15"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Wishlist"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <s v="Speed"/>
+    <s v="Wishlist"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Subscribe"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Subscribe"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Subscribe"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="92"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
-    <x v="1"/>
-    <s v="in progress"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="4"/>
-    <x v="86"/>
+    <x v="93"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Wishlist"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="87"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Wishlist"/>
-    <x v="0"/>
-    <m/>
-    <x v="14"/>
-    <x v="88"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Wishlist"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="89"/>
-  </r>
-  <r>
-    <s v="Speed"/>
-    <s v="Wishlist"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="90"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="91"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="92"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <m/>
-    <x v="3"/>
-    <x v="93"/>
+    <s v="Catalog"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="94"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="0"/>
-    <m/>
+    <x v="1"/>
     <x v="4"/>
-    <x v="94"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Cart"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Login"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Routes"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Cart"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Filter"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Header"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Product Card"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="102"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Catalog"/>
-    <x v="0"/>
-    <m/>
-    <x v="1"/>
-    <x v="95"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="103"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Sign Up"/>
-    <x v="0"/>
-    <m/>
-    <x v="4"/>
-    <x v="96"/>
+    <s v="Product Details"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Pages"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="105"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
-    <x v="0"/>
-    <m/>
-    <x v="1"/>
-    <x v="97"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="106"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Login"/>
-    <x v="0"/>
-    <m/>
+    <s v="Personal data"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="107"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Catalog"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <x v="3"/>
+    <x v="1"/>
     <x v="9"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Routes"/>
-    <x v="0"/>
-    <m/>
-    <x v="6"/>
-    <x v="99"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Cart"/>
-    <x v="1"/>
-    <m/>
-    <x v="1"/>
-    <x v="100"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Filter"/>
-    <x v="1"/>
-    <m/>
-    <x v="0"/>
-    <x v="101"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Header"/>
-    <x v="0"/>
-    <m/>
-    <x v="0"/>
-    <x v="102"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Product Card"/>
-    <x v="0"/>
-    <m/>
-    <x v="5"/>
-    <x v="103"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
   <r>
     <m/>
     <m/>
     <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <x v="8"/>
-    <x v="104"/>
+    <x v="1"/>
+    <x v="9"/>
+    <x v="109"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:I100" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:I53" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2334,151 +2376,178 @@
         <item x="3"/>
       </items>
     </pivotField>
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="16">
+      <items count="17">
         <item x="2"/>
         <item x="5"/>
         <item x="1"/>
         <item x="4"/>
         <item x="0"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="12"/>
         <item x="9"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="11"/>
-        <item x="8"/>
         <item x="7"/>
-        <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="15"/>
         <item x="3"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="123">
-        <item x="33"/>
-        <item x="53"/>
-        <item x="79"/>
-        <item x="70"/>
-        <item m="1" x="118"/>
-        <item x="50"/>
-        <item x="46"/>
-        <item x="80"/>
-        <item m="1" x="117"/>
-        <item x="74"/>
-        <item x="78"/>
+      <items count="142">
+        <item x="32"/>
+        <item x="52"/>
+        <item m="1" x="126"/>
+        <item x="69"/>
+        <item m="1" x="132"/>
+        <item x="49"/>
+        <item x="45"/>
+        <item m="1" x="119"/>
+        <item m="1" x="131"/>
+        <item x="73"/>
+        <item x="77"/>
         <item x="1"/>
-        <item x="10"/>
-        <item x="29"/>
-        <item m="1" x="113"/>
-        <item m="1" x="119"/>
-        <item x="55"/>
-        <item x="76"/>
+        <item m="1" x="114"/>
+        <item x="28"/>
+        <item m="1" x="124"/>
+        <item m="1" x="135"/>
+        <item x="54"/>
+        <item x="75"/>
         <item x="22"/>
+        <item x="61"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item m="1" x="111"/>
+        <item m="1" x="127"/>
+        <item x="59"/>
+        <item x="40"/>
+        <item x="57"/>
+        <item m="1" x="133"/>
+        <item x="21"/>
+        <item m="1" x="130"/>
+        <item x="71"/>
+        <item x="60"/>
+        <item x="25"/>
+        <item m="1" x="140"/>
+        <item x="87"/>
+        <item x="7"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="85"/>
+        <item x="84"/>
+        <item x="15"/>
         <item x="62"/>
-        <item x="64"/>
-        <item x="18"/>
-        <item x="23"/>
-        <item m="1" x="114"/>
-        <item x="60"/>
-        <item x="41"/>
-        <item x="58"/>
-        <item x="65"/>
-        <item x="21"/>
-        <item m="1" x="116"/>
-        <item x="72"/>
-        <item x="61"/>
         <item x="26"/>
         <item m="1" x="121"/>
         <item x="88"/>
-        <item x="7"/>
-        <item x="42"/>
-        <item x="40"/>
-        <item x="86"/>
-        <item x="85"/>
-        <item x="15"/>
-        <item x="63"/>
-        <item x="27"/>
-        <item m="1" x="110"/>
-        <item x="89"/>
-        <item x="47"/>
-        <item x="38"/>
-        <item x="31"/>
+        <item m="1" x="129"/>
         <item x="37"/>
-        <item m="1" x="106"/>
-        <item x="84"/>
-        <item m="1" x="115"/>
-        <item x="51"/>
+        <item x="30"/>
+        <item x="36"/>
+        <item m="1" x="113"/>
+        <item x="83"/>
+        <item m="1" x="128"/>
+        <item x="50"/>
         <item x="17"/>
         <item x="13"/>
-        <item x="59"/>
-        <item x="49"/>
+        <item x="58"/>
+        <item x="48"/>
         <item x="16"/>
         <item x="11"/>
+        <item x="81"/>
+        <item x="8"/>
+        <item m="1" x="136"/>
+        <item m="1" x="137"/>
+        <item x="72"/>
+        <item x="42"/>
+        <item x="2"/>
+        <item x="24"/>
+        <item m="1" x="139"/>
+        <item m="1" x="125"/>
+        <item x="53"/>
+        <item x="0"/>
+        <item x="51"/>
+        <item x="65"/>
+        <item x="55"/>
+        <item x="76"/>
+        <item x="68"/>
+        <item x="86"/>
+        <item x="67"/>
+        <item x="12"/>
+        <item m="1" x="120"/>
+        <item m="1" x="118"/>
+        <item m="1" x="123"/>
+        <item m="1" x="110"/>
+        <item m="1" x="122"/>
+        <item m="1" x="117"/>
+        <item x="80"/>
+        <item x="56"/>
+        <item x="29"/>
+        <item x="3"/>
         <item x="82"/>
-        <item x="8"/>
-        <item m="1" x="120"/>
-        <item x="19"/>
-        <item x="73"/>
+        <item x="14"/>
+        <item x="74"/>
         <item x="43"/>
-        <item x="2"/>
-        <item x="25"/>
-        <item x="36"/>
-        <item x="9"/>
-        <item x="54"/>
-        <item x="0"/>
-        <item x="52"/>
-        <item x="66"/>
-        <item x="56"/>
-        <item x="77"/>
-        <item x="69"/>
-        <item x="87"/>
-        <item x="68"/>
-        <item x="12"/>
-        <item m="1" x="109"/>
-        <item m="1" x="108"/>
-        <item m="1" x="112"/>
-        <item m="1" x="105"/>
-        <item m="1" x="111"/>
-        <item m="1" x="107"/>
-        <item x="81"/>
-        <item x="57"/>
-        <item x="30"/>
-        <item x="3"/>
-        <item x="83"/>
-        <item x="14"/>
-        <item x="75"/>
         <item x="44"/>
-        <item x="45"/>
-        <item x="28"/>
-        <item x="35"/>
-        <item x="39"/>
+        <item x="27"/>
         <item x="34"/>
-        <item h="1" x="104"/>
+        <item x="38"/>
+        <item x="33"/>
+        <item h="1" x="109"/>
         <item h="1" x="20"/>
-        <item h="1" x="24"/>
-        <item h="1" x="32"/>
-        <item h="1" x="48"/>
-        <item h="1" x="67"/>
-        <item h="1" x="71"/>
+        <item h="1" m="1" x="115"/>
+        <item h="1" m="1" x="138"/>
+        <item h="1" x="47"/>
+        <item h="1" x="66"/>
+        <item h="1" x="70"/>
+        <item h="1" x="89"/>
         <item h="1" x="90"/>
         <item h="1" x="91"/>
         <item h="1" x="92"/>
-        <item h="1" x="93"/>
+        <item h="1" m="1" x="112"/>
         <item h="1" x="94"/>
-        <item h="1" x="95"/>
+        <item h="1" m="1" x="116"/>
         <item h="1" x="96"/>
         <item h="1" x="97"/>
         <item h="1" x="98"/>
         <item h="1" x="99"/>
         <item h="1" x="100"/>
-        <item h="1" x="101"/>
         <item h="1" x="4"/>
         <item h="1" x="5"/>
         <item h="1" x="6"/>
+        <item h="1" x="101"/>
+        <item h="1" m="1" x="134"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item h="1" x="23"/>
+        <item h="1" x="31"/>
+        <item h="1" x="35"/>
+        <item h="1" x="46"/>
+        <item h="1" x="64"/>
+        <item h="1" x="78"/>
+        <item h="1" x="79"/>
+        <item h="1" x="93"/>
+        <item h="1" x="95"/>
         <item h="1" x="102"/>
         <item h="1" x="103"/>
+        <item h="1" x="104"/>
+        <item h="1" x="105"/>
+        <item h="1" x="106"/>
+        <item h="1" x="107"/>
+        <item h="1" x="108"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2488,7 +2557,7 @@
     <field x="2"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="96">
+  <rowItems count="49">
     <i>
       <x/>
       <x/>
@@ -2509,45 +2578,12 @@
       <x/>
       <x v="3"/>
     </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i r="2">
-      <x v="45"/>
-    </i>
-    <i r="2">
-      <x v="62"/>
-    </i>
-    <i r="2">
-      <x v="68"/>
-    </i>
-    <i r="2">
-      <x v="93"/>
-    </i>
     <i r="1">
       <x v="1"/>
-      <x v="9"/>
-    </i>
-    <i r="2">
-      <x v="30"/>
-    </i>
-    <i r="2">
       <x v="63"/>
     </i>
     <i r="2">
       <x v="75"/>
-    </i>
-    <i r="2">
-      <x v="77"/>
-    </i>
-    <i r="2">
-      <x v="91"/>
-    </i>
-    <i r="2">
-      <x v="92"/>
     </i>
     <i r="1">
       <x v="2"/>
@@ -2561,39 +2597,11 @@
     </i>
     <i>
       <x v="2"/>
-      <x/>
-      <x v="11"/>
-    </i>
-    <i r="2">
-      <x v="40"/>
-    </i>
-    <i r="2">
-      <x v="54"/>
-    </i>
-    <i r="2">
-      <x v="58"/>
-    </i>
-    <i r="2">
-      <x v="71"/>
-    </i>
-    <i r="2">
-      <x v="78"/>
-    </i>
-    <i r="2">
-      <x v="90"/>
-    </i>
-    <i r="1">
       <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i r="2">
       <x v="47"/>
     </i>
     <i r="2">
       <x v="53"/>
-    </i>
-    <i r="2">
-      <x v="56"/>
     </i>
     <i r="2">
       <x v="57"/>
@@ -2609,51 +2617,19 @@
     <i r="2">
       <x v="50"/>
     </i>
-    <i r="2">
-      <x v="59"/>
-    </i>
-    <i r="2">
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="18"/>
-    </i>
-    <i r="2">
-      <x v="89"/>
-    </i>
     <i t="default">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x/>
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x v="67"/>
-    </i>
-    <i r="1">
       <x v="1"/>
       <x v="46"/>
     </i>
     <i r="2">
-      <x v="48"/>
-    </i>
-    <i r="2">
-      <x v="70"/>
-    </i>
-    <i r="2">
       <x v="73"/>
-    </i>
-    <i r="2">
-      <x v="86"/>
     </i>
     <i r="1">
       <x v="2"/>
-      <x/>
-    </i>
-    <i r="2">
       <x v="16"/>
     </i>
     <i r="2">
@@ -2669,51 +2645,6 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="5"/>
-      <x/>
-      <x v="19"/>
-    </i>
-    <i r="2">
-      <x v="20"/>
-    </i>
-    <i r="2">
-      <x v="31"/>
-    </i>
-    <i r="2">
-      <x v="39"/>
-    </i>
-    <i r="2">
-      <x v="55"/>
-    </i>
-    <i r="2">
-      <x v="85"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="26"/>
-    </i>
-    <i r="2">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="69"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x/>
-      <x v="41"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
       <x v="7"/>
       <x/>
       <x v="32"/>
@@ -2727,20 +2658,8 @@
     <i r="2">
       <x v="66"/>
     </i>
-    <i r="2">
-      <x v="94"/>
-    </i>
-    <i r="2">
-      <x v="95"/>
-    </i>
     <i r="1">
       <x v="1"/>
-      <x v="7"/>
-    </i>
-    <i r="2">
-      <x v="22"/>
-    </i>
-    <i r="2">
       <x v="24"/>
     </i>
     <i r="2">
@@ -2798,20 +2717,20 @@
       <x v="11"/>
     </i>
     <i>
-      <x v="12"/>
-      <x/>
-      <x v="10"/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
       <x v="13"/>
       <x v="1"/>
       <x v="34"/>
     </i>
     <i t="default">
       <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x/>
+      <x v="95"/>
+    </i>
+    <i t="default">
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -2820,48 +2739,79 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
   <formats count="48">
-    <format dxfId="51">
+    <format dxfId="53">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="52">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="50">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="49">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="48">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="47">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="42">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -2872,7 +2822,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2880,13 +2830,12 @@
     <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="2">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2900,7 +2849,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -2908,12 +2857,13 @@
     <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="2">
+          <reference field="2" count="3">
             <x v="0"/>
             <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -2921,13 +2871,11 @@
     <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="1">
             <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2941,7 +2889,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -2953,7 +2901,7 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -2961,35 +2909,44 @@
     <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
+          <reference field="2" count="0"/>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="35"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0"/>
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
           <reference field="4" count="1" selected="0">
-            <x v="9"/>
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="6">
+            <x v="65"/>
+            <x v="79"/>
+            <x v="80"/>
+            <x v="82"/>
+            <x v="84"/>
+            <x v="88"/>
           </reference>
         </references>
       </pivotArea>
@@ -2998,54 +2955,19 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1">
-            <x v="35"/>
+          <reference field="5" count="2">
+            <x v="81"/>
+            <x v="83"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="6">
-            <x v="65"/>
-            <x v="79"/>
-            <x v="80"/>
-            <x v="82"/>
-            <x v="84"/>
-            <x v="88"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="81"/>
-            <x v="83"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3069,7 +2991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3093,7 +3015,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3110,7 +3032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3131,7 +3053,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3146,6 +3068,39 @@
             <x v="53"/>
             <x v="56"/>
             <x v="57"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="38"/>
+            <x v="39"/>
+            <x v="50"/>
+            <x v="59"/>
           </reference>
         </references>
       </pivotArea>
@@ -3154,13 +3109,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="4"/>
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="18"/>
+            <x v="89"/>
           </reference>
         </references>
       </pivotArea>
@@ -3172,13 +3128,11 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="38"/>
-            <x v="39"/>
-            <x v="50"/>
-            <x v="59"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="49"/>
+            <x v="67"/>
           </reference>
         </references>
       </pivotArea>
@@ -3190,11 +3144,15 @@
             <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="18"/>
-            <x v="89"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="6">
+            <x v="8"/>
+            <x v="43"/>
+            <x v="46"/>
+            <x v="48"/>
+            <x v="73"/>
+            <x v="86"/>
           </reference>
         </references>
       </pivotArea>
@@ -3203,14 +3161,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="5" count="2">
-            <x v="49"/>
-            <x v="67"/>
+          <reference field="5" count="4">
+            <x v="0"/>
+            <x v="16"/>
+            <x v="64"/>
+            <x v="97"/>
           </reference>
         </references>
       </pivotArea>
@@ -3219,18 +3179,17 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="6">
-            <x v="8"/>
-            <x v="43"/>
-            <x v="46"/>
-            <x v="48"/>
-            <x v="73"/>
-            <x v="86"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="5">
+            <x v="19"/>
+            <x v="20"/>
+            <x v="31"/>
+            <x v="55"/>
+            <x v="85"/>
           </reference>
         </references>
       </pivotArea>
@@ -3239,16 +3198,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="0"/>
-            <x v="16"/>
-            <x v="64"/>
-            <x v="97"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="5"/>
+            <x v="26"/>
+            <x v="27"/>
           </reference>
         </references>
       </pivotArea>
@@ -3257,17 +3215,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="5" count="5">
-            <x v="19"/>
-            <x v="20"/>
-            <x v="31"/>
-            <x v="55"/>
-            <x v="85"/>
+          <reference field="5" count="1">
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
@@ -3276,15 +3230,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="5"/>
-            <x v="26"/>
-            <x v="27"/>
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="33"/>
+            <x v="41"/>
           </reference>
         </references>
       </pivotArea>
@@ -3293,51 +3246,20 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="69"/>
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="52"/>
+            <x v="94"/>
+            <x v="95"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="33"/>
-            <x v="41"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="52"/>
-            <x v="94"/>
-            <x v="95"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3358,18 +3280,53 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="21"/>
+            <x v="76"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="72"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="21"/>
-            <x v="76"/>
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="6">
+            <x v="3"/>
+            <x v="32"/>
+            <x v="42"/>
+            <x v="60"/>
+            <x v="66"/>
+            <x v="68"/>
           </reference>
         </references>
       </pivotArea>
@@ -3378,13 +3335,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="72"/>
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="2"/>
+            <x v="23"/>
+            <x v="70"/>
           </reference>
         </references>
       </pivotArea>
@@ -3393,18 +3352,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="6">
-            <x v="3"/>
-            <x v="32"/>
-            <x v="42"/>
-            <x v="60"/>
-            <x v="66"/>
-            <x v="68"/>
+          <reference field="5" count="3">
+            <x v="25"/>
+            <x v="37"/>
+            <x v="96"/>
           </reference>
         </references>
       </pivotArea>
@@ -3413,55 +3369,21 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="3">
-            <x v="2"/>
-            <x v="23"/>
-            <x v="70"/>
+          <reference field="5" count="1">
+            <x v="98"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="25"/>
-            <x v="37"/>
-            <x v="96"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="98"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="5">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -3778,10 +3700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED80F7-9B31-4864-972B-6B3F20AAD3D8}">
-  <dimension ref="A3:I115"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3794,6 +3716,14 @@
     <col min="8" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="9"/>
     </row>
@@ -3810,7 +3740,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
@@ -3834,7 +3764,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3853,142 +3783,187 @@
         <v>11</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="10" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="10" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="10" t="s">
-        <v>77</v>
-      </c>
+      <c r="A18" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="10" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="A21" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="10" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="C25" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="10" t="s">
-        <v>94</v>
-      </c>
+      <c r="A28" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C29" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C30" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -3996,527 +3971,721 @@
         <v>9</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C35" s="10" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
+      <c r="B38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="A39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="A41" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="C42" s="10" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="C49" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C50" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C51" s="10" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="A52" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="A53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C56" s="10" t="s">
-        <v>129</v>
-      </c>
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>100</v>
-      </c>
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="10" t="s">
-        <v>101</v>
-      </c>
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="10" t="s">
-        <v>99</v>
-      </c>
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C66" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C67" s="10" t="s">
-        <v>102</v>
-      </c>
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>90</v>
-      </c>
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C73" s="10" t="s">
-        <v>29</v>
-      </c>
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C74" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C75" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C76" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C77" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>120</v>
-      </c>
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C79" s="10" t="s">
-        <v>88</v>
-      </c>
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C80" s="10" t="s">
-        <v>78</v>
-      </c>
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C81" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C82" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C83" s="10" t="s">
-        <v>128</v>
-      </c>
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C84" s="10" t="s">
-        <v>71</v>
-      </c>
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B85" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>118</v>
-      </c>
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C90" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>124</v>
-      </c>
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-    </row>
-    <row r="96" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>122</v>
-      </c>
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-    </row>
-    <row r="98" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>87</v>
-      </c>
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" s="9"/>
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101"/>
@@ -4691,11 +4860,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4730,7 +4899,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4738,17 +4907,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G2" s="14">
         <v>43859</v>
@@ -4756,15 +4927,17 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>49</v>
       </c>
@@ -4777,107 +4950,107 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -4885,14 +5058,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -4910,10 +5083,10 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>60</v>
@@ -4930,16 +5103,16 @@
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="14">
-        <v>43858</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -4958,11 +5131,9 @@
         <v>63</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43858</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -4975,7 +5146,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>49</v>
@@ -4996,13 +5167,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G14" s="14">
         <v>43857</v>
@@ -5019,13 +5190,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -5040,13 +5211,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G16" s="14">
         <v>43857</v>
@@ -5063,13 +5234,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G17" s="14">
         <v>43857</v>
@@ -5090,11 +5261,9 @@
         <v>49</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="14">
-        <v>43859</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -5111,13 +5280,11 @@
         <v>49</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -5129,7 +5296,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -5138,7 +5305,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
@@ -5155,11 +5322,9 @@
         <v>63</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="14">
-        <v>43860</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -5171,12 +5336,14 @@
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="G22" s="14">
         <v>43863</v>
@@ -5197,7 +5364,7 @@
         <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -5211,18 +5378,20 @@
       <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E24" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -5239,13 +5408,11 @@
         <v>63</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G25" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -5259,16 +5426,14 @@
         <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
@@ -5282,16 +5447,14 @@
         <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
@@ -5302,17 +5465,15 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="14">
-        <v>43859</v>
-      </c>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -5325,10 +5486,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>30</v>
@@ -5337,7 +5498,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -5349,16 +5510,14 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -5366,22 +5525,20 @@
         <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
@@ -5389,60 +5546,62 @@
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E32" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G32" s="14">
-        <v>43865</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="G33" s="14">
-        <v>43860</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E34" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="G34" s="14"/>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
@@ -5450,12 +5609,14 @@
       <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5467,20 +5628,18 @@
         <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>2</v>
       </c>
@@ -5492,39 +5651,37 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="14">
-        <v>43860</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G37" s="14"/>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E38" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="14">
-        <v>43859</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G38" s="14"/>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -5532,18 +5689,20 @@
       <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E39" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="G39" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
@@ -5551,18 +5710,18 @@
         <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -5573,9 +5732,11 @@
         <v>10</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F41" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -5592,49 +5753,47 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G44" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
@@ -5644,16 +5803,14 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -5665,16 +5822,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" s="3"/>
     </row>
@@ -5686,14 +5843,16 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E47" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="G47" s="3"/>
     </row>
@@ -5705,24 +5864,20 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>44</v>
@@ -5737,36 +5892,34 @@
         <v>63</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="14">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="G50" s="14"/>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -5775,40 +5928,40 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="14">
-        <v>43860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E52" s="4" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G52" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>2</v>
       </c>
@@ -5818,35 +5971,33 @@
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="G53" s="14"/>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -5858,16 +6009,16 @@
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G55" s="3"/>
     </row>
@@ -5881,12 +6032,14 @@
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G56" s="3"/>
     </row>
@@ -5898,18 +6051,16 @@
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="14">
-        <v>43863</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -5923,73 +6074,75 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="G59" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E61" s="4" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="G61" s="3"/>
     </row>
@@ -5998,207 +6151,207 @@
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G62" s="14">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G63" s="14">
         <v>43858</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E64" s="4" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="G64" s="14">
+        <v>43858</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G65" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G66" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E67" s="4" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="G67" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="G68" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="14"/>
+        <v>147</v>
+      </c>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G70" s="14">
-        <v>43865</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G70" s="14"/>
     </row>
     <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>15</v>
@@ -6207,10 +6360,10 @@
         <v>63</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G71" s="14">
-        <v>43858</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -6218,10 +6371,10 @@
         <v>3</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>15</v>
@@ -6230,74 +6383,74 @@
         <v>63</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G72" s="14">
-        <v>43865</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G73" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="G73" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E74" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G74" s="14">
-        <v>43865</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G75" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="G75" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
@@ -6310,13 +6463,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -6328,16 +6481,16 @@
         <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>63</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -6352,24 +6505,22 @@
         <v>11</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G78" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>11</v>
@@ -6378,18 +6529,16 @@
         <v>15</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G79" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>20</v>
@@ -6397,12 +6546,14 @@
       <c r="C80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E80" s="4" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G80" s="14">
         <v>43863</v>
@@ -6416,43 +6567,41 @@
         <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G81" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>154</v>
-      </c>
+      <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G82" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="G82" s="14"/>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>56</v>
@@ -6461,59 +6610,59 @@
         <v>11</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G84" s="3"/>
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -6523,16 +6672,16 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E86" s="4" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G86" s="14">
-        <v>43858</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
@@ -6545,17 +6694,16 @@
         <v>11</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="13" t="s">
-        <v>165</v>
+        <v>118</v>
+      </c>
+      <c r="G87" s="14">
+        <v>43858</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6563,23 +6711,26 @@
         <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E88" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G88" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -6591,16 +6742,16 @@
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="G89" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>2</v>
       </c>
@@ -6612,18 +6763,16 @@
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>4</v>
@@ -6631,242 +6780,246 @@
       <c r="C91" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E91" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G91" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G92" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>161</v>
+        <v>132</v>
+      </c>
+      <c r="G93" s="14">
+        <v>43866</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="F95" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G96" s="14">
-        <v>43861</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G97" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="G97" s="14"/>
     </row>
     <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G98" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="G98" s="3"/>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E99" s="4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="G99" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E100" s="4" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="G100" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G101" s="14">
-        <v>43858</v>
+        <v>43865</v>
       </c>
     </row>
     <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E102" s="4" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G102" s="14">
-        <v>43863</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6874,155 +7027,195 @@
         <v>3</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G103" s="14">
-        <v>43865</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G103" s="14"/>
     </row>
     <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G104" s="3"/>
-    </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="G104" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G105" s="14"/>
-      <c r="H105" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G106" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="G106" s="14"/>
       <c r="H106" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="E107" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="4"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="3"/>
+      <c r="E109" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
+      <c r="H109" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="3"/>
+      <c r="E110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="G110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
+      <c r="H110" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="3"/>
+      <c r="E111" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="G111" s="3"/>
+      <c r="H111" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6"/>
@@ -7030,7 +7223,9 @@
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="3"/>
+      <c r="F112" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
@@ -7393,8 +7588,17 @@
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G108" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+  <autoFilter ref="A1:G111" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
@@ -7402,16 +7606,26 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Vanya"/>
-        <filter val="Vanya / Help"/>
+        <filter val="Anya / Vlad"/>
+        <filter val="Vlad"/>
+        <filter val="Vlad / Anya"/>
+        <filter val="Vlad / Maks"/>
         <filter val="Vlad / Vanya"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F90">
-    <sortCondition ref="B2:B90"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
+    <sortCondition ref="B2:B91"/>
   </sortState>
-  <conditionalFormatting sqref="C100:C152 C2:C98">
+  <conditionalFormatting sqref="C101:C153 C2:C30 C32:C99">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
@@ -7419,7 +7633,7 @@
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8880F0C3-269F-4BE8-BCA4-D07E1B1BDC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF84B4D-98CD-419A-9945-880ED8923324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="208">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Slider: Убрать стрелки на слайдере, позиционировать внутренний блок</t>
   </si>
   <si>
-    <t>Починить переход с картинки ножей на слайдере на продукт</t>
-  </si>
-  <si>
     <t>Julia</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Убрать страны</t>
   </si>
   <si>
-    <t>Починить ДР или убрать</t>
-  </si>
-  <si>
     <t>при переходе на новый роут - подниматься вверх</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Apply поменять на Filter</t>
   </si>
   <si>
-    <t>Убрать в ценах значение после запятой, длинные названия укоротить</t>
-  </si>
-  <si>
     <t>Product Detail</t>
   </si>
   <si>
@@ -291,9 +282,6 @@
     <t>добавить сортировку товаров</t>
   </si>
   <si>
-    <t>Обрабатывать клик "добавление в избранное" для незалогиненого пользователя - модалка логина</t>
-  </si>
-  <si>
     <t>Vlad</t>
   </si>
   <si>
@@ -405,9 +393,6 @@
     <t>чтоб при переходе на страницу назад/вперед сохранялись параметры фильтра</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>Grand Total</t>
   </si>
   <si>
@@ -432,9 +417,6 @@
     <t>Vlad / Anya Total</t>
   </si>
   <si>
-    <t>(blank) Total</t>
-  </si>
-  <si>
     <t>По нажатию на сердечко - реакция слишком медленная</t>
   </si>
   <si>
@@ -501,9 +483,6 @@
     <t>приукрасить вывод инфы в табах (ховер по таблице)</t>
   </si>
   <si>
-    <t>Vlad / Vanya</t>
-  </si>
-  <si>
     <t>Сверстать подписку</t>
   </si>
   <si>
@@ -513,12 +492,6 @@
     <t>Anya / Vlad Total</t>
   </si>
   <si>
-    <t>Anya / Help Total</t>
-  </si>
-  <si>
-    <t>Vlad / Vanya Total</t>
-  </si>
-  <si>
     <t>оставлять ховер при переходе по меню</t>
   </si>
   <si>
@@ -564,24 +537,15 @@
     <t>стилизовать sort by</t>
   </si>
   <si>
-    <t>Ошибка при переходе в каталоге</t>
-  </si>
-  <si>
     <t>сделать единый формат qty input для всех мест (модалка, корзина, страница продукта). Минимум в модалку</t>
   </si>
   <si>
-    <t>добавить Container на компонентах везде (favorites …)</t>
-  </si>
-  <si>
     <t>причесать для моб версии (добавить опцию возврата, поиграться с размерами)</t>
   </si>
   <si>
     <t>Добавить карусель с топ продуктами на главную и product page, исправить баг не полного показа артикула вначале</t>
   </si>
   <si>
-    <t>Показывать поиск на планшете/моб - добавить контейнер</t>
-  </si>
-  <si>
     <t>Затемнять кнопку покупки, блокировать, менять корзину на надпись, которых нет в наличии</t>
   </si>
   <si>
@@ -597,9 +561,6 @@
     <t>Добавить хлебные крошки на статичных страницах</t>
   </si>
   <si>
-    <t>Invalid year &gt;2021</t>
-  </si>
-  <si>
     <t>Сообщение если уже зарегистрирован? (обрабатывать ошибки с бека)</t>
   </si>
   <si>
@@ -616,6 +577,93 @@
   </si>
   <si>
     <t>При открытии addToCart видно, как просчитывается Total</t>
+  </si>
+  <si>
+    <t>Переход на страницу с артикулом иногда крашиться</t>
+  </si>
+  <si>
+    <t>сделать для Product card max-width</t>
+  </si>
+  <si>
+    <t>Product card</t>
+  </si>
+  <si>
+    <t>выровнять qty input</t>
+  </si>
+  <si>
+    <t>добавить Container на компонентах везде (favorites, checkout)</t>
+  </si>
+  <si>
+    <t>чтоб нельзя было ввести цены справа меньше чем слева</t>
+  </si>
+  <si>
+    <t>Починить загрузку страницы с одним продуктом</t>
+  </si>
+  <si>
+    <t>Ошибка при переходе в каталоге(slider) и breadcrumbs(search) в поиске</t>
+  </si>
+  <si>
+    <t>Починить ДР или убрать - пока закоментить</t>
+  </si>
+  <si>
+    <t>по клику и успешной регстрации - сразу логинить</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Не воспринимаются значения по дефолту безк фокуса, не тянется пол</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Обрабатывать клик "добавление в избранное" для незалогиненого пользователя</t>
+  </si>
+  <si>
+    <t>Поменять в sort reducer</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>change buttons etc. Нет кнопки для незалогиненного</t>
+  </si>
+  <si>
+    <t>Footer прилепить абсолютом к низу страницы, у body сделать margin</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>чтоб по клику открывался только один заказ, названия полей сделать жирными. Изменения данных не сохраняются</t>
+  </si>
+  <si>
+    <t>по логауту - редирект на home</t>
+  </si>
+  <si>
+    <t>My account</t>
+  </si>
+  <si>
+    <t>подвинуть квадратик out of stock на product details</t>
+  </si>
+  <si>
+    <t>Product details</t>
+  </si>
+  <si>
+    <t>блокировать кнопку добавления в корзину если товара нет</t>
+  </si>
+  <si>
+    <t>Add to Cart</t>
+  </si>
+  <si>
+    <t>Vanya Total</t>
   </si>
 </sst>
 </file>
@@ -744,7 +792,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -920,15 +982,6 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
@@ -949,9 +1002,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43864.564638194446" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="151" xr:uid="{AEFF22E4-CD12-4DCC-A1C6-3B92D5811322}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43865.709718749997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="151" xr:uid="{7E8AF15F-9420-4EE8-B76C-CB7DB2EC26A3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F153" sheet="General"/>
+    <worksheetSource ref="A1:F998" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -992,11 +1045,11 @@
         <s v="Vlad / Anya"/>
         <s v="Anya / Help"/>
         <s v="Anya / Maks"/>
-        <s v="Vlad / Vanya"/>
+        <s v="Vlad / Vanya" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems containsBlank="1" count="141">
+      <sharedItems containsBlank="1" count="125">
         <s v="сделать меньше по ширине, добавить Item #. View basket поменять на View Cart, убрать &quot;;&quot; после слова DHL "/>
         <s v="Выложить на HEROKU"/>
         <s v="Рефакторинг кода (улучшить)"/>
@@ -1007,7 +1060,7 @@
         <s v="Обработка ошибок (.error, try catch)"/>
         <s v="при переходе на новый роут - подниматься вверх"/>
         <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта). Минимум в модалку"/>
-        <s v="добавить Container на компонентах везде (favorites …)"/>
+        <s v="добавить Container на компонентах везде (favorites, checkout)"/>
         <s v="При нажатии на продукт в корзине передавать в роут itemNo (не itemId)"/>
         <s v="считывать значение q-ty перед добавлением в корзину (на product Detail и в модалке)"/>
         <s v="при клике на корзину - сразу переводить в корзину"/>
@@ -1026,7 +1079,8 @@
         <s v="Подтянуть данные в форму"/>
         <s v="Функционал чекаута"/>
         <s v="Добавить в базу данных sizes для всех артикулов или проверять перед отрисовкой"/>
-        <s v="Убрать в ценах значение после запятой, длинные названия укоротить"/>
+        <s v="длинные названия укоротить"/>
+        <s v="Убрать в ценах значение после запятой"/>
         <s v="Поменять описание категорий на главной странице"/>
         <s v="Чтоб рендж реагировал на ввод цены с первого раза"/>
         <s v="Apply поменять на Filter"/>
@@ -1043,11 +1097,10 @@
         <s v="Уменьшить высоту Header"/>
         <s v="Фиксировать хедер вверзу страницы при прокрутке"/>
         <s v="В хедер меню поменять ховер на полоски по бокам"/>
-        <s v="Показывать поиск на планшете/моб - добавить контейнер"/>
         <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны) - CART"/>
         <s v="при нажатии на кнопки learn more ничего не происходит"/>
         <s v="Slider: Убрать стрелки на слайдере, позиционировать внутренний блок"/>
-        <s v="Починить переход с картинки ножей на слайдере на продукт"/>
+        <s v="Починить загрузку страницы с одним продуктом"/>
         <s v="Сделать переход по кнопке learn more на категории"/>
         <s v="Category list добавить падинги или шахматка (для десктопа)"/>
         <s v="Сделать кнопку ScrollToTop более видимой на футере"/>
@@ -1075,22 +1128,20 @@
         <s v="добавить номер артикула"/>
         <s v="сделать цены более секси:) особенно перечеркнутую"/>
         <s v="Выезд поля инпута по нажатию, свертка по дефокусу или переходу на другую страницу (ИЛИ СДЕЛАТЬ ПОСТОЯННО ВИДНЫМ. Аня, напиши мне по этому поводу, поделюсь мыслями)"/>
-        <s v="Ошибка при переходе в каталоге"/>
+        <s v="Ошибка при переходе в каталоге(slider) и breadcrumbs(search) в поиске"/>
         <s v="В хлебных крошках отобразить Search после иконки дома (исправить ошибку)"/>
         <s v="Убирать модалку логина при переходе на регистрацию"/>
         <s v="При первом клике и вводе текста происходит расфокус"/>
         <s v="Убрать страны"/>
-        <s v="Починить ДР или убрать"/>
+        <s v="Починить ДР или убрать - пока закоментить"/>
         <s v="по нажатию на sign in  на странице sign Up - открывать модалку логина"/>
         <s v="по клику и успешной регстрации - переводить на home page"/>
         <s v="Сообщение что  в Favorites ничего нет"/>
-        <s v="Обрабатывать клик &quot;добавление в избранное&quot; для незалогиненого пользователя - модалка логина"/>
         <s v="показывать кол-ва на Favorites icon"/>
         <s v="По нажатию на сердечко - реакция слишком медленная"/>
         <s v="Письмо с подтверждением заказа"/>
         <s v="Подписка"/>
         <s v="Сверстать подписку"/>
-        <s v="Invalid year &gt;2021"/>
         <s v="Инфинити скрол"/>
         <s v="Сообщение если уже зарегистрирован? (обрабатывать ошибки с бека)"/>
         <s v="Информация про корзину пользователя грузиться с опозданием"/>
@@ -1106,38 +1157,24 @@
         <s v="Последний артикул не удаляется из корзины (нужно удалять всю корзину)"/>
         <s v="Сохранение измененных personal data"/>
         <s v="стилизовать sort by"/>
+        <s v="При открытии addToCart видно, как просчитывается Total"/>
+        <s v="Переход на страницу с артикулом иногда крашиться"/>
+        <s v="сделать для Product card max-width"/>
+        <s v="выровнять qty input"/>
+        <s v="чтоб нельзя было ввести цены справа меньше чем слева"/>
+        <s v="по клику и успешной регстрации - сразу логинить"/>
+        <s v="Не воспринимаются значения по дефолту безк фокуса, не тянется пол"/>
+        <s v="Обрабатывать клик &quot;добавление в избранное&quot; для незалогиненого пользователя"/>
+        <s v="Поменять в sort reducer"/>
+        <s v="change buttons etc. Нет кнопки для незалогиненного"/>
+        <s v="Footer прилепить абсолютом к низу страницы, у body сделать margin"/>
+        <s v="чтоб по клику открывался только один заказ, названия полей сделать жирными. Изменения данных не сохраняются"/>
+        <s v="по логауту - редирект на home"/>
+        <s v="подвинуть квадратик out of stock на product details"/>
+        <s v="блокировать кнопку добавления в корзину если товара нет"/>
         <m/>
-        <s v="Тестирование функционала на десктопе" u="1"/>
-        <s v="долго загружаются иконки категорий в каталоге" u="1"/>
-        <s v="Invalid year &gt;2000 почему-то, нижний чекбокс жмется со второго раза" u="1"/>
-        <s v="Починить выбор цены" u="1"/>
-        <s v="добавить Container на компонентах везде" u="1"/>
-        <s v="Добавить карусель с топ продуктами (отладить переход по продуктам, добавить в базу массивы артикулов для 13 категорий и homePage), исправить баг не полного показа артикула вначале" u="1"/>
-        <s v="Сообщение если уже зарегистрирован?" u="1"/>
-        <s v="Тестирование функционала на планшете" u="1"/>
-        <s v="Тестирование адаптивности на мобилке" u="1"/>
-        <s v="В хлебных крошках отобразить Search после иконки дома" u="1"/>
-        <s v="Тестирование адаптивности на десктопе" u="1"/>
-        <s v="Показывать значение запроса вверху страницы с результатами (и возможно сколько товаров найдено)" u="1"/>
-        <s v="Тестирование функционала на мобилке" u="1"/>
-        <s v="Тестирование адаптивности на планшете" u="1"/>
-        <s v="Добавить карусель с топ продуктами" u="1"/>
-        <s v="сделать единый формат qty input для всех мест (модалка, корзина, страница продукта)" u="1"/>
-        <s v="Cохранять значение запроса в поле поиска при переходе на страницу с результатами" u="1"/>
-        <s v="Если отжимается какой-то фильтр - обновлять товары?" u="1"/>
-        <s v="Починить клики на иконках в header (чтоб иконка и подпись были кликабельны)" u="1"/>
-        <s v="Показывать поиск на планшете/моб" u="1"/>
-        <s v="на моб версии сделать ссылки главных категорий кликабельными" u="1"/>
-        <s v="Выбор цены сделать более симпатичным (возможно не скрывать, добавить инпуты)" u="1"/>
-        <s v="Proceed to Checkout -меняем на CHECKOUT" u="1"/>
-        <s v="изменение пароля" u="1"/>
-        <s v="Затемнять карточки товаров, которых нет в наличии" u="1"/>
-        <s v="Добавить контейнер и адаптив" u="1"/>
-        <s v="приукрасить вывод инфы в табах" u="1"/>
-        <s v="причесать для моб версии" u="1"/>
-        <s v="Починить выбор цены, добавить инпут вручную" u="1"/>
-        <s v="Сворачивать фильтр при переходе в другие категории" u="1"/>
-        <s v="Незалогиненый пользователь заходит на приватную страницу - обработка" u="1"/>
+        <s v="Invalid year &gt;2021" u="1"/>
+        <s v="Обрабатывать клик &quot;добавление в избранное&quot; для незалогиненого пользователя - модалка логина" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1227,7 +1264,7 @@
     <s v="Design"/>
     <s v="All pages"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="9"/>
   </r>
@@ -1236,7 +1273,7 @@
     <s v="All pages"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="5"/>
+    <x v="6"/>
     <x v="10"/>
   </r>
   <r>
@@ -1290,7 +1327,7 @@
   <r>
     <s v="Func"/>
     <s v="Cart"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="1"/>
     <x v="17"/>
@@ -1347,7 +1384,7 @@
     <s v="Design"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="24"/>
   </r>
@@ -1355,7 +1392,7 @@
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="25"/>
   </r>
@@ -1363,7 +1400,7 @@
     <s v="Func"/>
     <s v="Checkout"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="26"/>
   </r>
@@ -1386,26 +1423,34 @@
   <r>
     <s v="Func"/>
     <s v="DB"/>
-    <x v="0"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="6"/>
     <x v="29"/>
   </r>
   <r>
+    <s v="Func"/>
+    <s v="DB"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="30"/>
+  </r>
+  <r>
     <s v="Design"/>
     <s v="DB"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="30"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="31"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="31"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="32"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1413,7 +1458,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="32"/>
+    <x v="33"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1421,23 +1466,23 @@
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="33"/>
+    <x v="34"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="2"/>
     <x v="8"/>
-    <x v="34"/>
+    <x v="35"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Filter"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="35"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="36"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1445,7 +1490,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="36"/>
+    <x v="37"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1453,7 +1498,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="37"/>
+    <x v="38"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1461,7 +1506,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="38"/>
+    <x v="39"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1469,7 +1514,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="39"/>
+    <x v="40"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1477,7 +1522,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="40"/>
+    <x v="41"/>
   </r>
   <r>
     <s v="Deploy"/>
@@ -1485,7 +1530,7 @@
     <x v="0"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="41"/>
+    <x v="42"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1493,7 +1538,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="42"/>
+    <x v="43"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1501,7 +1546,7 @@
     <x v="0"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="43"/>
+    <x v="44"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1509,7 +1554,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="5"/>
-    <x v="44"/>
+    <x v="45"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1517,14 +1562,6 @@
     <x v="2"/>
     <x v="1"/>
     <x v="5"/>
-    <x v="45"/>
-  </r>
-  <r>
-    <s v="Design"/>
-    <s v="Header"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
     <x v="46"/>
   </r>
   <r>
@@ -1667,7 +1704,7 @@
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="0"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="10"/>
     <x v="64"/>
   </r>
@@ -1707,7 +1744,7 @@
     <s v="Design"/>
     <s v="Product Detail"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="69"/>
   </r>
@@ -1763,7 +1800,7 @@
     <s v="Design"/>
     <s v="ProductCard"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="13"/>
     <x v="76"/>
   </r>
@@ -1780,7 +1817,7 @@
     <s v="Search"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="0"/>
+    <x v="12"/>
     <x v="78"/>
   </r>
   <r>
@@ -1835,7 +1872,7 @@
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="85"/>
   </r>
@@ -1843,7 +1880,7 @@
     <s v="Func"/>
     <s v="Wishlist"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="6"/>
     <x v="86"/>
   </r>
@@ -1851,12 +1888,12 @@
     <s v="Func"/>
     <s v="Wishlist"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="15"/>
+    <x v="0"/>
+    <x v="6"/>
     <x v="87"/>
   </r>
   <r>
-    <s v="Func"/>
+    <s v="Speed"/>
     <s v="Wishlist"/>
     <x v="0"/>
     <x v="1"/>
@@ -1864,8 +1901,8 @@
     <x v="88"/>
   </r>
   <r>
-    <s v="Speed"/>
-    <s v="Wishlist"/>
+    <s v="Func"/>
+    <s v="Subscribe"/>
     <x v="0"/>
     <x v="1"/>
     <x v="6"/>
@@ -1876,11 +1913,11 @@
     <s v="Subscribe"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="3"/>
     <x v="90"/>
   </r>
   <r>
-    <s v="Func"/>
+    <s v="Design"/>
     <s v="Subscribe"/>
     <x v="0"/>
     <x v="1"/>
@@ -1888,76 +1925,60 @@
     <x v="91"/>
   </r>
   <r>
-    <s v="Design"/>
-    <s v="Subscribe"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
+    <s v="Func"/>
+    <s v="Catalog"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
     <x v="92"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Sign Up"/>
     <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="93"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Catalog"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="Cart"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="94"/>
   </r>
   <r>
     <s v="Func"/>
-    <s v="Sign Up"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
+    <s v="Login"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="10"/>
     <x v="95"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Routes"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="96"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Cart"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="96"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Login"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="97"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Routes"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="98"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Cart"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="99"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Filter"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="100"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="98"/>
   </r>
   <r>
     <s v="Design"/>
@@ -1965,31 +1986,31 @@
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="101"/>
+    <x v="99"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Product Card"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Catalog"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Product Details"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <x v="102"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Catalog"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="103"/>
-  </r>
-  <r>
-    <s v="Func"/>
-    <s v="Product Details"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="104"/>
   </r>
   <r>
     <s v="Func"/>
@@ -1997,7 +2018,7 @@
     <x v="2"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="105"/>
+    <x v="103"/>
   </r>
   <r>
     <s v="Func"/>
@@ -2005,23 +2026,23 @@
     <x v="1"/>
     <x v="1"/>
     <x v="1"/>
-    <x v="106"/>
+    <x v="104"/>
   </r>
   <r>
     <s v="Func"/>
     <s v="Personal data"/>
     <x v="1"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="10"/>
-    <x v="107"/>
+    <x v="105"/>
   </r>
   <r>
     <s v="Design"/>
     <s v="Catalog"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="108"/>
+    <x v="106"/>
   </r>
   <r>
     <m/>
@@ -2029,7 +2050,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="107"/>
   </r>
   <r>
     <m/>
@@ -2037,7 +2058,111 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
+    <x v="108"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Product card"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
     <x v="109"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Cart"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="110"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Filter"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="111"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Registration"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="112"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Checkout"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="113"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Favorites"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="114"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Sort"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="115"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Comments"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="116"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Footer"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="117"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Orders"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="118"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="My account"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="10"/>
+    <x v="119"/>
+  </r>
+  <r>
+    <s v="Design"/>
+    <s v="Product details"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="120"/>
+  </r>
+  <r>
+    <s v="Func"/>
+    <s v="Add to Cart"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="121"/>
   </r>
   <r>
     <m/>
@@ -2045,7 +2170,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2053,7 +2178,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2061,7 +2186,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2069,7 +2194,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2077,7 +2202,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2085,7 +2210,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2093,7 +2218,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2101,7 +2226,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2109,7 +2234,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2117,7 +2242,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2125,7 +2250,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2133,7 +2258,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2141,7 +2266,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2149,7 +2274,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2157,7 +2282,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2165,7 +2290,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2173,7 +2298,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2181,7 +2306,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2189,7 +2314,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2197,7 +2322,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2205,7 +2330,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2213,7 +2338,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2221,7 +2346,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2229,7 +2354,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2237,7 +2362,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2245,7 +2370,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2253,7 +2378,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2261,7 +2386,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
   <r>
     <m/>
@@ -2269,111 +2394,23 @@
     <x v="3"/>
     <x v="1"/>
     <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="109"/>
+    <x v="122"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17A16E9A-DBE4-4E4C-8DED-4B320F084B90}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:I53" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="4">
         <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -2399,67 +2436,49 @@
         <item x="7"/>
         <item x="13"/>
         <item x="14"/>
-        <item x="15"/>
+        <item m="1" x="15"/>
         <item x="3"/>
         <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="142">
-        <item x="32"/>
+      <items count="126">
+        <item x="33"/>
         <item x="52"/>
-        <item m="1" x="126"/>
         <item x="69"/>
-        <item m="1" x="132"/>
         <item x="49"/>
-        <item x="45"/>
-        <item m="1" x="119"/>
-        <item m="1" x="131"/>
+        <item x="46"/>
         <item x="73"/>
         <item x="77"/>
         <item x="1"/>
-        <item m="1" x="114"/>
         <item x="28"/>
-        <item m="1" x="124"/>
-        <item m="1" x="135"/>
         <item x="54"/>
         <item x="75"/>
         <item x="22"/>
         <item x="61"/>
         <item x="63"/>
         <item x="18"/>
-        <item m="1" x="111"/>
-        <item m="1" x="127"/>
         <item x="59"/>
-        <item x="40"/>
+        <item x="41"/>
         <item x="57"/>
-        <item m="1" x="133"/>
         <item x="21"/>
-        <item m="1" x="130"/>
         <item x="71"/>
         <item x="60"/>
         <item x="25"/>
-        <item m="1" x="140"/>
-        <item x="87"/>
+        <item m="1" x="124"/>
         <item x="7"/>
-        <item x="41"/>
-        <item x="39"/>
+        <item x="42"/>
+        <item x="40"/>
         <item x="85"/>
         <item x="84"/>
         <item x="15"/>
         <item x="62"/>
         <item x="26"/>
-        <item m="1" x="121"/>
-        <item x="88"/>
-        <item m="1" x="129"/>
+        <item x="87"/>
+        <item x="38"/>
+        <item x="31"/>
         <item x="37"/>
-        <item x="30"/>
-        <item x="36"/>
-        <item m="1" x="113"/>
-        <item x="83"/>
-        <item m="1" x="128"/>
-        <item x="50"/>
         <item x="17"/>
         <item x="13"/>
         <item x="58"/>
@@ -2468,14 +2487,10 @@
         <item x="11"/>
         <item x="81"/>
         <item x="8"/>
-        <item m="1" x="136"/>
-        <item m="1" x="137"/>
         <item x="72"/>
-        <item x="42"/>
+        <item x="43"/>
         <item x="2"/>
         <item x="24"/>
-        <item m="1" x="139"/>
-        <item m="1" x="125"/>
         <item x="53"/>
         <item x="0"/>
         <item x="51"/>
@@ -2486,68 +2501,74 @@
         <item x="86"/>
         <item x="67"/>
         <item x="12"/>
-        <item m="1" x="120"/>
-        <item m="1" x="118"/>
-        <item m="1" x="123"/>
-        <item m="1" x="110"/>
-        <item m="1" x="122"/>
-        <item m="1" x="117"/>
         <item x="80"/>
         <item x="56"/>
-        <item x="29"/>
         <item x="3"/>
         <item x="82"/>
         <item x="14"/>
         <item x="74"/>
-        <item x="43"/>
         <item x="44"/>
+        <item x="45"/>
         <item x="27"/>
+        <item x="35"/>
+        <item x="39"/>
         <item x="34"/>
-        <item x="38"/>
-        <item x="33"/>
-        <item h="1" x="109"/>
-        <item h="1" x="20"/>
-        <item h="1" m="1" x="115"/>
-        <item h="1" m="1" x="138"/>
-        <item h="1" x="47"/>
-        <item h="1" x="66"/>
-        <item h="1" x="70"/>
-        <item h="1" x="89"/>
-        <item h="1" x="90"/>
-        <item h="1" x="91"/>
-        <item h="1" x="92"/>
-        <item h="1" m="1" x="112"/>
-        <item h="1" x="94"/>
-        <item h="1" m="1" x="116"/>
-        <item h="1" x="96"/>
-        <item h="1" x="97"/>
-        <item h="1" x="98"/>
-        <item h="1" x="99"/>
-        <item h="1" x="100"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="101"/>
-        <item h="1" m="1" x="134"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="19"/>
-        <item h="1" x="23"/>
-        <item h="1" x="31"/>
-        <item h="1" x="35"/>
-        <item h="1" x="46"/>
-        <item h="1" x="64"/>
-        <item h="1" x="78"/>
-        <item h="1" x="79"/>
-        <item h="1" x="93"/>
-        <item h="1" x="95"/>
-        <item h="1" x="102"/>
-        <item h="1" x="103"/>
-        <item h="1" x="104"/>
-        <item h="1" x="105"/>
-        <item h="1" x="106"/>
-        <item h="1" x="107"/>
-        <item h="1" x="108"/>
+        <item x="122"/>
+        <item x="20"/>
+        <item x="47"/>
+        <item x="66"/>
+        <item x="70"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="99"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="32"/>
+        <item x="36"/>
+        <item x="64"/>
+        <item x="79"/>
+        <item m="1" x="123"/>
+        <item x="93"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="10"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="50"/>
+        <item x="78"/>
+        <item x="83"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2557,18 +2578,11 @@
     <field x="2"/>
     <field x="5"/>
   </rowFields>
-  <rowItems count="49">
+  <rowItems count="34">
     <i>
       <x/>
       <x/>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="65"/>
-    </i>
-    <i r="2">
-      <x v="88"/>
+      <x v="23"/>
     </i>
     <i t="default">
       <x/>
@@ -2576,35 +2590,33 @@
     <i>
       <x v="1"/>
       <x/>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="63"/>
+      <x v="71"/>
     </i>
     <i r="2">
-      <x v="75"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="6"/>
+      <x v="89"/>
     </i>
     <i r="2">
-      <x v="28"/>
+      <x v="90"/>
+    </i>
+    <i r="2">
+      <x v="97"/>
+    </i>
+    <i r="2">
+      <x v="124"/>
     </i>
     <i t="default">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
-      <x v="1"/>
-      <x v="47"/>
+      <x/>
+      <x v="33"/>
     </i>
     <i r="2">
-      <x v="53"/>
+      <x v="35"/>
     </i>
     <i r="2">
-      <x v="57"/>
+      <x v="101"/>
     </i>
     <i t="default">
       <x v="2"/>
@@ -2612,71 +2624,49 @@
     <i>
       <x v="3"/>
       <x/>
-      <x v="38"/>
+      <x v="109"/>
     </i>
     <i r="2">
-      <x v="50"/>
+      <x v="118"/>
+    </i>
+    <i r="2">
+      <x v="119"/>
     </i>
     <i t="default">
       <x v="3"/>
     </i>
     <i>
       <x v="4"/>
-      <x v="1"/>
-      <x v="46"/>
-    </i>
-    <i r="2">
-      <x v="73"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="16"/>
-    </i>
-    <i r="2">
-      <x v="64"/>
-    </i>
-    <i r="2">
-      <x v="96"/>
-    </i>
-    <i r="2">
-      <x v="97"/>
+      <x/>
+      <x v="120"/>
     </i>
     <i t="default">
       <x v="4"/>
     </i>
     <i>
+      <x v="5"/>
+      <x/>
+      <x v="121"/>
+    </i>
+    <i r="2">
+      <x v="122"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i>
       <x v="7"/>
       <x/>
-      <x v="32"/>
+      <x v="98"/>
     </i>
     <i r="2">
-      <x v="42"/>
+      <x v="104"/>
     </i>
     <i r="2">
-      <x v="52"/>
+      <x v="107"/>
     </i>
     <i r="2">
-      <x v="66"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-      <x v="24"/>
-    </i>
-    <i r="2">
-      <x v="36"/>
-    </i>
-    <i r="2">
-      <x v="44"/>
-    </i>
-    <i r="2">
-      <x v="76"/>
-    </i>
-    <i r="2">
-      <x v="87"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-      <x v="21"/>
+      <x v="117"/>
     </i>
     <i t="default">
       <x v="7"/>
@@ -2684,50 +2674,26 @@
     <i>
       <x v="8"/>
       <x/>
-      <x v="72"/>
+      <x v="50"/>
+    </i>
+    <i r="2">
+      <x v="108"/>
     </i>
     <i t="default">
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
-      <x v="2"/>
-      <x v="25"/>
-    </i>
-    <i r="2">
-      <x v="37"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
       <x v="10"/>
       <x/>
-      <x v="13"/>
+      <x v="8"/>
     </i>
     <i t="default">
       <x v="10"/>
     </i>
     <i>
-      <x v="11"/>
-      <x/>
-      <x v="74"/>
-    </i>
-    <i t="default">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="1"/>
-      <x v="34"/>
-    </i>
-    <i t="default">
-      <x v="13"/>
-    </i>
-    <i>
       <x v="15"/>
       <x/>
-      <x v="95"/>
+      <x v="66"/>
     </i>
     <i t="default">
       <x v="15"/>
@@ -2742,62 +2708,48 @@
   <pageFields count="1">
     <pageField fld="3" hier="-1"/>
   </pageFields>
-  <formats count="48">
-    <format dxfId="53">
+  <formats count="45">
+    <format dxfId="52">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="49">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="48">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="47">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="46">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
     <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -2808,7 +2760,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -2822,7 +2774,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -2830,12 +2782,13 @@
     <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="2">
+          <reference field="2" count="3">
             <x v="0"/>
             <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2843,13 +2796,12 @@
     <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="2">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2863,7 +2815,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -2871,11 +2823,13 @@
     <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="1">
+          <reference field="2" count="3">
             <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -2883,13 +2837,11 @@
     <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="1">
             <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2897,11 +2849,13 @@
     <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="1">
+          <reference field="2" count="3">
             <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -2909,24 +2863,21 @@
     <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="0"/>
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
           <reference field="4" count="1" selected="0">
-            <x v="9"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
+        <references count="2">
+          <reference field="2" count="0"/>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="35"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
@@ -2935,18 +2886,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="6">
-            <x v="65"/>
-            <x v="79"/>
-            <x v="80"/>
-            <x v="82"/>
-            <x v="84"/>
-            <x v="88"/>
+          <reference field="5" count="1">
+            <x v="23"/>
           </reference>
         </references>
       </pivotArea>
@@ -2955,14 +2901,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="5" count="2">
-            <x v="81"/>
-            <x v="83"/>
+            <x v="45"/>
+            <x v="59"/>
           </reference>
         </references>
       </pivotArea>
@@ -2976,17 +2922,12 @@
           <reference field="4" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="10">
+          <reference field="5" count="5">
+            <x v="6"/>
+            <x v="8"/>
             <x v="10"/>
-            <x v="12"/>
-            <x v="13"/>
-            <x v="14"/>
-            <x v="17"/>
-            <x v="45"/>
-            <x v="51"/>
-            <x v="62"/>
-            <x v="74"/>
-            <x v="93"/>
+            <x v="52"/>
+            <x v="64"/>
           </reference>
         </references>
       </pivotArea>
@@ -3000,17 +2941,15 @@
           <reference field="4" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="10">
-            <x v="9"/>
-            <x v="17"/>
-            <x v="29"/>
-            <x v="30"/>
-            <x v="61"/>
+          <reference field="5" count="8">
+            <x v="5"/>
+            <x v="10"/>
+            <x v="19"/>
+            <x v="43"/>
+            <x v="53"/>
+            <x v="55"/>
+            <x v="62"/>
             <x v="63"/>
-            <x v="75"/>
-            <x v="77"/>
-            <x v="91"/>
-            <x v="92"/>
           </reference>
         </references>
       </pivotArea>
@@ -3024,10 +2963,9 @@
           <reference field="4" count="1" selected="0">
             <x v="1"/>
           </reference>
-          <reference field="5" count="3">
-            <x v="6"/>
-            <x v="15"/>
-            <x v="28"/>
+          <reference field="5" count="2">
+            <x v="4"/>
+            <x v="18"/>
           </reference>
         </references>
       </pivotArea>
@@ -3042,13 +2980,13 @@
             <x v="2"/>
           </reference>
           <reference field="5" count="7">
-            <x v="11"/>
+            <x v="7"/>
+            <x v="28"/>
+            <x v="36"/>
             <x v="40"/>
-            <x v="54"/>
-            <x v="58"/>
-            <x v="71"/>
-            <x v="78"/>
-            <x v="90"/>
+            <x v="49"/>
+            <x v="56"/>
+            <x v="61"/>
           </reference>
         </references>
       </pivotArea>
@@ -3064,10 +3002,10 @@
           </reference>
           <reference field="5" count="5">
             <x v="1"/>
-            <x v="47"/>
-            <x v="53"/>
-            <x v="56"/>
-            <x v="57"/>
+            <x v="33"/>
+            <x v="35"/>
+            <x v="38"/>
+            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -3076,13 +3014,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="4"/>
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="26"/>
+            <x v="27"/>
+            <x v="41"/>
           </reference>
         </references>
       </pivotArea>
@@ -3091,16 +3031,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="3"/>
           </reference>
-          <reference field="5" count="4">
-            <x v="38"/>
-            <x v="39"/>
-            <x v="50"/>
-            <x v="59"/>
+          <reference field="5" count="2">
+            <x v="11"/>
+            <x v="60"/>
           </reference>
         </references>
       </pivotArea>
@@ -3112,11 +3050,13 @@
             <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="18"/>
-            <x v="89"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="32"/>
+            <x v="34"/>
+            <x v="51"/>
+            <x v="58"/>
           </reference>
         </references>
       </pivotArea>
@@ -3125,14 +3065,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="4"/>
           </reference>
-          <reference field="5" count="2">
-            <x v="49"/>
-            <x v="67"/>
+          <reference field="5" count="4">
+            <x v="0"/>
+            <x v="9"/>
+            <x v="44"/>
+            <x v="68"/>
           </reference>
         </references>
       </pivotArea>
@@ -3141,18 +3083,17 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="6">
-            <x v="8"/>
-            <x v="43"/>
-            <x v="46"/>
-            <x v="48"/>
-            <x v="73"/>
-            <x v="86"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="5">
+            <x v="12"/>
+            <x v="13"/>
+            <x v="20"/>
+            <x v="37"/>
+            <x v="57"/>
           </reference>
         </references>
       </pivotArea>
@@ -3161,16 +3102,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="0"/>
-            <x v="16"/>
-            <x v="64"/>
-            <x v="97"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="3"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -3179,17 +3118,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="5" count="5">
-            <x v="19"/>
-            <x v="20"/>
-            <x v="31"/>
-            <x v="55"/>
-            <x v="85"/>
+          <reference field="5" count="1">
+            <x v="47"/>
           </reference>
         </references>
       </pivotArea>
@@ -3198,15 +3133,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="5"/>
-            <x v="26"/>
-            <x v="27"/>
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="29"/>
           </reference>
         </references>
       </pivotArea>
@@ -3215,13 +3148,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="69"/>
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="65"/>
+            <x v="66"/>
           </reference>
         </references>
       </pivotArea>
@@ -3230,14 +3164,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="33"/>
-            <x v="41"/>
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="15"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -3246,15 +3182,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="7"/>
           </reference>
-          <reference field="5" count="3">
-            <x v="52"/>
-            <x v="94"/>
-            <x v="95"/>
+          <reference field="5" count="2">
+            <x v="14"/>
+            <x v="54"/>
           </reference>
         </references>
       </pivotArea>
@@ -3263,19 +3198,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="7">
-            <x v="7"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="34"/>
-            <x v="36"/>
-            <x v="44"/>
-            <x v="87"/>
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="50"/>
           </reference>
         </references>
       </pivotArea>
@@ -3284,14 +3213,17 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="5">
             <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="2">
             <x v="21"/>
-            <x v="76"/>
+            <x v="30"/>
+            <x v="42"/>
+            <x v="46"/>
           </reference>
         </references>
       </pivotArea>
@@ -3300,13 +3232,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="9"/>
           </reference>
           <reference field="5" count="1">
-            <x v="72"/>
+            <x v="48"/>
           </reference>
         </references>
       </pivotArea>
@@ -3315,18 +3247,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="6">
-            <x v="3"/>
-            <x v="32"/>
-            <x v="42"/>
-            <x v="60"/>
-            <x v="66"/>
-            <x v="68"/>
+          <reference field="5" count="3">
+            <x v="16"/>
+            <x v="25"/>
+            <x v="67"/>
           </reference>
         </references>
       </pivotArea>
@@ -3335,55 +3264,21 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="3">
-            <x v="2"/>
-            <x v="23"/>
-            <x v="70"/>
+          <reference field="5" count="1">
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="25"/>
-            <x v="37"/>
-            <x v="96"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="98"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -3703,7 +3598,7 @@
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3721,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3740,7 +3635,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
@@ -3750,425 +3645,469 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>117</v>
-      </c>
+      <c r="A12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C30" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C31" s="10" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C34" s="10" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A35" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C36" s="10" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C37" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="A37" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>98</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="10" t="s">
-        <v>110</v>
-      </c>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>115</v>
-      </c>
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="9"/>
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54"/>
@@ -4860,11 +4799,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F82" sqref="F82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4899,7 +4838,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4907,19 +4846,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G2" s="14">
         <v>43859</v>
@@ -4927,19 +4866,19 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -4950,107 +4889,107 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5058,14 +4997,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
@@ -5077,19 +5016,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -5098,28 +5037,28 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
@@ -5128,12 +5067,14 @@
         <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="14"/>
+        <v>183</v>
+      </c>
+      <c r="G12" s="14">
+        <v>43866</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -5146,10 +5087,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>35</v>
@@ -5167,13 +5108,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G14" s="14">
         <v>43857</v>
@@ -5190,13 +5131,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -5211,13 +5152,13 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="14">
         <v>43857</v>
@@ -5234,13 +5175,13 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G17" s="14">
         <v>43857</v>
@@ -5258,12 +5199,14 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -5273,18 +5216,20 @@
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="G19" s="14">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -5296,7 +5241,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>16</v>
@@ -5319,12 +5264,14 @@
         <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G21" s="14"/>
+        <v>166</v>
+      </c>
+      <c r="G21" s="14">
+        <v>43867</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -5337,13 +5284,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G22" s="14">
         <v>43863</v>
@@ -5361,10 +5308,10 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -5379,16 +5326,16 @@
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5396,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>11</v>
@@ -5405,14 +5352,16 @@
         <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
@@ -5423,17 +5372,19 @@
         <v>11</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>2</v>
       </c>
@@ -5444,17 +5395,19 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>2</v>
       </c>
@@ -5465,10 +5418,10 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>29</v>
@@ -5486,10 +5439,10 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>30</v>
@@ -5498,7 +5451,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
@@ -5508,16 +5461,20 @@
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G30" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -5529,14 +5486,14 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -5547,13 +5504,13 @@
         <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="G32" s="14"/>
     </row>
@@ -5565,17 +5522,17 @@
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G33" s="14">
-        <v>43865</v>
+        <v>43867</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5589,13 +5546,13 @@
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G34" s="14"/>
     </row>
@@ -5610,13 +5567,13 @@
         <v>10</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -5632,10 +5589,10 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5649,14 +5606,18 @@
       <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E37" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="G37" s="14">
+        <v>43867</v>
+      </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -5669,13 +5630,13 @@
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G38" s="14"/>
     </row>
@@ -5690,13 +5651,13 @@
         <v>9</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G39" s="14">
         <v>43859</v>
@@ -5714,12 +5675,14 @@
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G40" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="41" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -5733,10 +5696,10 @@
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -5753,7 +5716,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -5770,29 +5733,29 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G44" s="14">
-        <v>43865</v>
+      <c r="G44" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5807,7 +5770,7 @@
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>43</v>
@@ -5825,10 +5788,10 @@
         <v>9</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>45</v>
@@ -5846,10 +5809,10 @@
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>46</v>
@@ -5868,16 +5831,16 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>44</v>
@@ -5889,37 +5852,39 @@
         <v>15</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G49" s="14"/>
-    </row>
-    <row r="50" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="G49" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -5928,40 +5893,40 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="G51" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>47</v>
+        <v>185</v>
       </c>
       <c r="G52" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>2</v>
       </c>
@@ -5971,30 +5936,32 @@
       <c r="C53" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E53" s="4" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G53" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>50</v>
@@ -6009,13 +5976,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>51</v>
@@ -6032,11 +5999,9 @@
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>52</v>
@@ -6051,16 +6016,18 @@
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -6072,117 +6039,123 @@
       <c r="C58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E58" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="14"/>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G58" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E62" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="G62" s="14">
+        <v>43858</v>
+      </c>
     </row>
     <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G63" s="14">
         <v>43858</v>
@@ -6193,264 +6166,264 @@
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" s="14">
-        <v>43858</v>
+        <v>81</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="G65" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
       <c r="G66" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G67" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="B68" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E68" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G69" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="G69" s="14"/>
     </row>
     <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G71" s="14">
-        <v>43865</v>
-      </c>
+      <c r="G71" s="14"/>
     </row>
     <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="14"/>
+        <v>146</v>
+      </c>
+      <c r="G72" s="14">
+        <v>43865</v>
+      </c>
     </row>
     <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="14">
-        <v>43865</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G74" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E75" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G75" s="14">
-        <v>43865</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
@@ -6463,13 +6436,13 @@
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="G76" s="3"/>
     </row>
@@ -6481,16 +6454,16 @@
         <v>33</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G77" s="3"/>
     </row>
@@ -6505,40 +6478,42 @@
         <v>11</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" s="14"/>
-    </row>
-    <row r="80" spans="1:7" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G79" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>20</v>
@@ -6547,19 +6522,19 @@
         <v>11</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="G80" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -6567,74 +6542,76 @@
         <v>20</v>
       </c>
       <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G81" s="14">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G81" s="14"/>
-    </row>
-    <row r="82" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E82" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G82" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G83" s="3"/>
     </row>
     <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>57</v>
@@ -6643,67 +6620,72 @@
     </row>
     <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G85" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="G85" s="14">
+        <v>43866</v>
+      </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G86" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="G86" s="14">
+        <v>43858</v>
+      </c>
     </row>
     <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G87" s="14">
-        <v>43858</v>
+        <v>84</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6711,26 +6693,25 @@
         <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="G88" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>2</v>
       </c>
@@ -6740,20 +6721,20 @@
       <c r="C89" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E89" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G89" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>4</v>
@@ -6763,74 +6744,76 @@
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G90" s="14"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D91" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="14"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G92" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G93" s="14">
-        <v>43866</v>
+        <v>147</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6838,99 +6821,109 @@
         <v>2</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E95" s="4" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>146</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="G95" s="3"/>
     </row>
     <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E96" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G96" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="G96" s="14">
+        <v>43860</v>
+      </c>
     </row>
     <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E97" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G97" s="14"/>
-    </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="G97" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G98" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
@@ -6940,392 +6933,522 @@
         <v>34</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G99" s="14">
-        <v>43860</v>
+        <v>43858</v>
       </c>
     </row>
     <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="E100" s="4" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G100" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G101" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="G101" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="G102" s="14">
-        <v>43858</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G103" s="14"/>
-    </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="G103" s="14">
+        <v>43867</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E104" s="4" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G104" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H105" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D106" s="4"/>
       <c r="E106" s="4" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G106" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="G106" s="14">
+        <v>43866</v>
+      </c>
       <c r="H106" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>167</v>
+        <v>82</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G108" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="H108" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="4"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G109" s="3"/>
-      <c r="H109" s="1" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A110" s="6"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="E110" s="4"/>
       <c r="F110" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G110" s="3"/>
-      <c r="H110" s="1" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>17</v>
+        <v>181</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D111" s="4"/>
       <c r="E111" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="6"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="G111" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F112" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112" s="14">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="G112" s="3"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="6"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="4"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G116" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G117" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G118" s="14">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="6"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="4"/>
+      <c r="E119" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G119" s="14">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G120" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="6"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="4"/>
+      <c r="E121" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G121" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="4"/>
+      <c r="E122" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G122" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
+      <c r="E123" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G123" s="14">
+        <v>43867</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6"/>
@@ -7561,44 +7684,14 @@
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G111" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+  <autoFilter ref="A1:G123" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="high"/>
+        <filter val="med"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
@@ -7606,34 +7699,45 @@
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Anya / Vlad"/>
         <filter val="Vlad"/>
         <filter val="Vlad / Anya"/>
         <filter val="Vlad / Maks"/>
-        <filter val="Vlad / Vanya"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
-    <sortCondition ref="B2:B91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
+    <sortCondition ref="B2:B89"/>
   </sortState>
-  <conditionalFormatting sqref="C101:C153 C2:C30 C32:C99">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="C2:C30 C98:C120 C122:C149 C32:C96">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C100">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C97">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF84B4D-98CD-419A-9945-880ED8923324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354E0A0-B883-4045-BF73-9B290D936DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="16" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="210">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -664,6 +664,12 @@
   </si>
   <si>
     <t>Vanya Total</t>
+  </si>
+  <si>
+    <t>Прикольно было бы показывать в табе сколько есть комментариев</t>
+  </si>
+  <si>
+    <t>Чтоб по открытию одного фильтра - другие закрывались</t>
   </si>
 </sst>
 </file>
@@ -2400,7 +2406,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -5915,7 +5921,9 @@
       <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>80</v>
       </c>
@@ -6522,7 +6530,7 @@
         <v>11</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>97</v>
@@ -7217,7 +7225,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>2</v>
       </c>
@@ -7238,7 +7246,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>2</v>
       </c>
@@ -7259,7 +7267,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
@@ -7280,7 +7288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2</v>
       </c>
@@ -7301,7 +7309,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>2</v>
       </c>
@@ -7322,7 +7330,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>2</v>
       </c>
@@ -7343,7 +7351,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>3</v>
       </c>
@@ -7364,7 +7372,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>2</v>
       </c>
@@ -7387,7 +7395,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>2</v>
       </c>
@@ -7408,7 +7416,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>3</v>
       </c>
@@ -7429,7 +7437,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>2</v>
       </c>
@@ -7450,25 +7458,51 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="4"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="3"/>
+      <c r="E124" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="G124" s="3"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="4"/>
+      <c r="H124" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="3"/>
+      <c r="E125" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="G125" s="3"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="6"/>
       <c r="B126" s="3"/>
       <c r="C126" s="4"/>
@@ -7477,7 +7511,7 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="6"/>
       <c r="B127" s="3"/>
       <c r="C127" s="4"/>
@@ -7486,7 +7520,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="6"/>
       <c r="B128" s="3"/>
       <c r="C128" s="4"/>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354E0A0-B883-4045-BF73-9B290D936DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817355DF-CD9D-4A40-9BF5-32047D14C792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="211">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -670,6 +670,9 @@
   </si>
   <si>
     <t>Чтоб по открытию одного фильтра - другие закрывались</t>
+  </si>
+  <si>
+    <t>Search покрасить в черный цвет в хлебных крошках</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2409,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4809,7 +4812,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7503,12 +7506,22 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="4"/>
+      <c r="A126" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="3"/>
+      <c r="E126" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817355DF-CD9D-4A40-9BF5-32047D14C792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364057D6-5151-4806-B6B0-D89116D26631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$126</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="18" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="224">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -673,6 +673,45 @@
   </si>
   <si>
     <t>Search покрасить в черный цвет в хлебных крошках</t>
+  </si>
+  <si>
+    <t>блок схема</t>
+  </si>
+  <si>
+    <t>оплата</t>
+  </si>
+  <si>
+    <t>подписка (с темплейтом)</t>
+  </si>
+  <si>
+    <t>забыли пароль</t>
+  </si>
+  <si>
+    <t>дополнить презу технической частью (стр-ра папок, код)</t>
+  </si>
+  <si>
+    <t>папка pages</t>
+  </si>
+  <si>
+    <t>админка</t>
+  </si>
+  <si>
+    <t>travis</t>
+  </si>
+  <si>
+    <t>тесты</t>
+  </si>
+  <si>
+    <t>mobile версию отчекрыжить</t>
+  </si>
+  <si>
+    <t>favorites для незалогиненного</t>
+  </si>
+  <si>
+    <t>инфинити скрол</t>
+  </si>
+  <si>
+    <t>рандомизировать товары, товары которые отсутствуют - в конце</t>
   </si>
 </sst>
 </file>
@@ -753,7 +792,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -795,6 +834,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2409,7 +2451,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4811,8 +4853,8 @@
   <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4896,7 +4938,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>100</v>
       </c>
@@ -4917,7 +4959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>100</v>
       </c>
@@ -4938,7 +4980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
@@ -4959,7 +5001,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
@@ -4980,7 +5022,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>99</v>
       </c>
@@ -5001,7 +5043,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
@@ -5196,7 +5238,7 @@
         <v>43857</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -5217,7 +5259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -5238,7 +5280,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -5259,7 +5301,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>3</v>
       </c>
@@ -5305,7 +5347,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>3</v>
       </c>
@@ -5347,7 +5389,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -5483,7 +5525,7 @@
         <v>43865</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -5523,7 +5565,7 @@
       </c>
       <c r="G32" s="14"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>3</v>
       </c>
@@ -5586,7 +5628,7 @@
       </c>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>2</v>
       </c>
@@ -5672,7 +5714,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>2</v>
       </c>
@@ -5693,7 +5735,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -5712,7 +5754,7 @@
       </c>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -5729,7 +5771,7 @@
       </c>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>2</v>
       </c>
@@ -5746,7 +5788,7 @@
       </c>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>100</v>
       </c>
@@ -5767,7 +5809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>3</v>
       </c>
@@ -5828,7 +5870,7 @@
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>3</v>
       </c>
@@ -5847,7 +5889,7 @@
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>2</v>
       </c>
@@ -5914,7 +5956,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>2</v>
       </c>
@@ -6000,7 +6042,7 @@
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>3</v>
       </c>
@@ -6019,7 +6061,7 @@
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>3</v>
       </c>
@@ -6105,7 +6147,7 @@
       </c>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>3</v>
       </c>
@@ -6306,7 +6348,7 @@
       </c>
       <c r="G69" s="14"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
@@ -6394,7 +6436,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
@@ -6522,7 +6564,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>2</v>
       </c>
@@ -6629,7 +6671,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>2</v>
       </c>
@@ -6743,7 +6785,7 @@
       </c>
       <c r="G89" s="14"/>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>18</v>
       </c>
@@ -6764,7 +6806,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
@@ -6785,7 +6827,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>2</v>
       </c>
@@ -6806,7 +6848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>3</v>
       </c>
@@ -6827,7 +6869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>2</v>
       </c>
@@ -6915,7 +6957,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>2</v>
       </c>
@@ -6980,7 +7022,7 @@
       </c>
       <c r="G100" s="14"/>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>3</v>
       </c>
@@ -7001,7 +7043,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>2</v>
       </c>
@@ -7070,7 +7112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>2</v>
       </c>
@@ -7092,7 +7134,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>2</v>
       </c>
@@ -7140,7 +7182,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
@@ -7175,7 +7217,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -7186,7 +7228,7 @@
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>3</v>
       </c>
@@ -7207,7 +7249,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>3</v>
       </c>
@@ -7228,7 +7270,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>2</v>
       </c>
@@ -7249,7 +7291,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>2</v>
       </c>
@@ -7270,7 +7312,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
@@ -7291,7 +7333,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>2</v>
       </c>
@@ -7333,7 +7375,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>2</v>
       </c>
@@ -7354,7 +7396,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>3</v>
       </c>
@@ -7398,7 +7440,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>2</v>
       </c>
@@ -7419,7 +7461,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>3</v>
       </c>
@@ -7440,7 +7482,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>2</v>
       </c>
@@ -7566,7 +7608,9 @@
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="3"/>
+      <c r="F131" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -7575,7 +7619,9 @@
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="3"/>
+      <c r="F132" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="G132" s="3"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
@@ -7584,7 +7630,9 @@
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="3"/>
+      <c r="F133" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -7593,7 +7641,9 @@
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="3"/>
+      <c r="F134" s="15" t="s">
+        <v>213</v>
+      </c>
       <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -7602,7 +7652,9 @@
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="3"/>
+      <c r="F135" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -7611,7 +7663,9 @@
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="3"/>
+      <c r="F136" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
@@ -7620,7 +7674,9 @@
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="3"/>
+      <c r="F137" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -7629,7 +7685,9 @@
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="3"/>
+      <c r="F138" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
@@ -7638,7 +7696,9 @@
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="3"/>
+      <c r="F139" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="G139" s="3"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
@@ -7647,7 +7707,9 @@
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="3"/>
+      <c r="F140" s="15" t="s">
+        <v>220</v>
+      </c>
       <c r="G140" s="3"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
@@ -7656,7 +7718,9 @@
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="3"/>
+      <c r="F141" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="G141" s="3"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
@@ -7665,7 +7729,9 @@
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="3"/>
+      <c r="F142" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="G142" s="3"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
@@ -7674,7 +7740,9 @@
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="3"/>
+      <c r="F143" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G143" s="3"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
@@ -7732,28 +7800,10 @@
       <c r="G149" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G123" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="high"/>
-        <filter val="med"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:G126" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Vlad"/>
-        <filter val="Vlad / Anya"/>
-        <filter val="Vlad / Maks"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <dateGroupItem year="2020" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364057D6-5151-4806-B6B0-D89116D26631}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4E9351-1E04-44DD-931B-10BD65FE8D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="19" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="228">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -712,6 +712,18 @@
   </si>
   <si>
     <t>рандомизировать товары, товары которые отсутствуют - в конце</t>
+  </si>
+  <si>
+    <t>handleSubmit в defaultProps убивает функцию submit</t>
+  </si>
+  <si>
+    <t>default values в форме не воспринимаются, пока на них не ступишь</t>
+  </si>
+  <si>
+    <t>не подтягивается пол пользователя</t>
+  </si>
+  <si>
+    <t>container for checkout</t>
   </si>
 </sst>
 </file>
@@ -843,7 +855,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2451,7 +2477,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2760,47 +2786,75 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <formats count="45">
-    <format dxfId="52">
+    <format dxfId="54">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="51">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="50">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="49">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="48">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="2" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
     <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
@@ -2811,7 +2865,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -2819,13 +2873,12 @@
     <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="2">
             <x v="0"/>
             <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -2839,7 +2892,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
+            <x v="4"/>
           </reference>
         </references>
       </pivotArea>
@@ -2847,12 +2900,13 @@
     <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="2">
+          <reference field="2" count="3">
             <x v="0"/>
             <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -2860,13 +2914,11 @@
     <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
+          <reference field="2" count="1">
             <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
+            <x v="6"/>
           </reference>
         </references>
       </pivotArea>
@@ -2880,7 +2932,7 @@
             <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
@@ -2892,7 +2944,7 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
@@ -2900,35 +2952,40 @@
     <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
-          <reference field="2" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
+          <reference field="2" count="0"/>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="1">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="23"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="2" count="0"/>
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
           <reference field="4" count="1" selected="0">
-            <x v="9"/>
+            <x v="0"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="45"/>
+            <x v="59"/>
           </reference>
         </references>
       </pivotArea>
@@ -2940,37 +2997,6 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="23"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="45"/>
-            <x v="59"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
             <x v="1"/>
           </reference>
           <reference field="5" count="5">
@@ -2983,7 +3009,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3005,18 +3031,58 @@
         </references>
       </pivotArea>
     </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="4"/>
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="5" count="7">
+            <x v="7"/>
+            <x v="28"/>
+            <x v="36"/>
+            <x v="40"/>
+            <x v="49"/>
+            <x v="56"/>
+            <x v="61"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
             <x v="2"/>
           </reference>
-          <reference field="4" count="1" selected="0">
+          <reference field="5" count="5">
             <x v="1"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="4"/>
-            <x v="18"/>
+            <x v="33"/>
+            <x v="35"/>
+            <x v="38"/>
+            <x v="39"/>
           </reference>
         </references>
       </pivotArea>
@@ -3028,16 +3094,12 @@
             <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="7">
-            <x v="7"/>
-            <x v="28"/>
-            <x v="36"/>
-            <x v="40"/>
-            <x v="49"/>
-            <x v="56"/>
-            <x v="61"/>
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="3">
+            <x v="26"/>
+            <x v="27"/>
+            <x v="41"/>
           </reference>
         </references>
       </pivotArea>
@@ -3049,14 +3111,11 @@
             <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="5" count="5">
-            <x v="1"/>
-            <x v="33"/>
-            <x v="35"/>
-            <x v="38"/>
-            <x v="39"/>
+            <x v="3"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="11"/>
+            <x v="60"/>
           </reference>
         </references>
       </pivotArea>
@@ -3065,15 +3124,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="26"/>
-            <x v="27"/>
-            <x v="41"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="32"/>
+            <x v="34"/>
+            <x v="51"/>
+            <x v="58"/>
           </reference>
         </references>
       </pivotArea>
@@ -3082,14 +3142,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="11"/>
-            <x v="60"/>
+            <x v="4"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="0"/>
+            <x v="9"/>
+            <x v="44"/>
+            <x v="68"/>
           </reference>
         </references>
       </pivotArea>
@@ -3098,16 +3160,17 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="32"/>
-            <x v="34"/>
-            <x v="51"/>
-            <x v="58"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="5">
+            <x v="12"/>
+            <x v="13"/>
+            <x v="20"/>
+            <x v="37"/>
+            <x v="57"/>
           </reference>
         </references>
       </pivotArea>
@@ -3116,16 +3179,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="0"/>
-            <x v="9"/>
-            <x v="44"/>
-            <x v="68"/>
+            <x v="5"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="3"/>
+            <x v="17"/>
           </reference>
         </references>
       </pivotArea>
@@ -3134,17 +3195,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="5"/>
           </reference>
-          <reference field="5" count="5">
-            <x v="12"/>
-            <x v="13"/>
-            <x v="20"/>
-            <x v="37"/>
-            <x v="57"/>
+          <reference field="5" count="1">
+            <x v="47"/>
           </reference>
         </references>
       </pivotArea>
@@ -3153,14 +3210,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="3"/>
-            <x v="17"/>
+            <x v="6"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="29"/>
           </reference>
         </references>
       </pivotArea>
@@ -3169,13 +3225,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="2"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="47"/>
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="2">
+            <x v="65"/>
+            <x v="66"/>
           </reference>
         </references>
       </pivotArea>
@@ -3184,13 +3241,16 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="29"/>
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="4">
+            <x v="15"/>
+            <x v="22"/>
+            <x v="24"/>
+            <x v="31"/>
           </reference>
         </references>
       </pivotArea>
@@ -3199,14 +3259,14 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="7"/>
           </reference>
           <reference field="5" count="2">
-            <x v="65"/>
-            <x v="66"/>
+            <x v="14"/>
+            <x v="54"/>
           </reference>
         </references>
       </pivotArea>
@@ -3215,16 +3275,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="0"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="4">
-            <x v="15"/>
-            <x v="22"/>
-            <x v="24"/>
-            <x v="31"/>
+            <x v="8"/>
+          </reference>
+          <reference field="5" count="1">
+            <x v="50"/>
           </reference>
         </references>
       </pivotArea>
@@ -3233,14 +3290,17 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="5" count="5">
             <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="2">
-            <x v="14"/>
-            <x v="54"/>
+            <x v="21"/>
+            <x v="30"/>
+            <x v="42"/>
+            <x v="46"/>
           </reference>
         </references>
       </pivotArea>
@@ -3249,13 +3309,13 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="1"/>
           </reference>
           <reference field="4" count="1" selected="0">
-            <x v="8"/>
+            <x v="9"/>
           </reference>
           <reference field="5" count="1">
-            <x v="50"/>
+            <x v="48"/>
           </reference>
         </references>
       </pivotArea>
@@ -3264,17 +3324,15 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="0"/>
+            <x v="2"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
-          <reference field="5" count="5">
-            <x v="2"/>
-            <x v="21"/>
-            <x v="30"/>
-            <x v="42"/>
-            <x v="46"/>
+          <reference field="5" count="3">
+            <x v="16"/>
+            <x v="25"/>
+            <x v="67"/>
           </reference>
         </references>
       </pivotArea>
@@ -3283,53 +3341,21 @@
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
-            <x v="1"/>
+            <x v="3"/>
           </reference>
           <reference field="4" count="1" selected="0">
             <x v="9"/>
           </reference>
           <reference field="5" count="1">
-            <x v="48"/>
+            <x v="69"/>
           </reference>
         </references>
       </pivotArea>
     </format>
     <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="3">
-            <x v="16"/>
-            <x v="25"/>
-            <x v="67"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="5" count="1">
-            <x v="69"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -4850,11 +4876,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H149"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7629,7 +7655,9 @@
       <c r="B133" s="3"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F133" s="15" t="s">
         <v>212</v>
       </c>
@@ -7640,7 +7668,9 @@
       <c r="B134" s="3"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F134" s="15" t="s">
         <v>213</v>
       </c>
@@ -7695,7 +7725,9 @@
       <c r="B139" s="3"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="F139" s="3" t="s">
         <v>219</v>
       </c>
@@ -7706,7 +7738,9 @@
       <c r="B140" s="3"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F140" s="15" t="s">
         <v>220</v>
       </c>
@@ -7717,7 +7751,9 @@
       <c r="B141" s="3"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
+      <c r="E141" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F141" s="15" t="s">
         <v>222</v>
       </c>
@@ -7728,7 +7764,9 @@
       <c r="B142" s="3"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F142" s="3" t="s">
         <v>221</v>
       </c>
@@ -7778,7 +7816,9 @@
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="3"/>
+      <c r="F147" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="G147" s="3"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
@@ -7787,7 +7827,9 @@
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="3"/>
+      <c r="F148" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="G148" s="3"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
@@ -7796,8 +7838,111 @@
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="3"/>
+      <c r="F149" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G126" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
@@ -7811,6 +7956,14 @@
     <sortCondition ref="B2:B89"/>
   </sortState>
   <conditionalFormatting sqref="C2:C30 C98:C120 C122:C149 C32:C96">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"med"</formula>
     </cfRule>
@@ -7818,7 +7971,7 @@
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
+  <conditionalFormatting sqref="C31">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"med"</formula>
     </cfRule>
@@ -7826,15 +7979,15 @@
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+  <conditionalFormatting sqref="C121">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C150:C160">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4E9351-1E04-44DD-931B-10BD65FE8D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AF6EC-F5E4-475E-8736-BACB67353F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="229">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>container for checkout</t>
+  </si>
+  <si>
+    <t>в сортировке переназвать пустое поле на Default или как-то еще</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2480,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4879,8 +4882,8 @@
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7868,8 +7871,12 @@
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="3"/>
+      <c r="E152" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AF6EC-F5E4-475E-8736-BACB67353F5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEFD016-4D6E-4CCF-BC3E-BAA348001E50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$163</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="263">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -258,9 +258,6 @@
     <t>на мобильной версии очень большая картинка сейчас</t>
   </si>
   <si>
-    <t>пунктирный блок?!?!</t>
-  </si>
-  <si>
     <t>Закрытие модакли (корзина) по нажатию Esc</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>показывать сверху параметры, по которым фильтруется</t>
   </si>
   <si>
-    <t>пересылка строки выбора</t>
-  </si>
-  <si>
     <t>Изменение url согласно параметрам поиска</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>remember me не работает</t>
   </si>
   <si>
-    <t>Переход по products/coocking вызывает ошибку (когда неправильно указана категория)</t>
-  </si>
-  <si>
     <t>Routes</t>
   </si>
   <si>
@@ -606,12 +597,6 @@
     <t>Починить ДР или убрать - пока закоментить</t>
   </si>
   <si>
-    <t>по клику и успешной регстрации - сразу логинить</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
     <t>Не воспринимаются значения по дефолту безк фокуса, не тянется пол</t>
   </si>
   <si>
@@ -675,58 +660,175 @@
     <t>Search покрасить в черный цвет в хлебных крошках</t>
   </si>
   <si>
-    <t>блок схема</t>
-  </si>
-  <si>
-    <t>оплата</t>
-  </si>
-  <si>
-    <t>подписка (с темплейтом)</t>
-  </si>
-  <si>
-    <t>забыли пароль</t>
-  </si>
-  <si>
-    <t>дополнить презу технической частью (стр-ра папок, код)</t>
-  </si>
-  <si>
     <t>папка pages</t>
   </si>
   <si>
-    <t>админка</t>
-  </si>
-  <si>
-    <t>travis</t>
-  </si>
-  <si>
-    <t>тесты</t>
-  </si>
-  <si>
-    <t>mobile версию отчекрыжить</t>
-  </si>
-  <si>
-    <t>favorites для незалогиненного</t>
-  </si>
-  <si>
-    <t>инфинити скрол</t>
-  </si>
-  <si>
-    <t>рандомизировать товары, товары которые отсутствуют - в конце</t>
-  </si>
-  <si>
     <t>handleSubmit в defaultProps убивает функцию submit</t>
   </si>
   <si>
-    <t>default values в форме не воспринимаются, пока на них не ступишь</t>
-  </si>
-  <si>
-    <t>не подтягивается пол пользователя</t>
-  </si>
-  <si>
-    <t>container for checkout</t>
-  </si>
-  <si>
     <t>в сортировке переназвать пустое поле на Default или как-то еще</t>
+  </si>
+  <si>
+    <t>По клику на logout (и другие пункты myaccount) закрывать выпадающее меню</t>
+  </si>
+  <si>
+    <t>My Account</t>
+  </si>
+  <si>
+    <t>рандомизировать товары в каталоге, товары которые отсутствуют - в конце</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>При sign in на protected route - оставаться на protected route</t>
+  </si>
+  <si>
+    <t>Vanya / Julia</t>
+  </si>
+  <si>
+    <t>Protected route</t>
+  </si>
+  <si>
+    <t>Product list</t>
+  </si>
+  <si>
+    <t>В Header сделать так, чтоб не прыгали границы в меню по ховеру</t>
+  </si>
+  <si>
+    <t>дополнить презу технической частью (стр-ра папок, блок схема, код)</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Убрать ошибки в консоли</t>
+  </si>
+  <si>
+    <t>добавить товары на запасах</t>
+  </si>
+  <si>
+    <t>Писать категории с большой буквы на мобилке</t>
+  </si>
+  <si>
+    <t>Shop all поменять на Show All (возможно выделить жирным)</t>
+  </si>
+  <si>
+    <t>проверить код на наличие статических данных и убрать их (например, название категорий)</t>
+  </si>
+  <si>
+    <t>Добавить карусель с топ продуктами на в корзину</t>
+  </si>
+  <si>
+    <t>причесать моб версию</t>
+  </si>
+  <si>
+    <t>Повесить фильтр опять на кнопку</t>
+  </si>
+  <si>
+    <t>Чистка фильтра на мобилке</t>
+  </si>
+  <si>
+    <t>пересылка строки фильтра - чтоб перенаправляло куда-то</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Проверить текст на сайте и отредактировать тот, который скопирован с оригиналного и не отвечает действительности</t>
+  </si>
+  <si>
+    <t>Переход по products/coocking вызывает ошибку (когда неправильно указана категория) - надо отправлять на page not gound</t>
+  </si>
+  <si>
+    <t>В хедере убрать красный цвет по нажатию на меню</t>
+  </si>
+  <si>
+    <t>по логауту - перезагрузка и redirect на home</t>
+  </si>
+  <si>
+    <t>Подключить оплату</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Подключить подписку</t>
+  </si>
+  <si>
+    <t>Подключить Инфинити скролл</t>
+  </si>
+  <si>
+    <t>Подключить Тесты</t>
+  </si>
+  <si>
+    <t>Подключить админку</t>
+  </si>
+  <si>
+    <t>Подключить функцию "Забыл пароль"</t>
+  </si>
+  <si>
+    <t>Подключить Travis</t>
+  </si>
+  <si>
+    <t>Залить на Heroku</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Forms</t>
+  </si>
+  <si>
+    <t>Infinity scroll</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Admin panel</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>Убрать название товара внизу в табе комментариев</t>
+  </si>
+  <si>
+    <t>Сделать чтоб search при ненахождение не показывал весь список товаров</t>
+  </si>
+  <si>
+    <t>При нажатии на + и достижении макс кол-ва товаров - показывать notification</t>
+  </si>
+  <si>
+    <t>при загрузке корзины (или перед переходом на checkout) проверять наличие и информировать, если нет</t>
+  </si>
+  <si>
+    <t>При догрузке товаров дергается страница</t>
+  </si>
+  <si>
+    <t>Вторая догрузка товаров зависает</t>
+  </si>
+  <si>
+    <t>Перевести описание товара на англ (Ножи)</t>
+  </si>
+  <si>
+    <t>Product detail</t>
+  </si>
+  <si>
+    <t>При удалении последнего артикула из корзины local storage не очищается</t>
+  </si>
+  <si>
+    <t>Убрать console.log из catch блоков</t>
   </si>
 </sst>
 </file>
@@ -858,7 +960,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1084,7 +1214,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43865.709718749997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="151" xr:uid="{7E8AF15F-9420-4EE8-B76C-CB7DB2EC26A3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F998" sheet="General"/>
+    <worksheetSource ref="A1:F991" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -2480,7 +2610,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I38" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -2789,49 +2919,49 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <formats count="45">
-    <format dxfId="54">
+    <format dxfId="58">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="57">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="55">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="54">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="53">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="52">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2845,7 +2975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2859,7 +2989,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2873,7 +3003,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -2886,7 +3016,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2900,7 +3030,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2914,7 +3044,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -2926,7 +3056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -2940,7 +3070,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -2952,7 +3082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -2962,7 +3092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2977,7 +3107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -2993,7 +3123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3012,7 +3142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3034,7 +3164,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3050,7 +3180,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3071,7 +3201,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3090,7 +3220,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3107,7 +3237,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3123,7 +3253,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3141,7 +3271,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3159,7 +3289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3178,7 +3308,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3194,7 +3324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3209,7 +3339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3224,7 +3354,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3240,7 +3370,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3258,7 +3388,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3274,7 +3404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3289,7 +3419,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3308,7 +3438,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3323,7 +3453,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3340,7 +3470,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -3355,10 +3485,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="15">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -3696,7 +3826,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3715,7 +3845,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>11</v>
@@ -3726,7 +3856,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3745,32 +3875,32 @@
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -3789,22 +3919,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -3817,28 +3947,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -3851,18 +3981,18 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -3881,17 +4011,17 @@
         <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3904,33 +4034,33 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C27" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C28" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C29" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3943,23 +4073,23 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C32" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3972,18 +4102,18 @@
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -3996,18 +4126,18 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -4020,7 +4150,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="9"/>
     </row>
@@ -4879,11 +5009,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H261"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4894,8 +5024,9 @@
     <col min="4" max="4" width="11.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" style="5" customWidth="1"/>
     <col min="6" max="6" width="72" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -4918,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
@@ -4926,19 +5057,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="14">
         <v>43859</v>
@@ -4946,16 +5077,16 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>48</v>
@@ -4969,44 +5100,44 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -5014,107 +5145,109 @@
         <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>59</v>
@@ -5123,17 +5256,17 @@
         <v>11</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -5144,38 +5277,38 @@
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="G13" s="14">
+        <v>43866</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -5188,19 +5321,17 @@
         <v>11</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="14">
-        <v>43857</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
@@ -5211,15 +5342,17 @@
         <v>11</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="G15" s="14">
+        <v>43857</v>
+      </c>
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -5232,17 +5365,15 @@
         <v>11</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="14">
-        <v>43857</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -5255,19 +5386,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="14">
         <v>43857</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
@@ -5275,20 +5406,22 @@
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="G18" s="14">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -5296,177 +5429,179 @@
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="14">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="14">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="G23" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="14">
-        <v>43866</v>
+        <v>225</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
@@ -5475,13 +5610,13 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G27" s="14">
         <v>43866</v>
@@ -5498,15 +5633,17 @@
         <v>11</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G28" s="14">
+        <v>43866</v>
+      </c>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -5519,42 +5656,40 @@
         <v>11</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="G30" s="14">
-        <v>43865</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>2</v>
       </c>
@@ -5562,18 +5697,22 @@
         <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E31" s="4" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="G31" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>2</v>
       </c>
@@ -5581,85 +5720,87 @@
         <v>37</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E33" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="14">
-        <v>43867</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G34" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="G34" s="14">
+        <v>43867</v>
+      </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -5667,12 +5808,14 @@
       <c r="C36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -5684,19 +5827,17 @@
         <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G37" s="14">
-        <v>43867</v>
+        <v>92</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -5710,42 +5851,42 @@
         <v>11</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="G38" s="14">
+        <v>43867</v>
+      </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G39" s="14">
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>19</v>
@@ -5753,18 +5894,20 @@
       <c r="C40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="G40" s="14">
+        <v>43859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>2</v>
       </c>
@@ -5772,18 +5915,20 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>2</v>
       </c>
@@ -5791,14 +5936,18 @@
         <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F42" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -5813,51 +5962,53 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G43" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="E44" s="4"/>
       <c r="F44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="14" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>3</v>
       </c>
@@ -5865,18 +6016,18 @@
         <v>44</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="E46" s="4" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -5886,20 +6037,20 @@
         <v>44</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>3</v>
       </c>
@@ -5907,64 +6058,66 @@
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G49" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="G50" s="14">
+        <v>43866</v>
+      </c>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
@@ -5973,39 +6126,37 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="14">
-        <v>43860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>185</v>
+        <v>47</v>
       </c>
       <c r="G52" s="14">
-        <v>43867</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -6019,34 +6170,36 @@
         <v>11</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="G53" s="14">
+        <v>43867</v>
+      </c>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G54" s="3"/>
     </row>
@@ -6058,20 +6211,20 @@
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>3</v>
       </c>
@@ -6081,16 +6234,18 @@
       <c r="C56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>3</v>
       </c>
@@ -6098,18 +6253,18 @@
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E57" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
@@ -6122,122 +6277,124 @@
         <v>9</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G58" s="14">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="G59" s="14">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>140</v>
-      </c>
+      <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G62" s="14">
-        <v>43858</v>
+        <v>72</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G63" s="14">
         <v>43858</v>
@@ -6248,136 +6405,138 @@
         <v>2</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>140</v>
+        <v>90</v>
+      </c>
+      <c r="G64" s="14">
+        <v>43858</v>
       </c>
     </row>
     <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G65" s="14">
-        <v>43860</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="G66" s="14">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="14">
         <v>43865</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="4" t="s">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="G67" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="G68" s="14">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
@@ -6388,19 +6547,17 @@
         <v>9</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G70" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>3</v>
       </c>
@@ -6408,18 +6565,20 @@
         <v>67</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="14"/>
+        <v>69</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
@@ -6429,20 +6588,18 @@
         <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G72" s="14">
-        <v>43865</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G72" s="14"/>
     </row>
     <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
@@ -6455,17 +6612,19 @@
         <v>9</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" s="3"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+      <c r="G73" s="14">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>3</v>
       </c>
@@ -6475,16 +6634,16 @@
       <c r="C74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E74" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
@@ -6497,7 +6656,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>61</v>
@@ -6518,7 +6677,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>61</v>
@@ -6539,7 +6698,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>61</v>
@@ -6560,10 +6719,10 @@
         <v>11</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>65</v>
@@ -6581,13 +6740,13 @@
         <v>11</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G79" s="14">
         <v>43863</v>
@@ -6604,19 +6763,19 @@
         <v>11</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G80" s="14">
         <v>43867</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -6626,12 +6785,14 @@
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E81" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G81" s="14">
         <v>43867</v>
@@ -6648,7 +6809,7 @@
         <v>11</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>40</v>
@@ -6669,10 +6830,10 @@
         <v>11</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>56</v>
@@ -6690,10 +6851,10 @@
         <v>9</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>57</v>
@@ -6714,13 +6875,13 @@
         <v>15</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G85" s="14">
-        <v>43866</v>
+        <v>184</v>
+      </c>
+      <c r="G85" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6734,13 +6895,13 @@
         <v>11</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G86" s="14">
         <v>43858</v>
@@ -6757,17 +6918,17 @@
         <v>11</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6781,13 +6942,13 @@
         <v>9</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G88" s="14">
         <v>43865</v>
@@ -6804,10 +6965,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>13</v>
@@ -6826,13 +6987,13 @@
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G90" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -6840,20 +7001,20 @@
         <v>2</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -6861,20 +7022,20 @@
         <v>2</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -6882,20 +7043,20 @@
         <v>3</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -6908,15 +7069,17 @@
       <c r="C94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E94" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -6930,13 +7093,13 @@
         <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G95" s="3"/>
     </row>
@@ -6951,13 +7114,13 @@
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G96" s="14">
         <v>43860</v>
@@ -6968,19 +7131,19 @@
         <v>2</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G97" s="14">
         <v>43866</v>
@@ -6991,20 +7154,20 @@
         <v>2</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7018,13 +7181,13 @@
         <v>11</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G99" s="14">
         <v>43858</v>
@@ -7041,13 +7204,13 @@
         <v>11</v>
       </c>
       <c r="D100" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="G100" s="14"/>
     </row>
@@ -7063,37 +7226,39 @@
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G101" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E102" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G102" s="14">
         <v>43867</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>2</v>
       </c>
@@ -7103,18 +7268,17 @@
       <c r="C103" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G103" s="14">
         <v>43867</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7122,23 +7286,23 @@
         <v>2</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -7146,24 +7310,21 @@
         <v>2</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G105" s="3"/>
-      <c r="H105" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>2</v>
       </c>
@@ -7173,18 +7334,17 @@
       <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="4"/>
+      <c r="D106" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E106" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G106" s="14">
         <v>43866</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7192,23 +7352,23 @@
         <v>2</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -7223,62 +7383,65 @@
       </c>
       <c r="D108" s="4"/>
       <c r="E108" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6"/>
       <c r="B109" s="3"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6"/>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="4"/>
+      <c r="D111" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E111" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G111" s="14">
         <v>43866</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>3</v>
       </c>
@@ -7288,18 +7451,20 @@
       <c r="C112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E112" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G112" s="14">
         <v>43867</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>2</v>
       </c>
@@ -7311,540 +7476,780 @@
       </c>
       <c r="D113" s="4"/>
       <c r="E113" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G113" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E114" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E115" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E117" s="4" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G117" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E118" s="4" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G118" s="14">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G119" s="14">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G120" s="14">
         <v>43866</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D121" s="4"/>
+      <c r="D121" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E121" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G121" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43867</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E122" s="4" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G122" s="14">
-        <v>43866</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>206</v>
+        <v>19</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="E123" s="4" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G123" s="14">
-        <v>43867</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="G123" s="3"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G126" s="3"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
+      <c r="E128" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="4"/>
+      <c r="A129" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="6"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A131" s="6"/>
-      <c r="B131" s="3"/>
+      <c r="E130" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="3" t="s">
-        <v>215</v>
+      <c r="D131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>206</v>
       </c>
       <c r="G131" s="3"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="4"/>
+      <c r="A132" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F132" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G132" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A133" s="6"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="4"/>
+      <c r="A133" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D133" s="4"/>
       <c r="E133" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F133" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G133" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="4"/>
+      <c r="A134" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D134" s="4"/>
       <c r="E134" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="G134" s="3"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F135" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G135" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="4"/>
+      <c r="A136" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="G136" s="3"/>
+      <c r="E136" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="4"/>
+      <c r="A137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+      <c r="E137" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F137" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G137" s="3"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="F138" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G138" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="4"/>
+      <c r="A139" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D139" s="4"/>
       <c r="E139" s="4" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G139" s="3"/>
+        <v>233</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="4"/>
+      <c r="A140" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D140" s="4"/>
       <c r="E140" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G140" s="3"/>
+        <v>137</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="4"/>
+      <c r="A141" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D141" s="4"/>
       <c r="E141" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F141" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G141" s="3"/>
+      <c r="F141" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="4"/>
+      <c r="A142" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D142" s="4"/>
       <c r="E142" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G142" s="3"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F143" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G143" s="3"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
+      <c r="E144" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="4"/>
+      <c r="A145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
+      <c r="E145" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="4"/>
+      <c r="A146" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
+      <c r="E146" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
+      <c r="A147" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="E147" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="F147" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G147" s="3"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="F148" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G148" s="3"/>
+        <v>261</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="4"/>
+      <c r="A149" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G149" s="3"/>
+        <v>262</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
@@ -7852,9 +8257,7 @@
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="3" t="s">
-        <v>227</v>
-      </c>
+      <c r="F150" s="3"/>
       <c r="G150" s="3"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
@@ -7871,12 +8274,8 @@
       <c r="B152" s="3"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>228</v>
-      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -7916,43 +8315,1036 @@
       <c r="G156" s="3"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="4"/>
+      <c r="A157" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
+      <c r="E157" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="4"/>
+      <c r="A158" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
+      <c r="E158" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="4"/>
+      <c r="A159" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
+      <c r="E159" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="4"/>
+      <c r="A160" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
+      <c r="E160" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="6"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="6"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="6"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="6"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="6"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="6"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="6"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="6"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="6"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="6"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="6"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="6"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="6"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="6"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="6"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="6"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="6"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="6"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="6"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="6"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="6"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="6"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="6"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="6"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" s="6"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" s="6"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" s="6"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" s="6"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="6"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="6"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="6"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="6"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" s="6"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" s="6"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" s="6"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" s="6"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" s="6"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="6"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" s="6"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="6"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" s="6"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" s="6"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" s="6"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" s="6"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="6"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="6"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="6"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" s="4"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="6"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="4"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="6"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="4"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="6"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="4"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="6"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="4"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="6"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="4"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="6"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="4"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="6"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="4"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="6"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="4"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="6"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" s="4"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="6"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="6"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="6"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="6"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+      <c r="E225" s="4"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="6"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="6"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="6"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="6"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="6"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="6"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="4"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="6"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="6"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="6"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="6"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="6"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="4"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="6"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="6"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="6"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="6"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="6"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="6"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="6"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="6"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="6"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="6"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="6"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="6"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="6"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="4"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="6"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="6"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="6"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="6"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="6"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="6"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="6"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="6"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="6"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="6"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="6"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="6"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G126" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
+  <autoFilter ref="A1:G163" xr:uid="{A3563D40-676F-4C25-9A83-F9F0579BBF13}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
@@ -7962,15 +9354,31 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F89">
     <sortCondition ref="B2:B89"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C30 C98:C120 C122:C149 C32:C96">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+  <conditionalFormatting sqref="C2:C31 C33:C96 C98:C118 C120:C140 C157">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"med"</formula>
     </cfRule>
@@ -7978,15 +9386,15 @@
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="C141:C156">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
+  <conditionalFormatting sqref="C158:C165">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
@@ -7994,7 +9402,7 @@
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C150:C160">
+  <conditionalFormatting sqref="C166:C261">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235C169-ADEE-4735-AF7F-33B4F318CCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991BD40-4912-4FC6-913A-B5E982BAB136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="252">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -672,9 +672,6 @@
     <t>Payment</t>
   </si>
   <si>
-    <t>Subscription</t>
-  </si>
-  <si>
     <t>Подключить подписку</t>
   </si>
   <si>
@@ -790,6 +787,15 @@
   </si>
   <si>
     <t>Подключить Travis (тест на отдельном репозитории)</t>
+  </si>
+  <si>
+    <t>Письмо с подтверждением заказа, регистрации</t>
+  </si>
+  <si>
+    <t>Зачем нам styleLint? Удалить его?</t>
+  </si>
+  <si>
+    <t>Неправильное отображение новых категорий (products requested)</t>
   </si>
 </sst>
 </file>
@@ -921,716 +927,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="282">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -1856,7 +1153,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43878.67023773148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="268" xr:uid="{7E8AF15F-9420-4EE8-B76C-CB7DB2EC26A3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F977" sheet="General"/>
+    <worksheetSource ref="A1:F976" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -4233,7 +3530,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I69" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4685,49 +3982,49 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <formats count="45">
-    <format dxfId="281">
+    <format dxfId="54">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="280">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="279">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="278">
+    <format dxfId="51">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="277">
+    <format dxfId="50">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="276">
+    <format dxfId="49">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="275">
+    <format dxfId="48">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="274">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="273">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="272">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4741,7 +4038,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="270">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4755,7 +4052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="269">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4769,7 +4066,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="268">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -4782,7 +4079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="267">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4796,7 +4093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="266">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4810,7 +4107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="265">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -4822,7 +4119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4836,7 +4133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="263">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -4848,7 +4145,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="262">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -4858,7 +4155,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="261">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4873,7 +4170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="260">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4889,7 +4186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4908,7 +4205,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4930,7 +4227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4946,7 +4243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="256">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4967,7 +4264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="255">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4986,7 +4283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="254">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5003,7 +4300,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5019,7 +4316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="252">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5037,7 +4334,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="251">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5055,7 +4352,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="250">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5074,7 +4371,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="249">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5090,7 +4387,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5105,7 +4402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="247">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5120,7 +4417,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="246">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5136,7 +4433,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="245">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5154,7 +4451,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="244">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5170,7 +4467,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="243">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5185,7 +4482,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5204,7 +4501,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5219,7 +4516,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="240">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5236,7 +4533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5251,10 +4548,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
+    <format dxfId="11">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="237">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -5622,12 +4919,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5684,7 +4981,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5692,12 +4989,12 @@
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5721,37 +5018,37 @@
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -5759,7 +5056,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5783,7 +5080,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5822,27 +5119,27 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C33" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5860,7 +5157,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5883,7 +5180,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5907,7 +5204,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5956,7 +5253,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6050,22 +5347,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C67" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -6596,11 +5893,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6685,7 +5982,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
@@ -6706,7 +6003,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>98</v>
       </c>
@@ -6727,7 +6024,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
@@ -6748,7 +6045,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
@@ -6769,7 +6066,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -6790,7 +6087,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
@@ -6811,7 +6108,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -7031,7 +6328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -7046,7 +6343,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>192</v>
@@ -7073,7 +6370,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -7142,7 +6439,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -7159,7 +6456,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>192</v>
@@ -7364,7 +6661,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -7452,7 +6749,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>2</v>
       </c>
@@ -7519,7 +6816,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
@@ -8372,7 +7669,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -8389,7 +7686,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>192</v>
@@ -8496,12 +7793,14 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E86" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>192</v>
@@ -8595,7 +7894,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
@@ -8610,7 +7909,7 @@
         <v>40</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>192</v>
@@ -8660,7 +7959,7 @@
       </c>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>3</v>
       </c>
@@ -8675,7 +7974,7 @@
         <v>61</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>192</v>
@@ -8870,7 +8169,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>2</v>
       </c>
@@ -8960,7 +8259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>3</v>
       </c>
@@ -9006,7 +8305,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>2</v>
       </c>
@@ -9117,7 +8416,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
@@ -9138,7 +8437,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2</v>
       </c>
@@ -9159,7 +8458,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>2</v>
       </c>
@@ -9180,7 +8479,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>3</v>
       </c>
@@ -9251,7 +8550,9 @@
       <c r="C121" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="4"/>
+      <c r="D121" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E121" s="4" t="s">
         <v>78</v>
       </c>
@@ -9262,7 +8563,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>3</v>
       </c>
@@ -9304,7 +8605,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>2</v>
       </c>
@@ -9369,12 +8670,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>9</v>
@@ -9390,12 +8691,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>11</v>
@@ -9405,13 +8706,13 @@
         <v>48</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>2</v>
       </c>
@@ -9426,13 +8727,13 @@
         <v>107</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>2</v>
       </c>
@@ -9447,18 +8748,18 @@
         <v>48</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>11</v>
@@ -9468,18 +8769,18 @@
         <v>48</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
@@ -9489,18 +8790,18 @@
         <v>48</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -9510,13 +8811,13 @@
         <v>107</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>2</v>
       </c>
@@ -9531,13 +8832,13 @@
         <v>48</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>2</v>
       </c>
@@ -9552,13 +8853,13 @@
         <v>94</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>3</v>
       </c>
@@ -9573,13 +8874,13 @@
         <v>61</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>2</v>
       </c>
@@ -9594,13 +8895,13 @@
         <v>107</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>2</v>
       </c>
@@ -9615,7 +8916,7 @@
         <v>107</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>132</v>
@@ -9638,13 +8939,13 @@
         <v>40</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>2</v>
       </c>
@@ -9659,13 +8960,13 @@
         <v>48</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>3</v>
       </c>
@@ -9680,13 +8981,13 @@
         <v>107</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>2</v>
       </c>
@@ -9701,13 +9002,13 @@
         <v>107</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>2</v>
       </c>
@@ -9728,19 +9029,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>211</v>
@@ -9749,7 +9050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>2</v>
       </c>
@@ -9761,7 +9062,7 @@
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>212</v>
@@ -9770,7 +9071,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>2</v>
       </c>
@@ -9778,11 +9079,11 @@
         <v>221</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>213</v>
@@ -9791,7 +9092,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>2</v>
       </c>
@@ -9812,7 +9113,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>2</v>
       </c>
@@ -9824,35 +9125,23 @@
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A149" s="6"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
@@ -9878,7 +9167,9 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="3"/>
+      <c r="F152" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -9887,7 +9178,9 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="3"/>
+      <c r="F153" s="3" t="s">
+        <v>251</v>
+      </c>
       <c r="G153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -10727,71 +10020,60 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="6"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
-      <c r="E247" s="4"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G142" xr:uid="{B70710B8-4FF9-40D0-AEFA-E87CE3CC0CF9}">
+  <autoFilter ref="A1:G148" xr:uid="{B70710B8-4FF9-40D0-AEFA-E87CE3CC0CF9}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Anya / Vlad"/>
+        <filter val="Vlad"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F85">
     <sortCondition ref="B2:B85"/>
   </sortState>
-  <conditionalFormatting sqref="C91:C109 C2:C89 C111:C141 C143">
-    <cfRule type="cellIs" dxfId="236" priority="19" operator="equal">
+  <conditionalFormatting sqref="C91:C109 C2:C89 C111:C141 C143:C150">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="cellIs" dxfId="234" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="cellIs" dxfId="232" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144:C151">
-    <cfRule type="cellIs" dxfId="230" priority="5" operator="equal">
+  <conditionalFormatting sqref="C151:C246">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="6" operator="equal">
-      <formula>"high"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152:C247">
-    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
-      <formula>"med"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A991BD40-4912-4FC6-913A-B5E982BAB136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235C169-ADEE-4735-AF7F-33B4F318CCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$142</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="250">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -672,6 +672,9 @@
     <t>Payment</t>
   </si>
   <si>
+    <t>Subscription</t>
+  </si>
+  <si>
     <t>Подключить подписку</t>
   </si>
   <si>
@@ -787,15 +790,6 @@
   </si>
   <si>
     <t>Подключить Travis (тест на отдельном репозитории)</t>
-  </si>
-  <si>
-    <t>Письмо с подтверждением заказа, регистрации</t>
-  </si>
-  <si>
-    <t>Зачем нам styleLint? Удалить его?</t>
-  </si>
-  <si>
-    <t>Неправильное отображение новых категорий (products requested)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +921,716 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="282">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1153,7 +1856,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Межерицкий Владислав" refreshedDate="43878.67023773148" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="268" xr:uid="{7E8AF15F-9420-4EE8-B76C-CB7DB2EC26A3}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:F976" sheet="General"/>
+    <worksheetSource ref="A1:F977" sheet="General"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Type" numFmtId="0">
@@ -3530,7 +4233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I69" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3982,49 +4685,49 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <formats count="45">
-    <format dxfId="54">
+    <format dxfId="281">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="280">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="279">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="278">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="277">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="276">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="275">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="274">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="273">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="272">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="271">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4038,7 +4741,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="270">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4052,7 +4755,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="269">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4066,7 +4769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="268">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -4079,7 +4782,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="267">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4093,7 +4796,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="266">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4107,7 +4810,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="265">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -4119,7 +4822,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="264">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4133,7 +4836,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="263">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -4145,7 +4848,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="262">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -4155,7 +4858,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="261">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4170,7 +4873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="260">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4186,7 +4889,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="259">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4205,7 +4908,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="258">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4227,7 +4930,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="257">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4243,7 +4946,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="256">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4264,7 +4967,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="255">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4283,7 +4986,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="254">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4300,7 +5003,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="253">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4316,7 +5019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="252">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4334,7 +5037,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="251">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4352,7 +5055,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="250">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4371,7 +5074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="249">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4387,7 +5090,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="248">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4402,7 +5105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="247">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4417,7 +5120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="246">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4433,7 +5136,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="245">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4451,7 +5154,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="244">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4467,7 +5170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="243">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4482,7 +5185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="242">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4501,7 +5204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="241">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4516,7 +5219,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="240">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4533,7 +5236,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="239">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4548,10 +5251,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="238">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="237">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -4919,12 +5622,12 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -4981,7 +5684,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -4989,12 +5692,12 @@
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -5018,37 +5721,37 @@
         <v>11</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C21" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C25" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -5056,7 +5759,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5080,7 +5783,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -5119,27 +5822,27 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C33" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C34" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C35" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C36" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5157,7 +5860,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5180,7 +5883,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5204,7 +5907,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5253,7 +5956,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C53" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -5347,22 +6050,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C65" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C66" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C67" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -5893,11 +6596,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B89314-F863-48FB-9933-FEF9A79509A7}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5982,7 +6685,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
@@ -6003,7 +6706,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>98</v>
       </c>
@@ -6024,7 +6727,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
@@ -6045,7 +6748,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>97</v>
       </c>
@@ -6066,7 +6769,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -6087,7 +6790,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>97</v>
       </c>
@@ -6108,7 +6811,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -6328,7 +7031,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>2</v>
       </c>
@@ -6343,7 +7046,7 @@
         <v>48</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>192</v>
@@ -6370,7 +7073,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>3</v>
       </c>
@@ -6439,7 +7142,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -6456,7 +7159,7 @@
         <v>61</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>192</v>
@@ -6661,7 +7364,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -6749,7 +7452,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +7519,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
@@ -7669,7 +8372,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>2</v>
       </c>
@@ -7686,7 +8389,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>192</v>
@@ -7793,14 +8496,12 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
         <v>78</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>192</v>
@@ -7894,7 +8595,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>2</v>
       </c>
@@ -7909,7 +8610,7 @@
         <v>40</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>192</v>
@@ -7959,7 +8660,7 @@
       </c>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>3</v>
       </c>
@@ -7974,7 +8675,7 @@
         <v>61</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>192</v>
@@ -8169,7 +8870,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>2</v>
       </c>
@@ -8259,7 +8960,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>3</v>
       </c>
@@ -8305,7 +9006,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>2</v>
       </c>
@@ -8416,7 +9117,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
@@ -8437,7 +9138,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>2</v>
       </c>
@@ -8458,7 +9159,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>2</v>
       </c>
@@ -8479,7 +9180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>3</v>
       </c>
@@ -8550,9 +9251,7 @@
       <c r="C121" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D121" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
         <v>78</v>
       </c>
@@ -8563,7 +9262,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>3</v>
       </c>
@@ -8605,7 +9304,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>2</v>
       </c>
@@ -8670,12 +9369,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>9</v>
@@ -8691,12 +9390,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>11</v>
@@ -8706,13 +9405,13 @@
         <v>48</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G128" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>2</v>
       </c>
@@ -8727,13 +9426,13 @@
         <v>107</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G129" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>2</v>
       </c>
@@ -8748,18 +9447,18 @@
         <v>48</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>11</v>
@@ -8769,18 +9468,18 @@
         <v>48</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>11</v>
@@ -8790,18 +9489,18 @@
         <v>48</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>11</v>
@@ -8811,13 +9510,13 @@
         <v>107</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>2</v>
       </c>
@@ -8832,13 +9531,13 @@
         <v>48</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>2</v>
       </c>
@@ -8853,13 +9552,13 @@
         <v>94</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G135" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>3</v>
       </c>
@@ -8874,13 +9573,13 @@
         <v>61</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>2</v>
       </c>
@@ -8895,13 +9594,13 @@
         <v>107</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>2</v>
       </c>
@@ -8916,7 +9615,7 @@
         <v>107</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>132</v>
@@ -8939,13 +9638,13 @@
         <v>40</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>2</v>
       </c>
@@ -8960,13 +9659,13 @@
         <v>48</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>3</v>
       </c>
@@ -8981,13 +9680,13 @@
         <v>107</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>2</v>
       </c>
@@ -9002,13 +9701,13 @@
         <v>107</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>2</v>
       </c>
@@ -9029,19 +9728,19 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D144" s="4"/>
       <c r="E144" s="4" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>211</v>
@@ -9050,7 +9749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>2</v>
       </c>
@@ -9062,7 +9761,7 @@
       </c>
       <c r="D145" s="4"/>
       <c r="E145" s="4" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>212</v>
@@ -9071,7 +9770,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>2</v>
       </c>
@@ -9079,11 +9778,11 @@
         <v>221</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D146" s="4"/>
       <c r="E146" s="4" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>213</v>
@@ -9092,7 +9791,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>2</v>
       </c>
@@ -9113,7 +9812,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>2</v>
       </c>
@@ -9125,23 +9824,35 @@
       </c>
       <c r="D148" s="4"/>
       <c r="E148" s="4" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="4"/>
+      <c r="A149" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
+      <c r="E149" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="6"/>
@@ -9167,9 +9878,7 @@
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="3"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
@@ -9178,9 +9887,7 @@
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="3"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
@@ -10020,60 +10727,71 @@
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
     </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="6"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G148" xr:uid="{B70710B8-4FF9-40D0-AEFA-E87CE3CC0CF9}">
+  <autoFilter ref="A1:G142" xr:uid="{B70710B8-4FF9-40D0-AEFA-E87CE3CC0CF9}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Anya / Vlad"/>
-        <filter val="Vlad"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F85">
     <sortCondition ref="B2:B85"/>
   </sortState>
-  <conditionalFormatting sqref="C91:C109 C2:C89 C111:C141 C143:C150">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
+  <conditionalFormatting sqref="C91:C109 C2:C89 C111:C141 C143">
+    <cfRule type="cellIs" dxfId="236" priority="19" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="20" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="17" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="18" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="11" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="12" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151:C246">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+  <conditionalFormatting sqref="C144:C151">
+    <cfRule type="cellIs" dxfId="230" priority="5" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="6" operator="equal">
+      <formula>"high"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152:C247">
+    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
+      <formula>"med"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A235C169-ADEE-4735-AF7F-33B4F318CCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC294A51-06C6-4E43-96FE-75C2DA7B8C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -17,11 +17,11 @@
     <sheet name="General" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">General!$A$1:$G$149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="250">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -921,702 +921,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="282">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -4233,7 +3538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AFDB375-AFE2-47F1-BF5D-D23CBEA14432}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:I69" firstHeaderRow="2" firstDataRow="2" firstDataCol="3" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -4685,49 +3990,49 @@
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <formats count="45">
-    <format dxfId="281">
+    <format dxfId="56">
       <pivotArea dataOnly="0" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="280">
+    <format dxfId="55">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="279">
+    <format dxfId="54">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="278">
+    <format dxfId="53">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="277">
+    <format dxfId="52">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="276">
+    <format dxfId="51">
       <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="275">
+    <format dxfId="50">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="274">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="273">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0" defaultSubtotal="1"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="272">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="271">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4741,7 +4046,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="270">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4755,7 +4060,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="269">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4769,7 +4074,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="268">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="2">
@@ -4782,7 +4087,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="267">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4796,7 +4101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="266">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4810,7 +4115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="265">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -4822,7 +4127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="3">
@@ -4836,7 +4141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="263">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="1">
@@ -4848,7 +4153,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="262">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="2" count="0"/>
@@ -4858,7 +4163,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="261">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4873,7 +4178,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="260">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4889,7 +4194,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4908,7 +4213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4930,7 +4235,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="257">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4946,7 +4251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="256">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4967,7 +4272,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="255">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -4986,7 +4291,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="254">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5003,7 +4308,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="253">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5019,7 +4324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="252">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5037,7 +4342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="251">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5055,7 +4360,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="250">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5074,7 +4379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="249">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5090,7 +4395,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5105,7 +4410,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="247">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5120,7 +4425,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="246">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5136,7 +4441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="245">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5154,7 +4459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="244">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5170,7 +4475,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="243">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5185,7 +4490,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5204,7 +4509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5219,7 +4524,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="240">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5236,7 +4541,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="239">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="2" count="1" selected="0">
@@ -5251,10 +4556,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="237">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
@@ -6599,8 +5904,8 @@
   <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F144" sqref="F144"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6685,7 +5990,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>98</v>
       </c>
@@ -6769,7 +6074,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>97</v>
       </c>
@@ -6811,7 +6116,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -7052,7 +6357,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>18</v>
       </c>
@@ -7142,7 +6447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>2</v>
       </c>
@@ -7364,7 +6669,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>2</v>
       </c>
@@ -7452,7 +6757,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>2</v>
       </c>
@@ -7519,7 +6824,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>3</v>
       </c>
@@ -8068,7 +7373,7 @@
       </c>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>3</v>
       </c>
@@ -8486,7 +7791,7 @@
       </c>
       <c r="G85" s="14"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>2</v>
       </c>
@@ -8496,7 +7801,9 @@
       <c r="C86" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E86" s="4" t="s">
         <v>78</v>
       </c>
@@ -8507,7 +7814,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>2</v>
       </c>
@@ -8660,7 +7967,7 @@
       </c>
       <c r="G93" s="14"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>3</v>
       </c>
@@ -8870,7 +8177,7 @@
         <v>43867</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>2</v>
       </c>
@@ -8960,7 +8267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>3</v>
       </c>
@@ -8971,7 +8278,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>107</v>
@@ -9016,7 +8323,9 @@
       <c r="C110" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E110" s="4" t="s">
         <v>40</v>
       </c>
@@ -9117,7 +8426,7 @@
       </c>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>2</v>
       </c>
@@ -9180,7 +8489,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>3</v>
       </c>
@@ -9190,7 +8499,9 @@
       <c r="C118" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E118" s="4" t="s">
         <v>61</v>
       </c>
@@ -9201,7 +8512,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>93</v>
       </c>
@@ -9241,7 +8552,7 @@
       </c>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>2</v>
       </c>
@@ -9262,7 +8573,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>3</v>
       </c>
@@ -9272,7 +8583,9 @@
       <c r="C122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="4"/>
+      <c r="D122" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E122" s="4" t="s">
         <v>61</v>
       </c>
@@ -9304,7 +8617,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>2</v>
       </c>
@@ -9314,7 +8627,9 @@
       <c r="C124" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E124" s="4" t="s">
         <v>107</v>
       </c>
@@ -9325,7 +8640,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>3</v>
       </c>
@@ -9369,7 +8684,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>218</v>
       </c>
@@ -9390,7 +8705,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>98</v>
       </c>
@@ -9400,7 +8715,9 @@
       <c r="C128" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="4"/>
+      <c r="D128" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E128" s="4" t="s">
         <v>48</v>
       </c>
@@ -9411,7 +8728,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>2</v>
       </c>
@@ -9421,7 +8738,9 @@
       <c r="C129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E129" s="4" t="s">
         <v>107</v>
       </c>
@@ -9432,7 +8751,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>2</v>
       </c>
@@ -9474,7 +8793,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>2</v>
       </c>
@@ -9484,7 +8803,9 @@
       <c r="C132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="4"/>
+      <c r="D132" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E132" s="4" t="s">
         <v>48</v>
       </c>
@@ -9516,7 +8837,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>2</v>
       </c>
@@ -9526,7 +8847,9 @@
       <c r="C134" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D134" s="4"/>
+      <c r="D134" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E134" s="4" t="s">
         <v>48</v>
       </c>
@@ -9547,7 +8870,9 @@
       <c r="C135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E135" s="4" t="s">
         <v>94</v>
       </c>
@@ -9579,7 +8904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>2</v>
       </c>
@@ -9589,7 +8914,9 @@
       <c r="C137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E137" s="4" t="s">
         <v>107</v>
       </c>
@@ -9600,7 +8927,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>2</v>
       </c>
@@ -9644,7 +8971,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>2</v>
       </c>
@@ -9654,7 +8981,9 @@
       <c r="C140" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="4"/>
+      <c r="D140" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E140" s="4" t="s">
         <v>48</v>
       </c>
@@ -9665,7 +8994,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>3</v>
       </c>
@@ -9686,7 +9015,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>2</v>
       </c>
@@ -9696,7 +9025,9 @@
       <c r="C142" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="4"/>
+      <c r="D142" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E142" s="4" t="s">
         <v>107</v>
       </c>
@@ -9749,7 +9080,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>2</v>
       </c>
@@ -9759,7 +9090,9 @@
       <c r="C145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E145" s="4" t="s">
         <v>48</v>
       </c>
@@ -9770,7 +9103,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>2</v>
       </c>
@@ -9780,7 +9113,9 @@
       <c r="C146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E146" s="4" t="s">
         <v>107</v>
       </c>
@@ -9791,7 +9126,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>2</v>
       </c>
@@ -9812,7 +9147,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>2</v>
       </c>
@@ -9833,7 +9168,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>2</v>
       </c>
@@ -10737,7 +10072,12 @@
       <c r="G247" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G142" xr:uid="{B70710B8-4FF9-40D0-AEFA-E87CE3CC0CF9}">
+  <autoFilter ref="A1:G149" xr:uid="{B70710B8-4FF9-40D0-AEFA-E87CE3CC0CF9}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="high"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="in progress"/>
@@ -10748,50 +10088,50 @@
     <sortCondition ref="B2:B85"/>
   </sortState>
   <conditionalFormatting sqref="C91:C109 C2:C89 C111:C141 C143">
-    <cfRule type="cellIs" dxfId="236" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="cellIs" dxfId="234" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="18" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="cellIs" dxfId="232" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144:C151">
-    <cfRule type="cellIs" dxfId="230" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152:C247">
-    <cfRule type="cellIs" dxfId="228" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="226" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"med"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"high"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Temp/To-Fix.xlsx
+++ b/Temp/To-Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VLAD\IT\DAN_IT\FEM3-FINAL-PROJECT\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC294A51-06C6-4E43-96FE-75C2DA7B8C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B452440-EF11-4D07-96C4-6AC7DD845CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F003A8AA-A7D0-4069-AA6E-59105AA6D065}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="250">
   <si>
     <t>при нажатии на кнопки learn more ничего не происходит</t>
   </si>
@@ -5905,7 +5905,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
+      <selection pane="bottomLeft" activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7977,7 +7977,9 @@
       <c r="C94" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E94" s="4" t="s">
         <v>61</v>
       </c>
@@ -8436,7 +8438,9 @@
       <c r="C115" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E115" s="4" t="s">
         <v>107</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>3</v>
       </c>
@@ -8826,7 +8830,9 @@
       <c r="C133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="4"/>
+      <c r="D133" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="E133" s="4" t="s">
         <v>107</v>
       </c>
